--- a/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
+++ b/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>rt-thread</t>
   </si>
   <si>
+    <t>main.o</t>
+  </si>
+  <si>
     <t>startup_stm32l432xx.o</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>drv_gpio.o</t>
   </si>
   <si>
+    <t>drv_soft_i2c.o</t>
+  </si>
+  <si>
     <t>kstdio.o</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>cpuport.o</t>
   </si>
   <si>
+    <t>bh1750fvi.o</t>
+  </si>
+  <si>
     <t>irq.o</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
     <t>thread.o</t>
   </si>
   <si>
+    <t>sensor.o</t>
+  </si>
+  <si>
     <t>cpu_up.o</t>
   </si>
   <si>
@@ -110,6 +122,9 @@
     <t>msh.o</t>
   </si>
   <si>
+    <t>dev_i2c_bit_ops.o</t>
+  </si>
+  <si>
     <t>device.o</t>
   </si>
   <si>
@@ -125,6 +140,12 @@
     <t>stm32l4xx_hal_gpio.o</t>
   </si>
   <si>
+    <t>dev_i2c_core.o</t>
+  </si>
+  <si>
+    <t>dev_i2c_dev.o</t>
+  </si>
+  <si>
     <t>kstring.o</t>
   </si>
   <si>
@@ -167,6 +188,9 @@
     <t>strtol.o</t>
   </si>
   <si>
+    <t>rt_memcpy_w.o</t>
+  </si>
+  <si>
     <t>cstdlib.o</t>
   </si>
   <si>
@@ -200,9 +224,6 @@
     <t>msh_parse.o</t>
   </si>
   <si>
-    <t>main.o</t>
-  </si>
-  <si>
     <t>__scatter.o</t>
   </si>
   <si>
@@ -216,6 +237,9 @@
   </si>
   <si>
     <t>atoi.o</t>
+  </si>
+  <si>
+    <t>strcat.o</t>
   </si>
   <si>
     <t>libinit2.o</t>
@@ -395,82 +419,94 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$89</c:f>
+              <c:f>ram_percent!$A$3:$A$97</c:f>
               <c:strCache>
-                <c:ptCount val="87"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>drv_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>object.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>shell.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>scheduler_up.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>drv_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>drv_soft_i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>kstdio.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>cmd.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>c_w.l</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>dev_pin.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>bh1750fvi.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>thread.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
+                  <c:v>sensor.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>cpu_up.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>completion_up.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>serial.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>drv_common.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="94">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -478,83 +514,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$89</c:f>
+              <c:f>ram_percent!$B$3:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>25.97666168212891</c:v>
+                  <c:v>22.51308822631836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.36478900909424</c:v>
+                  <c:v>19.1473445892334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.75596141815186</c:v>
+                  <c:v>8.376963615417481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.523591995239258</c:v>
+                  <c:v>7.928197383880615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.204464912414551</c:v>
+                  <c:v>6.282722473144531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.026889801025391</c:v>
+                  <c:v>5.310396194458008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.900050640106201</c:v>
+                  <c:v>5.179506301879883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.59563684463501</c:v>
+                  <c:v>5.086013317108154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.14561128616333</c:v>
+                  <c:v>4.861630439758301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.044140100479126</c:v>
+                  <c:v>3.365744113922119</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.435312032699585</c:v>
+                  <c:v>2.318623781204224</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.435312032699585</c:v>
+                  <c:v>2.243829488754273</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.826483964920044</c:v>
+                  <c:v>1.795063614845276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7102993130683899</c:v>
+                  <c:v>1.795063614845276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4058853387832642</c:v>
+                  <c:v>1.346297740936279</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3044140040874481</c:v>
+                  <c:v>0.5235602259635925</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2283104956150055</c:v>
+                  <c:v>0.2991772592067719</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2029426693916321</c:v>
+                  <c:v>0.2617801129817963</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2029426693916321</c:v>
+                  <c:v>0.2243829518556595</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2029426693916321</c:v>
+                  <c:v>0.1682872176170349</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2029426693916321</c:v>
+                  <c:v>0.1495886296033859</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.101471334695816</c:v>
+                  <c:v>0.1495886296033859</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.101471334695816</c:v>
+                  <c:v>0.1495886296033859</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.101471334695816</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                  <c:v>0.1495886296033859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1495886296033859</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.07479431480169296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.07479431480169296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.07479431480169296</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -622,9 +670,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$89</c:f>
+              <c:f>flash_percent!$A$3:$A$97</c:f>
               <c:strCache>
-                <c:ptCount val="87"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>cmd.o</c:v>
                 </c:pt>
@@ -638,10 +686,10 @@
                   <c:v>stm32l4xx_hal_uart.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>thread.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>drv_usart.o</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>thread.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
@@ -653,237 +701,261 @@
                   <c:v>dataqueue.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>timer.o</c:v>
+                  <c:v>dev_pin.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>dev_pin.o</c:v>
+                  <c:v>sensor.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>timer.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>kstdio.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>mem.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>drv_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>object.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>msh.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
+                  <c:v>dev_i2c_bit_ops.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>device.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>bh1750fvi.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>scheduler_up.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>stm32l4xx_hal_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>completion_up.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>scheduler_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
+                  <c:v>dev_i2c_core.o</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>dev_i2c_dev.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>drv_common.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>drv_soft_i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="34">
                   <c:v>kstring.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>drv_common.o</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>context_rvds.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>components.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
                   <c:v>lludivv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="44">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>_strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>strncmp.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
                   <c:v>board.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="49">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="50">
                   <c:v>cpu_up.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
                   <c:v>strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="52">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="53">
                   <c:v>strtol.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="54">
+                  <c:v>rt_memcpy_w.o</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>cstdlib.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="56">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="57">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="58">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="59">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="60">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="61">
                   <c:v>strcpy.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="62">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="63">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="64">
                   <c:v>atomic_arm.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="65">
                   <c:v>msh_parse.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="66">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="67">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="68">
                   <c:v>completion_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="69">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="70">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="71">
                   <c:v>atoi.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="72">
+                  <c:v>strcat.o</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="74">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="75">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="76">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="77">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="78">
                   <c:v>syscalls.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="79">
                   <c:v>fz_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="80">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="81">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="82">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="83">
                   <c:v>rt_errno_addr_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="84">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="85">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="86">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="87">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="88">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="89">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="90">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="91">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="92">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="93">
                   <c:v>stm32l4xx_hal_uart_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="94">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -891,269 +963,293 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$89</c:f>
+              <c:f>flash_percent!$B$3:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>8.182191848754883</c:v>
+                  <c:v>7.244977951049805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.95620584487915</c:v>
+                  <c:v>6.366459846496582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.697105884552002</c:v>
+                  <c:v>5.929998397827148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.447421550750732</c:v>
+                  <c:v>4.823456764221191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.508973598480225</c:v>
+                  <c:v>4.268087863922119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.469476699829102</c:v>
+                  <c:v>3.992501735687256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.398382186889648</c:v>
+                  <c:v>3.894577741622925</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.055548667907715</c:v>
+                  <c:v>3.591013431549072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.690596580505371</c:v>
+                  <c:v>3.267864227294922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.391999483108521</c:v>
+                  <c:v>3.224497795104981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.371461153030396</c:v>
+                  <c:v>3.158748865127564</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.357242107391357</c:v>
+                  <c:v>3.120978116989136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.298786640167236</c:v>
+                  <c:v>3.003469228744507</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.145538330078125</c:v>
+                  <c:v>2.920933246612549</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.074443817138672</c:v>
+                  <c:v>2.785238742828369</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.979651212692261</c:v>
+                  <c:v>2.72228741645813</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.775846719741821</c:v>
+                  <c:v>2.638352632522583</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.677894353866577</c:v>
+                  <c:v>2.457892656326294</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.41405463218689</c:v>
+                  <c:v>2.37116003036499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.085439920425415</c:v>
+                  <c:v>2.224273920059204</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.952730059623718</c:v>
+                  <c:v>2.1375412940979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.842138528823853</c:v>
+                  <c:v>2.053606510162354</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.342896819114685</c:v>
+                  <c:v>1.980862855911255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.333417534828186</c:v>
+                  <c:v>1.729058265686035</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.202287673950195</c:v>
+                  <c:v>1.631134271621704</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.15963089466095</c:v>
+                  <c:v>1.189077258110046</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7204246520996094</c:v>
+                  <c:v>1.180683732032776</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6793478131294251</c:v>
+                  <c:v>1.064573884010315</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6335313320159912</c:v>
+                  <c:v>1.026803255081177</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5782355666160584</c:v>
+                  <c:v>0.8463432192802429</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5719161033630371</c:v>
+                  <c:v>0.7861899137496948</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5182002186775208</c:v>
+                  <c:v>0.672877848148346</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5055611729621887</c:v>
+                  <c:v>0.6686810851097107</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4992416501045227</c:v>
+                  <c:v>0.6379050016403198</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.404448926448822</c:v>
+                  <c:v>0.6015332341194153</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4012891948223114</c:v>
+                  <c:v>0.51200270652771</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3760111331939697</c:v>
+                  <c:v>0.5064070224761963</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3396739065647125</c:v>
+                  <c:v>0.4588439464569092</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2591001093387604</c:v>
+                  <c:v>0.4476526081562042</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2464610785245895</c:v>
+                  <c:v>0.4420569539070129</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2369817942380905</c:v>
+                  <c:v>0.4308656454086304</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2338220477104187</c:v>
+                  <c:v>0.3972916901111603</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.202224463224411</c:v>
+                  <c:v>0.3553242683410645</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1927451938390732</c:v>
+                  <c:v>0.3329416513442993</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1895854324102402</c:v>
+                  <c:v>0.3007666170597076</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1832659244537354</c:v>
+                  <c:v>0.2294219732284546</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1769464164972305</c:v>
+                  <c:v>0.2182306498289108</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1579878628253937</c:v>
+                  <c:v>0.2098371684551239</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.142189085483551</c:v>
+                  <c:v>0.2070393413305283</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.139029324054718</c:v>
+                  <c:v>0.1790610551834106</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.135869562625885</c:v>
+                  <c:v>0.1706675589084625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1232305392622948</c:v>
+                  <c:v>0.1678697317838669</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1169110238552094</c:v>
+                  <c:v>0.1622740775346756</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1137512624263763</c:v>
+                  <c:v>0.1566784232854843</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1074317470192909</c:v>
+                  <c:v>0.1398914456367493</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.09795247763395309</c:v>
+                  <c:v>0.1398914456367493</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.09795247763395309</c:v>
+                  <c:v>0.1259022951126099</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.09479271620512009</c:v>
+                  <c:v>0.1231044679880142</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.08847320824861527</c:v>
+                  <c:v>0.1203066408634186</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.08215369284152985</c:v>
+                  <c:v>0.1091153249144554</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.06161526963114739</c:v>
+                  <c:v>0.1035196706652641</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.05371587350964546</c:v>
+                  <c:v>0.1007218435406685</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.04423660412430763</c:v>
+                  <c:v>0.09512618184089661</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.04423660412430763</c:v>
+                  <c:v>0.08673269301652908</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.04107684642076492</c:v>
+                  <c:v>0.08673269301652908</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.03791708871722221</c:v>
+                  <c:v>0.08393486589193344</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0315975733101368</c:v>
+                  <c:v>0.07274354994297028</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.02843781560659409</c:v>
+                  <c:v>0.05455766245722771</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.02527805790305138</c:v>
+                  <c:v>0.0475630909204483</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.01895854435861111</c:v>
+                  <c:v>0.03916960582137108</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.01895854435861111</c:v>
+                  <c:v>0.03916960582137108</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0157987866550684</c:v>
+                  <c:v>0.03637177497148514</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0157987866550684</c:v>
+                  <c:v>0.0335739478468895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0157987866550684</c:v>
+                  <c:v>0.0335739478468895</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.01263902895152569</c:v>
+                  <c:v>0.02797828800976276</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.01263902895152569</c:v>
+                  <c:v>0.02518046088516712</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.01263902895152569</c:v>
+                  <c:v>0.02238263189792633</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.01263902895152569</c:v>
+                  <c:v>0.01678697392344475</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.009479272179305553</c:v>
+                  <c:v>0.01678697392344475</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.009479272179305553</c:v>
+                  <c:v>0.01398914400488138</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.003159757237881422</c:v>
+                  <c:v>0.01398914400488138</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.003159757237881422</c:v>
+                  <c:v>0.01398914400488138</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.003159757237881422</c:v>
+                  <c:v>0.01119131594896317</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.003159757237881422</c:v>
+                  <c:v>0.01119131594896317</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.003159757237881422</c:v>
+                  <c:v>0.01119131594896317</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.003159757237881422</c:v>
+                  <c:v>0.01119131594896317</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>0.008393486961722374</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.008393486961722374</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.002797828987240791</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.002797828987240791</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.002797828987240791</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.002797828987240791</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.002797828987240791</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.002797828987240791</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1258,8 +1354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H89" totalsRowCount="1">
-  <autoFilter ref="A2:H88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H97" totalsRowCount="1">
+  <autoFilter ref="A2:H96"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1275,8 +1371,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H89" totalsRowCount="1">
-  <autoFilter ref="A2:H88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H97" totalsRowCount="1">
+  <autoFilter ref="A2:H96"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1576,7 +1672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1592,28 +1688,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1621,25 +1717,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>25.97666168212891</v>
+        <v>22.51308822631836</v>
       </c>
       <c r="C3" s="1">
-        <v>1024</v>
+        <v>1204</v>
       </c>
       <c r="D3" s="1">
-        <v>456</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="F3" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>1024</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1647,25 +1743,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>11.36478900909424</v>
+        <v>19.1473445892334</v>
       </c>
       <c r="C4" s="1">
-        <v>448</v>
+        <v>1024</v>
       </c>
       <c r="D4" s="1">
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="E4" s="1">
-        <v>342</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G4" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>424</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1673,25 +1769,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>10.75596141815186</v>
+        <v>8.376963615417481</v>
       </c>
       <c r="C5" s="1">
+        <v>448</v>
+      </c>
+      <c r="D5" s="1">
+        <v>366</v>
+      </c>
+      <c r="E5" s="1">
+        <v>342</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1">
         <v>424</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2854</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2556</v>
-      </c>
-      <c r="F5" s="1">
-        <v>278</v>
-      </c>
-      <c r="G5" s="1">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1">
-        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1699,25 +1795,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>8.523591995239258</v>
+        <v>7.928197383880615</v>
       </c>
       <c r="C6" s="1">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="D6" s="1">
-        <v>1886</v>
+        <v>2854</v>
       </c>
       <c r="E6" s="1">
-        <v>1552</v>
+        <v>2556</v>
       </c>
       <c r="F6" s="1">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="G6" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
-        <v>308</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1725,25 +1821,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>7.204464912414551</v>
+        <v>6.282722473144531</v>
       </c>
       <c r="C7" s="1">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="D7" s="1">
-        <v>1757</v>
+        <v>1886</v>
       </c>
       <c r="E7" s="1">
-        <v>1326</v>
+        <v>1552</v>
       </c>
       <c r="F7" s="1">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="G7" s="1">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1751,25 +1847,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>7.026889801025391</v>
+        <v>5.310396194458008</v>
       </c>
       <c r="C8" s="1">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D8" s="1">
-        <v>2567</v>
+        <v>1757</v>
       </c>
       <c r="E8" s="1">
-        <v>2408</v>
+        <v>1326</v>
       </c>
       <c r="F8" s="1">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G8" s="1">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="H8" s="1">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1777,25 +1873,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>6.900050640106201</v>
+        <v>5.179506301879883</v>
       </c>
       <c r="C9" s="1">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D9" s="1">
-        <v>1166</v>
+        <v>2567</v>
       </c>
       <c r="E9" s="1">
-        <v>1078</v>
+        <v>2408</v>
       </c>
       <c r="F9" s="1">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1803,25 +1899,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>6.59563684463501</v>
+        <v>5.086013317108154</v>
       </c>
       <c r="C10" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D10" s="1">
-        <v>1946</v>
+        <v>1166</v>
       </c>
       <c r="E10" s="1">
-        <v>1594</v>
+        <v>1078</v>
       </c>
       <c r="F10" s="1">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1829,22 +1925,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>3.14561128616333</v>
+        <v>4.861630439758301</v>
       </c>
       <c r="C11" s="1">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="D11" s="1">
-        <v>2088</v>
+        <v>1946</v>
       </c>
       <c r="E11" s="1">
-        <v>1810</v>
+        <v>1594</v>
       </c>
       <c r="F11" s="1">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1855,25 +1951,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>3.044140100479126</v>
+        <v>3.365744113922119</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D12" s="1">
-        <v>5179</v>
+        <v>478</v>
       </c>
       <c r="E12" s="1">
-        <v>4070</v>
+        <v>406</v>
       </c>
       <c r="F12" s="1">
-        <v>989</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1881,25 +1977,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>2.435312032699585</v>
+        <v>2.318623781204224</v>
       </c>
       <c r="C13" s="1">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1">
-        <v>2134</v>
+        <v>2088</v>
       </c>
       <c r="E13" s="1">
-        <v>1862</v>
+        <v>1810</v>
       </c>
       <c r="F13" s="1">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="H13" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1907,25 +2003,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>2.435312032699585</v>
+        <v>2.243829488754273</v>
       </c>
       <c r="C14" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>5179</v>
       </c>
       <c r="E14" s="1">
-        <v>8</v>
+        <v>4070</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1933,25 +2029,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1.826483964920044</v>
+        <v>1.795063614845276</v>
       </c>
       <c r="C15" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1">
-        <v>2125</v>
+        <v>2258</v>
       </c>
       <c r="E15" s="1">
-        <v>1804</v>
+        <v>1986</v>
       </c>
       <c r="F15" s="1">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1959,25 +2055,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.7102993130683899</v>
+        <v>1.795063614845276</v>
       </c>
       <c r="C16" s="1">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>2147</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>1996</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1985,25 +2081,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.4058853387832642</v>
+        <v>1.346297740936279</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1">
-        <v>1528</v>
+        <v>2305</v>
       </c>
       <c r="E17" s="1">
-        <v>1512</v>
+        <v>1984</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="G17" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2011,22 +2107,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.3044140040874481</v>
+        <v>0.5235602259635925</v>
       </c>
       <c r="C18" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
-        <v>116</v>
+        <v>2147</v>
       </c>
       <c r="E18" s="1">
-        <v>104</v>
+        <v>1996</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -2037,22 +2133,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.2283104956150055</v>
+        <v>0.2991772592067719</v>
       </c>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>39</v>
+        <v>1528</v>
       </c>
       <c r="E19" s="1">
-        <v>30</v>
+        <v>1512</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2063,22 +2159,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.2029426693916321</v>
+        <v>0.2617801129817963</v>
       </c>
       <c r="C20" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>2829</v>
+        <v>1416</v>
       </c>
       <c r="E20" s="1">
-        <v>2448</v>
+        <v>1398</v>
       </c>
       <c r="F20" s="1">
-        <v>373</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2089,22 +2185,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.2029426693916321</v>
+        <v>0.2243829518556595</v>
       </c>
       <c r="C21" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E21" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2115,22 +2211,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.2029426693916321</v>
+        <v>0.1682872176170349</v>
       </c>
       <c r="C22" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
-        <v>844</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1">
-        <v>762</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2141,19 +2237,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.2029426693916321</v>
+        <v>0.1495886296033859</v>
       </c>
       <c r="C23" s="1">
         <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>215</v>
+        <v>3051</v>
       </c>
       <c r="E23" s="1">
-        <v>168</v>
+        <v>2670</v>
       </c>
       <c r="F23" s="1">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="G23" s="1">
         <v>8</v>
@@ -2167,22 +2263,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.101471334695816</v>
+        <v>0.1495886296033859</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1">
-        <v>320</v>
+        <v>2231</v>
       </c>
       <c r="E24" s="1">
-        <v>244</v>
+        <v>1892</v>
       </c>
       <c r="F24" s="1">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -2193,22 +2289,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.101471334695816</v>
+        <v>0.1495886296033859</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>4239</v>
+        <v>122</v>
       </c>
       <c r="E25" s="1">
-        <v>3838</v>
+        <v>114</v>
       </c>
       <c r="F25" s="1">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2219,56 +2315,160 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.101471334695816</v>
+        <v>0.1495886296033859</v>
       </c>
       <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>844</v>
+      </c>
+      <c r="E26" s="1">
+        <v>762</v>
+      </c>
+      <c r="F26" s="1">
+        <v>74</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.1495886296033859</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>215</v>
+      </c>
+      <c r="E27" s="1">
+        <v>168</v>
+      </c>
+      <c r="F27" s="1">
+        <v>39</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.07479431480169296</v>
+      </c>
+      <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D26" s="1">
-        <v>401</v>
-      </c>
-      <c r="E26" s="1">
-        <v>360</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="D28" s="1">
+        <v>320</v>
+      </c>
+      <c r="E28" s="1">
+        <v>244</v>
+      </c>
+      <c r="F28" s="1">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.07479431480169296</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4239</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3838</v>
+      </c>
+      <c r="F29" s="1">
+        <v>397</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.07479431480169296</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>481</v>
+      </c>
+      <c r="E30" s="1">
+        <v>440</v>
+      </c>
+      <c r="F30" s="1">
         <v>37</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G30" s="1">
         <v>4</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C89">
+      <c r="C97">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D89">
+      <c r="D97">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E89">
+      <c r="E97">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F97">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G89">
+      <c r="G97">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H89">
+      <c r="H97">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2284,7 +2484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2300,36 +2500,36 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>8.182191848754883</v>
+        <v>7.244977951049805</v>
       </c>
       <c r="C3" s="1">
         <v>5179</v>
@@ -2352,19 +2552,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
-        <v>6.95620584487915</v>
+        <v>6.366459846496582</v>
       </c>
       <c r="C4" s="1">
-        <v>4403</v>
+        <v>4551</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>3642</v>
+        <v>3790</v>
       </c>
       <c r="F4" s="1">
         <v>761</v>
@@ -2378,10 +2578,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
-        <v>6.697105884552002</v>
+        <v>5.929998397827148</v>
       </c>
       <c r="C5" s="1">
         <v>4239</v>
@@ -2404,10 +2604,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>5.447421550750732</v>
+        <v>4.823456764221191</v>
       </c>
       <c r="C6" s="1">
         <v>3448</v>
@@ -2430,62 +2630,62 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.508973598480225</v>
+        <v>4.268087863922119</v>
       </c>
       <c r="C7" s="1">
-        <v>2854</v>
+        <v>3051</v>
       </c>
       <c r="D7" s="1">
-        <v>424</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>2556</v>
+        <v>2670</v>
       </c>
       <c r="F7" s="1">
-        <v>278</v>
+        <v>373</v>
       </c>
       <c r="G7" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>4.469476699829102</v>
+        <v>3.992501735687256</v>
       </c>
       <c r="C8" s="1">
-        <v>2829</v>
+        <v>2854</v>
       </c>
       <c r="D8" s="1">
-        <v>8</v>
+        <v>424</v>
       </c>
       <c r="E8" s="1">
-        <v>2448</v>
+        <v>2556</v>
       </c>
       <c r="F8" s="1">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="G8" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2">
-        <v>4.398382186889648</v>
+        <v>3.894577741622925</v>
       </c>
       <c r="C9" s="1">
         <v>2784</v>
@@ -2508,10 +2708,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>4.055548667907715</v>
+        <v>3.591013431549072</v>
       </c>
       <c r="C10" s="1">
         <v>2567</v>
@@ -2534,10 +2734,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
-        <v>3.690596580505371</v>
+        <v>3.267864227294922</v>
       </c>
       <c r="C11" s="1">
         <v>2336</v>
@@ -2560,45 +2760,45 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>3.391999483108521</v>
+        <v>3.224497795104981</v>
       </c>
       <c r="C12" s="1">
-        <v>2147</v>
+        <v>2305</v>
       </c>
       <c r="D12" s="1">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="F12" s="1">
-        <v>123</v>
+        <v>321</v>
       </c>
       <c r="G12" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>3.371461153030396</v>
+        <v>3.158748865127564</v>
       </c>
       <c r="C13" s="1">
-        <v>2134</v>
+        <v>2258</v>
       </c>
       <c r="D13" s="1">
         <v>96</v>
       </c>
       <c r="E13" s="1">
-        <v>1862</v>
+        <v>1986</v>
       </c>
       <c r="F13" s="1">
         <v>272</v>
@@ -2612,51 +2812,51 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>3.357242107391357</v>
+        <v>3.120978116989136</v>
       </c>
       <c r="C14" s="1">
-        <v>2125</v>
+        <v>2231</v>
       </c>
       <c r="D14" s="1">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>1804</v>
+        <v>1892</v>
       </c>
       <c r="F14" s="1">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>3.298786640167236</v>
+        <v>3.003469228744507</v>
       </c>
       <c r="C15" s="1">
-        <v>2088</v>
+        <v>2147</v>
       </c>
       <c r="D15" s="1">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1">
-        <v>1810</v>
+        <v>1996</v>
       </c>
       <c r="F15" s="1">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2664,25 +2864,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>3.145538330078125</v>
+        <v>2.920933246612549</v>
       </c>
       <c r="C16" s="1">
-        <v>1991</v>
+        <v>2088</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E16" s="1">
-        <v>1498</v>
+        <v>1810</v>
       </c>
       <c r="F16" s="1">
-        <v>493</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -2690,25 +2890,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>3.074443817138672</v>
+        <v>2.785238742828369</v>
       </c>
       <c r="C17" s="1">
-        <v>1946</v>
+        <v>1991</v>
       </c>
       <c r="D17" s="1">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1594</v>
+        <v>1498</v>
       </c>
       <c r="F17" s="1">
-        <v>92</v>
+        <v>493</v>
       </c>
       <c r="G17" s="1">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2716,28 +2916,28 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>2.979651212692261</v>
+        <v>2.72228741645813</v>
       </c>
       <c r="C18" s="1">
-        <v>1886</v>
+        <v>1946</v>
       </c>
       <c r="D18" s="1">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="E18" s="1">
-        <v>1552</v>
+        <v>1594</v>
       </c>
       <c r="F18" s="1">
-        <v>306</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="H18" s="1">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2745,48 +2945,48 @@
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>2.775846719741821</v>
+        <v>2.638352632522583</v>
       </c>
       <c r="C19" s="1">
-        <v>1757</v>
+        <v>1886</v>
       </c>
       <c r="D19" s="1">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="E19" s="1">
-        <v>1326</v>
+        <v>1552</v>
       </c>
       <c r="F19" s="1">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="G19" s="1">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>2.677894353866577</v>
+        <v>2.457892656326294</v>
       </c>
       <c r="C20" s="1">
-        <v>1695</v>
+        <v>1757</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="E20" s="1">
-        <v>1536</v>
+        <v>1326</v>
       </c>
       <c r="F20" s="1">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2794,25 +2994,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>2.41405463218689</v>
+        <v>2.37116003036499</v>
       </c>
       <c r="C21" s="1">
-        <v>1528</v>
+        <v>1695</v>
       </c>
       <c r="D21" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1512</v>
+        <v>1536</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="G21" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2820,22 +3020,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2">
-        <v>2.085439920425415</v>
+        <v>2.224273920059204</v>
       </c>
       <c r="C22" s="1">
-        <v>1320</v>
+        <v>1590</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>1134</v>
+        <v>1578</v>
       </c>
       <c r="F22" s="1">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -2846,25 +3046,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
-        <v>1.952730059623718</v>
+        <v>2.1375412940979</v>
       </c>
       <c r="C23" s="1">
-        <v>1236</v>
+        <v>1528</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1">
-        <v>1236</v>
+        <v>1512</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -2872,51 +3072,51 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>1.842138528823853</v>
+        <v>2.053606510162354</v>
       </c>
       <c r="C24" s="1">
-        <v>1166</v>
+        <v>1468</v>
       </c>
       <c r="D24" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>1078</v>
+        <v>1282</v>
       </c>
       <c r="F24" s="1">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="G24" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
-        <v>1.342896819114685</v>
+        <v>1.980862855911255</v>
       </c>
       <c r="C25" s="1">
-        <v>850</v>
+        <v>1416</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1">
-        <v>850</v>
+        <v>1398</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2924,25 +3124,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>1.333417534828186</v>
+        <v>1.729058265686035</v>
       </c>
       <c r="C26" s="1">
-        <v>844</v>
+        <v>1236</v>
       </c>
       <c r="D26" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>762</v>
+        <v>1236</v>
       </c>
       <c r="F26" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2950,45 +3150,45 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>1.202287673950195</v>
+        <v>1.631134271621704</v>
       </c>
       <c r="C27" s="1">
-        <v>761</v>
+        <v>1166</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="E27" s="1">
-        <v>704</v>
+        <v>1078</v>
       </c>
       <c r="F27" s="1">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>1.15963089466095</v>
+        <v>1.189077258110046</v>
       </c>
       <c r="C28" s="1">
-        <v>734</v>
+        <v>850</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>734</v>
+        <v>850</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3002,48 +3202,48 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7204246520996094</v>
+        <v>1.180683732032776</v>
       </c>
       <c r="C29" s="1">
-        <v>456</v>
+        <v>844</v>
       </c>
       <c r="D29" s="1">
-        <v>1024</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1">
-        <v>60</v>
+        <v>762</v>
       </c>
       <c r="F29" s="1">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>0.6793478131294251</v>
+        <v>1.064573884010315</v>
       </c>
       <c r="C30" s="1">
-        <v>430</v>
+        <v>761</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>430</v>
+        <v>704</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -3054,25 +3254,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6335313320159912</v>
+        <v>1.026803255081177</v>
       </c>
       <c r="C31" s="1">
-        <v>401</v>
+        <v>734</v>
       </c>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>360</v>
+        <v>734</v>
       </c>
       <c r="F31" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -3080,48 +3280,48 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>0.5782355666160584</v>
+        <v>0.8463432192802429</v>
       </c>
       <c r="C32" s="1">
-        <v>366</v>
+        <v>605</v>
       </c>
       <c r="D32" s="1">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>342</v>
+        <v>586</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G32" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5719161033630371</v>
+        <v>0.7861899137496948</v>
       </c>
       <c r="C33" s="1">
-        <v>362</v>
+        <v>562</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>362</v>
+        <v>468</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -3132,25 +3332,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5182002186775208</v>
+        <v>0.672877848148346</v>
       </c>
       <c r="C34" s="1">
-        <v>328</v>
+        <v>481</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>328</v>
+        <v>440</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3158,71 +3358,71 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5055611729621887</v>
+        <v>0.6686810851097107</v>
       </c>
       <c r="C35" s="1">
-        <v>320</v>
+        <v>478</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1">
-        <v>244</v>
+        <v>406</v>
       </c>
       <c r="F35" s="1">
         <v>72</v>
       </c>
       <c r="G35" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4992416501045227</v>
+        <v>0.6379050016403198</v>
       </c>
       <c r="C36" s="1">
-        <v>316</v>
+        <v>456</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E36" s="1">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
-        <v>0.404448926448822</v>
+        <v>0.6015332341194153</v>
       </c>
       <c r="C37" s="1">
-        <v>256</v>
+        <v>430</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>256</v>
+        <v>430</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3236,45 +3436,45 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4012891948223114</v>
+        <v>0.51200270652771</v>
       </c>
       <c r="C38" s="1">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="E38" s="1">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="F38" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3760111331939697</v>
+        <v>0.5064070224761963</v>
       </c>
       <c r="C39" s="1">
-        <v>238</v>
+        <v>362</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>238</v>
+        <v>362</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3288,25 +3488,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3396739065647125</v>
+        <v>0.4588439464569092</v>
       </c>
       <c r="C40" s="1">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="D40" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="F40" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -3314,25 +3514,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2">
-        <v>0.2591001093387604</v>
+        <v>0.4476526081562042</v>
       </c>
       <c r="C41" s="1">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -3340,22 +3540,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.4420569539070129</v>
+      </c>
+      <c r="C42" s="1">
+        <v>316</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>44</v>
       </c>
-      <c r="B42" s="2">
-        <v>0.2464610785245895</v>
-      </c>
-      <c r="C42" s="1">
-        <v>156</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>156</v>
-      </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -3366,19 +3566,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2369817942380905</v>
+        <v>0.4308656454086304</v>
       </c>
       <c r="C43" s="1">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3392,48 +3592,48 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2338220477104187</v>
+        <v>0.3972916901111603</v>
       </c>
       <c r="C44" s="1">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="E44" s="1">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>0.202224463224411</v>
+        <v>0.3553242683410645</v>
       </c>
       <c r="C45" s="1">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -3444,25 +3644,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>0.1927451938390732</v>
+        <v>0.3329416513442993</v>
       </c>
       <c r="C46" s="1">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="D46" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -3470,25 +3670,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2">
-        <v>0.1895854324102402</v>
+        <v>0.3007666170597076</v>
       </c>
       <c r="C47" s="1">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3496,25 +3696,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>0.1832659244537354</v>
+        <v>0.2294219732284546</v>
       </c>
       <c r="C48" s="1">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D48" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -3522,19 +3722,19 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>0.1769464164972305</v>
+        <v>0.2182306498289108</v>
       </c>
       <c r="C49" s="1">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3548,19 +3748,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>0.1579878628253937</v>
+        <v>0.2098371684551239</v>
       </c>
       <c r="C50" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3574,19 +3774,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.142189085483551</v>
+        <v>0.2070393413305283</v>
       </c>
       <c r="C51" s="1">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3600,19 +3800,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.139029324054718</v>
+        <v>0.1790610551834106</v>
       </c>
       <c r="C52" s="1">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3626,25 +3826,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2">
-        <v>0.135869562625885</v>
+        <v>0.1706675589084625</v>
       </c>
       <c r="C53" s="1">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -3652,19 +3852,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2">
-        <v>0.1232305392622948</v>
+        <v>0.1678697317838669</v>
       </c>
       <c r="C54" s="1">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3678,25 +3878,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1169110238552094</v>
+        <v>0.1622740775346756</v>
       </c>
       <c r="C55" s="1">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -3707,16 +3907,16 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1137512624263763</v>
+        <v>0.1566784232854843</v>
       </c>
       <c r="C56" s="1">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3733,16 +3933,16 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1074317470192909</v>
+        <v>0.1398914456367493</v>
       </c>
       <c r="C57" s="1">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3759,16 +3959,16 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.09795247763395309</v>
+        <v>0.1398914456367493</v>
       </c>
       <c r="C58" s="1">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3785,16 +3985,16 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.09795247763395309</v>
+        <v>0.1259022951126099</v>
       </c>
       <c r="C59" s="1">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -3811,16 +4011,16 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.09479271620512009</v>
+        <v>0.1231044679880142</v>
       </c>
       <c r="C60" s="1">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3837,16 +4037,16 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.08847320824861527</v>
+        <v>0.1203066408634186</v>
       </c>
       <c r="C61" s="1">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3863,16 +4063,16 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.08215369284152985</v>
+        <v>0.1091153249144554</v>
       </c>
       <c r="C62" s="1">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3886,25 +4086,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.06161526963114739</v>
+        <v>0.1035196706652641</v>
       </c>
       <c r="C63" s="1">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D63" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3912,19 +4112,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.05371587350964546</v>
+        <v>0.1007218435406685</v>
       </c>
       <c r="C64" s="1">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3938,19 +4138,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.04423660412430763</v>
+        <v>0.09512618184089661</v>
       </c>
       <c r="C65" s="1">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3964,19 +4164,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.04423660412430763</v>
+        <v>0.08673269301652908</v>
       </c>
       <c r="C66" s="1">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3990,19 +4190,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.04107684642076492</v>
+        <v>0.08673269301652908</v>
       </c>
       <c r="C67" s="1">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4016,19 +4216,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.03791708871722221</v>
+        <v>0.08393486589193344</v>
       </c>
       <c r="C68" s="1">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4042,19 +4242,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.0315975733101368</v>
+        <v>0.07274354994297028</v>
       </c>
       <c r="C69" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4068,25 +4268,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B70" s="2">
-        <v>0.02843781560659409</v>
+        <v>0.05455766245722771</v>
       </c>
       <c r="C70" s="1">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E70" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -4097,16 +4297,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.02527805790305138</v>
+        <v>0.0475630909204483</v>
       </c>
       <c r="C71" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4123,16 +4323,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.01895854435861111</v>
+        <v>0.03916960582137108</v>
       </c>
       <c r="C72" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4149,16 +4349,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.01895854435861111</v>
+        <v>0.03916960582137108</v>
       </c>
       <c r="C73" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4175,16 +4375,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.0157987866550684</v>
+        <v>0.03637177497148514</v>
       </c>
       <c r="C74" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4201,16 +4401,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.0157987866550684</v>
+        <v>0.0335739478468895</v>
       </c>
       <c r="C75" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4227,16 +4427,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.0157987866550684</v>
+        <v>0.0335739478468895</v>
       </c>
       <c r="C76" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4253,16 +4453,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.01263902895152569</v>
+        <v>0.02797828800976276</v>
       </c>
       <c r="C77" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4279,16 +4479,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.01263902895152569</v>
+        <v>0.02518046088516712</v>
       </c>
       <c r="C78" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4302,19 +4502,19 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.01263902895152569</v>
+        <v>0.02238263189792633</v>
       </c>
       <c r="C79" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D79" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4323,24 +4523,24 @@
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.01263902895152569</v>
+        <v>0.01678697392344475</v>
       </c>
       <c r="C80" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4354,19 +4554,19 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.009479272179305553</v>
+        <v>0.01678697392344475</v>
       </c>
       <c r="C81" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4380,19 +4580,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.009479272179305553</v>
+        <v>0.01398914400488138</v>
       </c>
       <c r="C82" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4406,19 +4606,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.003159757237881422</v>
+        <v>0.01398914400488138</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4432,19 +4632,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.003159757237881422</v>
+        <v>0.01398914400488138</v>
       </c>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4458,19 +4658,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.003159757237881422</v>
+        <v>0.01119131594896317</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4484,19 +4684,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.003159757237881422</v>
+        <v>0.01119131594896317</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4510,19 +4710,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B87" s="2">
-        <v>0.003159757237881422</v>
+        <v>0.01119131594896317</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4531,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4539,56 +4739,264 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>0.003159757237881422</v>
+        <v>0.01119131594896317</v>
       </c>
       <c r="C88" s="1">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.008393486961722374</v>
+      </c>
+      <c r="C89" s="1">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.008393486961722374</v>
+      </c>
+      <c r="C90" s="1">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.002797828987240791</v>
+      </c>
+      <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="D88" s="1">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1">
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
         <v>2</v>
       </c>
-      <c r="F88" s="1">
-        <v>0</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.002797828987240791</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.002797828987240791</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.002797828987240791</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.002797828987240791</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.002797828987240791</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C89">
+      <c r="C97">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D89">
+      <c r="D97">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E89">
+      <c r="E97">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F97">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G89">
+      <c r="G97">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H89">
+      <c r="H97">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
+++ b/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
@@ -15,23 +15,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t>rt-thread</t>
   </si>
   <si>
+    <t>cdc_acm_template.o</t>
+  </si>
+  <si>
     <t>main.o</t>
   </si>
   <si>
     <t>startup_stm32l432xx.o</t>
   </si>
   <si>
+    <t>usbd_core.o</t>
+  </si>
+  <si>
     <t>idle.o</t>
   </si>
   <si>
     <t>drv_usart.o</t>
   </si>
   <si>
+    <t>usb_dc_fsdev.o</t>
+  </si>
+  <si>
+    <t>c_w.l</t>
+  </si>
+  <si>
     <t>kservice.o</t>
   </si>
   <si>
@@ -44,6 +56,9 @@
     <t>scheduler_up.o</t>
   </si>
   <si>
+    <t>stdio_streams.o</t>
+  </si>
+  <si>
     <t>drv_gpio.o</t>
   </si>
   <si>
@@ -56,9 +71,6 @@
     <t>cmd.o</t>
   </si>
   <si>
-    <t>c_w.l</t>
-  </si>
-  <si>
     <t>libspace.o</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
     <t>stm32l4xx_hal_dma.o</t>
   </si>
   <si>
+    <t>syscalls.o</t>
+  </si>
+  <si>
     <t>scheduler_comm.o</t>
   </si>
   <si>
@@ -146,45 +161,78 @@
     <t>dev_i2c_dev.o</t>
   </si>
   <si>
+    <t>flsbuf.o</t>
+  </si>
+  <si>
     <t>kstring.o</t>
   </si>
   <si>
     <t>stm32l4xx_hal_cortex.o</t>
   </si>
   <si>
+    <t>board.o</t>
+  </si>
+  <si>
+    <t>__printf_flags_wp.o</t>
+  </si>
+  <si>
     <t>context_rvds.o</t>
   </si>
   <si>
     <t>lc_ctype_c.o</t>
   </si>
   <si>
+    <t>initio.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_msp.o</t>
   </si>
   <si>
+    <t>usbd_cdc.o</t>
+  </si>
+  <si>
     <t>components.o</t>
   </si>
   <si>
+    <t>fseek.o</t>
+  </si>
+  <si>
+    <t>stdio.o</t>
+  </si>
+  <si>
     <t>lludivv7m.o</t>
   </si>
   <si>
+    <t>fopen.o</t>
+  </si>
+  <si>
+    <t>_printf_intcommon.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr_ex.o</t>
+  </si>
+  <si>
     <t>_strtoul.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_pwr_ex.o</t>
-  </si>
-  <si>
     <t>strncmp.o</t>
   </si>
   <si>
-    <t>board.o</t>
+    <t>rt_memcpy_v6.o</t>
   </si>
   <si>
     <t>strcmpv7m.o</t>
   </si>
   <si>
+    <t>_printf_hex_int.o</t>
+  </si>
+  <si>
     <t>strtoul.o</t>
   </si>
   <si>
+    <t>_printf_dec.o</t>
+  </si>
+  <si>
     <t>strtol.o</t>
   </si>
   <si>
@@ -206,15 +254,27 @@
     <t>rt_memclr_w.o</t>
   </si>
   <si>
+    <t>_printf_pad.o</t>
+  </si>
+  <si>
+    <t>fclose.o</t>
+  </si>
+  <si>
     <t>sys_stackheap_outer.o</t>
   </si>
   <si>
     <t>strcpy.o</t>
   </si>
   <si>
+    <t>setvbuf.o</t>
+  </si>
+  <si>
     <t>rt_memclr.o</t>
   </si>
   <si>
+    <t>ftell.o</t>
+  </si>
+  <si>
     <t>strlen.o</t>
   </si>
   <si>
@@ -224,25 +284,46 @@
     <t>msh_parse.o</t>
   </si>
   <si>
+    <t>defsig_rtred_inner.o</t>
+  </si>
+  <si>
     <t>__scatter.o</t>
   </si>
   <si>
+    <t>defsig_general.o</t>
+  </si>
+  <si>
+    <t>_printf_char_common.o</t>
+  </si>
+  <si>
+    <t>_printf_char_file.o</t>
+  </si>
+  <si>
     <t>completion_comm.o</t>
   </si>
   <si>
+    <t>libinit2.o</t>
+  </si>
+  <si>
     <t>_chval.o</t>
   </si>
   <si>
     <t>__scatter_zi.o</t>
   </si>
   <si>
+    <t>fputc.o</t>
+  </si>
+  <si>
     <t>atoi.o</t>
   </si>
   <si>
     <t>strcat.o</t>
   </si>
   <si>
-    <t>libinit2.o</t>
+    <t>noretval__2printf.o</t>
+  </si>
+  <si>
+    <t>syscall_mem.o</t>
   </si>
   <si>
     <t>strchr.o</t>
@@ -254,12 +335,18 @@
     <t>rt_ctype_table.o</t>
   </si>
   <si>
+    <t>aeabi_memset.o</t>
+  </si>
+  <si>
+    <t>defsig_rtred_outer.o</t>
+  </si>
+  <si>
+    <t>__printf_wp.o</t>
+  </si>
+  <si>
     <t>__rtentry2.o</t>
   </si>
   <si>
-    <t>syscalls.o</t>
-  </si>
-  <si>
     <t>fz_wm.l</t>
   </si>
   <si>
@@ -269,28 +356,46 @@
     <t>rtexit2.o</t>
   </si>
   <si>
+    <t>defsig_exit.o</t>
+  </si>
+  <si>
     <t>rt_locale_intlibspace.o</t>
   </si>
   <si>
     <t>rt_errno_addr_intlibspace.o</t>
   </si>
   <si>
+    <t>ferror.o</t>
+  </si>
+  <si>
     <t>__main.o</t>
   </si>
   <si>
+    <t>libshutdown2.o</t>
+  </si>
+  <si>
     <t>heapauxi.o</t>
   </si>
   <si>
+    <t>_printf_x.o</t>
+  </si>
+  <si>
+    <t>_printf_d.o</t>
+  </si>
+  <si>
     <t>__rtentry4.o</t>
   </si>
   <si>
+    <t>hguard.o</t>
+  </si>
+  <si>
+    <t>_printf_percent_end.o</t>
+  </si>
+  <si>
     <t>use_no_semi.o</t>
   </si>
   <si>
     <t>rtexit.o</t>
-  </si>
-  <si>
-    <t>libshutdown2.o</t>
   </si>
   <si>
     <t>libshutdown.o</t>
@@ -419,94 +524,106 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$97</c:f>
+              <c:f>ram_percent!$A$3:$A$132</c:f>
               <c:strCache>
-                <c:ptCount val="95"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
+                  <c:v>cdc_acm_template.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>usbd_core.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>drv_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>usb_dc_fsdev.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>c_w.l</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>object.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>shell.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>scheduler_up.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>stdio_streams.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>drv_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>drv_soft_i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>kstdio.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>cmd.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>c_w.l</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>dev_pin.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>bh1750fvi.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>thread.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>sensor.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>cpu_up.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>completion_up.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>serial.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>drv_common.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="129">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -514,95 +631,107 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$97</c:f>
+              <c:f>ram_percent!$B$3:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
-                  <c:v>22.51308822631836</c:v>
+                  <c:v>37.00452423095703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.1473445892334</c:v>
+                  <c:v>10.67659854888916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.376963615417481</c:v>
+                  <c:v>9.080429077148438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.928197383880615</c:v>
+                  <c:v>7.34237813949585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.282722473144531</c:v>
+                  <c:v>3.972687721252441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.310396194458008</c:v>
+                  <c:v>3.759865283966065</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.179506301879883</c:v>
+                  <c:v>3.547042608261108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.086013317108154</c:v>
+                  <c:v>3.192338466644287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.861630439758301</c:v>
+                  <c:v>2.979515790939331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.365744113922119</c:v>
+                  <c:v>2.518400192260742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.318623781204224</c:v>
+                  <c:v>2.456326961517334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.243829488754273</c:v>
+                  <c:v>2.411988973617554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.795063614845276</c:v>
+                  <c:v>2.341048240661621</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.795063614845276</c:v>
+                  <c:v>2.305577754974365</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.346297740936279</c:v>
+                  <c:v>1.596169233322144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5235602259635925</c:v>
+                  <c:v>1.099583268165588</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2991772592067719</c:v>
+                  <c:v>1.064112782478333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2617801129817963</c:v>
+                  <c:v>0.851290225982666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2243829518556595</c:v>
+                  <c:v>0.6384676694869995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1682872176170349</c:v>
+                  <c:v>0.2482929825782776</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1495886296033859</c:v>
+                  <c:v>0.1418817043304443</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1495886296033859</c:v>
+                  <c:v>0.1241464912891388</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1495886296033859</c:v>
+                  <c:v>0.1064112782478333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1495886296033859</c:v>
+                  <c:v>0.07980845868587494</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1495886296033859</c:v>
+                  <c:v>0.07094085216522217</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.07479431480169296</c:v>
+                  <c:v>0.07094085216522217</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.07479431480169296</c:v>
+                  <c:v>0.07094085216522217</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.07479431480169296</c:v>
-                </c:pt>
-                <c:pt idx="94">
+                  <c:v>0.07094085216522217</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.07094085216522217</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03547042608261108</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.03547042608261108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.03547042608261108</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -670,292 +799,397 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$97</c:f>
+              <c:f>flash_percent!$A$3:$A$132</c:f>
               <c:strCache>
-                <c:ptCount val="95"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
+                  <c:v>usbd_core.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c_w.l</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>cmd.o</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>cdc_acm_template.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ipc.o</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>serial.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>usb_dc_fsdev.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>stm32l4xx_hal_uart.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>thread.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>drv_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>shell.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>dataqueue.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>dev_pin.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>c_w.l</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>sensor.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>kstdio.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>mem.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>drv_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>object.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>msh.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>dev_i2c_bit_ops.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>device.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>bh1750fvi.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>scheduler_up.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>stm32l4xx_hal_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>completion_up.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
+                  <c:v>syscalls.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>scheduler_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>dev_i2c_core.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>dev_i2c_dev.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>drv_common.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>drv_soft_i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>flsbuf.o</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>kstring.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
+                  <c:v>board.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>__printf_flags_wp.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>context_rvds.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
+                  <c:v>initio.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="49">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="50">
+                  <c:v>usbd_cdc.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>components.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
+                  <c:v>fseek.o</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>stdio.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>lludivv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="55">
+                  <c:v>fopen.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="57">
+                  <c:v>_printf_intcommon.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>_strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="60">
                   <c:v>strncmp.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>board.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="61">
+                  <c:v>rt_memcpy_v6.o</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="63">
+                  <c:v>_printf_hex_int.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>cpu_up.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="65">
                   <c:v>strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="66">
+                  <c:v>_printf_dec.o</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="68">
                   <c:v>strtol.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="69">
                   <c:v>rt_memcpy_w.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="70">
                   <c:v>cstdlib.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="71">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="72">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="73">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="74">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="75">
+                  <c:v>_printf_pad.o</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>fclose.o</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="78">
                   <c:v>strcpy.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="79">
+                  <c:v>setvbuf.o</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="81">
+                  <c:v>ftell.o</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="83">
                   <c:v>atomic_arm.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="84">
                   <c:v>msh_parse.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="85">
+                  <c:v>defsig_rtred_inner.o</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="87">
+                  <c:v>defsig_general.o</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>_printf_char_common.o</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="90">
+                  <c:v>_printf_char_file.o</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>completion_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="92">
+                  <c:v>libinit2.o</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="94">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="95">
+                  <c:v>fputc.o</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>atoi.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="97">
                   <c:v>strcat.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>libinit2.o</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="98">
+                  <c:v>noretval__2printf.o</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>syscall_mem.o</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="101">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="102">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="103">
+                  <c:v>aeabi_memset.o</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>defsig_rtred_outer.o</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>__printf_wp.o</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>stdio_streams.o</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>syscalls.o</c:v>
-                </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="108">
                   <c:v>fz_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="109">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="110">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="111">
+                  <c:v>defsig_exit.o</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="113">
                   <c:v>rt_errno_addr_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="114">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="115">
+                  <c:v>ferror.o</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="117">
+                  <c:v>libshutdown2.o</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="119">
+                  <c:v>_printf_x.o</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>_printf_d.o</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="122">
+                  <c:v>hguard.o</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>_printf_percent_end.o</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="125">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>libshutdown2.o</c:v>
-                </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="126">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="127">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="128">
                   <c:v>stm32l4xx_hal_uart_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="129">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -963,293 +1197,398 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$97</c:f>
+              <c:f>flash_percent!$B$3:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
-                  <c:v>7.244977951049805</c:v>
+                  <c:v>6.131606578826904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.366459846496582</c:v>
+                  <c:v>5.652958869934082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.929998397827148</c:v>
+                  <c:v>5.533297061920166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.823456764221191</c:v>
+                  <c:v>5.063196659088135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.268087863922119</c:v>
+                  <c:v>4.862335205078125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.992501735687256</c:v>
+                  <c:v>4.528991222381592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.894577741622925</c:v>
+                  <c:v>4.465955257415772</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.591013431549072</c:v>
+                  <c:v>3.683878660202026</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.267864227294922</c:v>
+                  <c:v>3.259719848632813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.224497795104981</c:v>
+                  <c:v>3.049242973327637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.158748865127564</c:v>
+                  <c:v>2.974454402923584</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.120978116989136</c:v>
+                  <c:v>2.742609262466431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.003469228744507</c:v>
+                  <c:v>2.495806455612183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.920933246612549</c:v>
+                  <c:v>2.462685823440552</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.785238742828369</c:v>
+                  <c:v>2.383623361587524</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.72228741645813</c:v>
+                  <c:v>2.293876886367798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.638352632522583</c:v>
+                  <c:v>2.230840682983398</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.457892656326294</c:v>
+                  <c:v>2.127204895019531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.37116003036499</c:v>
+                  <c:v>2.079126358032227</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.224273920059204</c:v>
+                  <c:v>2.015021800994873</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1375412940979</c:v>
+                  <c:v>1.877196907997131</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.053606510162354</c:v>
+                  <c:v>1.81095552444458</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.980862855911255</c:v>
+                  <c:v>1.698772430419922</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.729058265686035</c:v>
+                  <c:v>1.632530927658081</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.631134271621704</c:v>
+                  <c:v>1.568426370620728</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.189077258110046</c:v>
+                  <c:v>1.512869000434876</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.180683732032776</c:v>
+                  <c:v>1.320555090904236</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.064573884010315</c:v>
+                  <c:v>1.245766401290894</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.026803255081177</c:v>
+                  <c:v>0.9081487655639648</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8463432192802429</c:v>
+                  <c:v>0.9017382860183716</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7861899137496948</c:v>
+                  <c:v>0.896396279335022</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.672877848148346</c:v>
+                  <c:v>0.8130602240562439</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6686810851097107</c:v>
+                  <c:v>0.7842131853103638</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6379050016403198</c:v>
+                  <c:v>0.6463882327079773</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6015332341194153</c:v>
+                  <c:v>0.6004465818405151</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.51200270652771</c:v>
+                  <c:v>0.5139053463935852</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5064070224761963</c:v>
+                  <c:v>0.5107001066207886</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4588439464569092</c:v>
+                  <c:v>0.5021528601646423</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4476526081562042</c:v>
+                  <c:v>0.4871951043605804</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4420569539070129</c:v>
+                  <c:v>0.4594164490699768</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4308656454086304</c:v>
+                  <c:v>0.391038179397583</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3972916901111603</c:v>
+                  <c:v>0.3867645263671875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3553242683410645</c:v>
+                  <c:v>0.3739435970783234</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3329416513442993</c:v>
+                  <c:v>0.357917457818985</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3007666170597076</c:v>
+                  <c:v>0.3504385948181152</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2294219732284546</c:v>
+                  <c:v>0.3418912887573242</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2182306498289108</c:v>
+                  <c:v>0.3376176655292511</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2098371684551239</c:v>
+                  <c:v>0.3333440124988556</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2070393413305283</c:v>
+                  <c:v>0.3290703892707825</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1790610551834106</c:v>
+                  <c:v>0.324796736240387</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1706675589084625</c:v>
+                  <c:v>0.3162494599819183</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1678697317838669</c:v>
+                  <c:v>0.2713762223720551</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1622740775346756</c:v>
+                  <c:v>0.2649657428264618</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1566784232854843</c:v>
+                  <c:v>0.2564184665679932</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1398914456367493</c:v>
+                  <c:v>0.2542816400527954</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1398914456367493</c:v>
+                  <c:v>0.25214484333992</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1259022951126099</c:v>
+                  <c:v>0.2297082245349884</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1231044679880142</c:v>
+                  <c:v>0.1901770383119583</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1203066408634186</c:v>
+                  <c:v>0.1880402117967606</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1091153249144554</c:v>
+                  <c:v>0.1752192974090576</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1035196706652641</c:v>
+                  <c:v>0.1602615416049957</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1007218435406685</c:v>
+                  <c:v>0.1474406272172928</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.09512618184089661</c:v>
+                  <c:v>0.1367565244436264</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.08673269301652908</c:v>
+                  <c:v>0.1367565244436264</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.08673269301652908</c:v>
+                  <c:v>0.1303460597991943</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.08393486589193344</c:v>
+                  <c:v>0.1282092332839966</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.07274354994297028</c:v>
+                  <c:v>0.1282092332839966</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.05455766245722771</c:v>
+                  <c:v>0.1239355951547623</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0475630909204483</c:v>
+                  <c:v>0.119661957025528</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.03916960582137108</c:v>
+                  <c:v>0.1068410277366638</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.03916960582137108</c:v>
+                  <c:v>0.1068410277366638</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.03637177497148514</c:v>
+                  <c:v>0.09615692496299744</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0335739478468895</c:v>
+                  <c:v>0.09402010589838028</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0335739478468895</c:v>
+                  <c:v>0.09188328683376312</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.02797828800976276</c:v>
+                  <c:v>0.0833360031247139</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.02518046088516712</c:v>
+                  <c:v>0.0833360031247139</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.02238263189792633</c:v>
+                  <c:v>0.08119918406009674</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.01678697392344475</c:v>
+                  <c:v>0.07906236499547958</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.01678697392344475</c:v>
+                  <c:v>0.07692554593086243</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.01398914400488138</c:v>
+                  <c:v>0.07478871941566467</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.01398914400488138</c:v>
+                  <c:v>0.07265190035104752</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.01398914400488138</c:v>
+                  <c:v>0.07051508128643036</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.01119131594896317</c:v>
+                  <c:v>0.06624143570661545</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.01119131594896317</c:v>
+                  <c:v>0.06624143570661545</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.01119131594896317</c:v>
+                  <c:v>0.06410461664199829</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.01119131594896317</c:v>
+                  <c:v>0.05555733665823937</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.008393486961722374</c:v>
+                  <c:v>0.05555733665823937</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.008393486961722374</c:v>
+                  <c:v>0.05342051386833191</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.002797828987240791</c:v>
+                  <c:v>0.05128369480371475</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.002797828987240791</c:v>
+                  <c:v>0.04166800156235695</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.002797828987240791</c:v>
+                  <c:v>0.03846277296543121</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.002797828987240791</c:v>
+                  <c:v>0.03632595017552376</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.002797828987240791</c:v>
+                  <c:v>0.02991548925638199</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.002797828987240791</c:v>
+                  <c:v>0.02991548925638199</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>0.02991548925638199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.02777866832911968</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.02777866832911968</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.02564184740185738</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.02564184740185738</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.02564184740185738</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.02136820554733276</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.01923138648271561</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0170945655554533</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0170945655554533</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.01495774462819099</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.01495774462819099</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.01282092370092869</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.01282092370092869</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.01068410277366638</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.01068410277366638</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.01068410277366638</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.01068410277366638</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.00854728277772665</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.00854728277772665</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.00854728277772665</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.00854728277772665</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.00854728277772665</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.006410461850464344</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.006410461850464344</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.006410461850464344</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.006410461850464344</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.006410461850464344</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.004273641388863325</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.004273641388863325</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.002136820694431663</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.002136820694431663</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.002136820694431663</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.002136820694431663</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.002136820694431663</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1354,8 +1693,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H97" totalsRowCount="1">
-  <autoFilter ref="A2:H96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H132" totalsRowCount="1">
+  <autoFilter ref="A2:H131"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1371,8 +1710,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H97" totalsRowCount="1">
-  <autoFilter ref="A2:H96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H132" totalsRowCount="1">
+  <autoFilter ref="A2:H131"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1672,7 +2011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1688,28 +2027,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1717,25 +2056,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>22.51308822631836</v>
+        <v>37.00452423095703</v>
       </c>
       <c r="C3" s="1">
-        <v>1204</v>
+        <v>4173</v>
       </c>
       <c r="D3" s="1">
-        <v>284</v>
+        <v>4739</v>
       </c>
       <c r="E3" s="1">
-        <v>280</v>
+        <v>444</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>4117</v>
       </c>
       <c r="H3" s="1">
-        <v>1200</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1743,25 +2082,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>19.1473445892334</v>
+        <v>10.67659854888916</v>
       </c>
       <c r="C4" s="1">
-        <v>1024</v>
+        <v>1204</v>
       </c>
       <c r="D4" s="1">
-        <v>456</v>
+        <v>304</v>
       </c>
       <c r="E4" s="1">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F4" s="1">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>1024</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1769,25 +2108,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>8.376963615417481</v>
+        <v>9.080429077148438</v>
       </c>
       <c r="C5" s="1">
-        <v>448</v>
+        <v>1024</v>
       </c>
       <c r="D5" s="1">
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="E5" s="1">
-        <v>342</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>424</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1795,25 +2134,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>7.928197383880615</v>
+        <v>7.34237813949585</v>
       </c>
       <c r="C6" s="1">
-        <v>424</v>
+        <v>828</v>
       </c>
       <c r="D6" s="1">
-        <v>2854</v>
+        <v>5739</v>
       </c>
       <c r="E6" s="1">
-        <v>2556</v>
+        <v>4818</v>
       </c>
       <c r="F6" s="1">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
+        <v>828</v>
       </c>
       <c r="H6" s="1">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1821,25 +2160,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>6.282722473144531</v>
+        <v>3.972687721252441</v>
       </c>
       <c r="C7" s="1">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="D7" s="1">
-        <v>1886</v>
+        <v>366</v>
       </c>
       <c r="E7" s="1">
-        <v>1552</v>
+        <v>342</v>
       </c>
       <c r="F7" s="1">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
-        <v>308</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1847,25 +2186,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>5.310396194458008</v>
+        <v>3.759865283966065</v>
       </c>
       <c r="C8" s="1">
-        <v>284</v>
+        <v>424</v>
       </c>
       <c r="D8" s="1">
-        <v>1757</v>
+        <v>2854</v>
       </c>
       <c r="E8" s="1">
-        <v>1326</v>
+        <v>2556</v>
       </c>
       <c r="F8" s="1">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="G8" s="1">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1873,25 +2212,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>5.179506301879883</v>
+        <v>3.547042608261108</v>
       </c>
       <c r="C9" s="1">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1">
-        <v>2567</v>
+        <v>4180</v>
       </c>
       <c r="E9" s="1">
-        <v>2408</v>
+        <v>4180</v>
       </c>
       <c r="F9" s="1">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>257</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1899,25 +2238,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>5.086013317108154</v>
+        <v>3.192338466644287</v>
       </c>
       <c r="C10" s="1">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="D10" s="1">
-        <v>1166</v>
+        <v>5291</v>
       </c>
       <c r="E10" s="1">
-        <v>1078</v>
+        <v>4950</v>
       </c>
       <c r="F10" s="1">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="G10" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1">
-        <v>256</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1925,25 +2264,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>4.861630439758301</v>
+        <v>2.979515790939331</v>
       </c>
       <c r="C11" s="1">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="D11" s="1">
-        <v>1946</v>
+        <v>1886</v>
       </c>
       <c r="E11" s="1">
-        <v>1594</v>
+        <v>1552</v>
       </c>
       <c r="F11" s="1">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="G11" s="1">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1951,25 +2290,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>3.365744113922119</v>
+        <v>2.518400192260742</v>
       </c>
       <c r="C12" s="1">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="D12" s="1">
-        <v>478</v>
+        <v>1757</v>
       </c>
       <c r="E12" s="1">
-        <v>406</v>
+        <v>1326</v>
       </c>
       <c r="F12" s="1">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="H12" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1977,25 +2316,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>2.318623781204224</v>
+        <v>2.456326961517334</v>
       </c>
       <c r="C13" s="1">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="D13" s="1">
-        <v>2088</v>
+        <v>2567</v>
       </c>
       <c r="E13" s="1">
-        <v>1810</v>
+        <v>2408</v>
       </c>
       <c r="F13" s="1">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G13" s="1">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2003,25 +2342,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>2.243829488754273</v>
+        <v>2.411988973617554</v>
       </c>
       <c r="C14" s="1">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="D14" s="1">
-        <v>5179</v>
+        <v>1166</v>
       </c>
       <c r="E14" s="1">
-        <v>4070</v>
+        <v>1078</v>
       </c>
       <c r="F14" s="1">
-        <v>989</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2029,25 +2368,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1.795063614845276</v>
+        <v>2.341048240661621</v>
       </c>
       <c r="C15" s="1">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="D15" s="1">
-        <v>2258</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>1986</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1">
-        <v>96</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2055,25 +2394,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1.795063614845276</v>
+        <v>2.305577754974365</v>
       </c>
       <c r="C16" s="1">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="D16" s="1">
-        <v>8</v>
+        <v>1946</v>
       </c>
       <c r="E16" s="1">
-        <v>8</v>
+        <v>1594</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="H16" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2081,25 +2420,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1.346297740936279</v>
+        <v>1.596169233322144</v>
       </c>
       <c r="C17" s="1">
+        <v>180</v>
+      </c>
+      <c r="D17" s="1">
+        <v>478</v>
+      </c>
+      <c r="E17" s="1">
+        <v>406</v>
+      </c>
+      <c r="F17" s="1">
         <v>72</v>
       </c>
-      <c r="D17" s="1">
-        <v>2305</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1984</v>
-      </c>
-      <c r="F17" s="1">
-        <v>321</v>
-      </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>72</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2107,22 +2446,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.5235602259635925</v>
+        <v>1.099583268165588</v>
       </c>
       <c r="C18" s="1">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1">
-        <v>2147</v>
+        <v>2088</v>
       </c>
       <c r="E18" s="1">
-        <v>1996</v>
+        <v>1810</v>
       </c>
       <c r="F18" s="1">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G18" s="1">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -2133,22 +2472,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.2991772592067719</v>
+        <v>1.064112782478333</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="D19" s="1">
-        <v>1528</v>
+        <v>5179</v>
       </c>
       <c r="E19" s="1">
-        <v>1512</v>
+        <v>4070</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="G19" s="1">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2159,25 +2498,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.2617801129817963</v>
+        <v>0.851290225982666</v>
       </c>
       <c r="C20" s="1">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1">
-        <v>1416</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
-        <v>1398</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2185,25 +2524,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.2243829518556595</v>
+        <v>0.6384676694869995</v>
       </c>
       <c r="C21" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1">
-        <v>116</v>
+        <v>2305</v>
       </c>
       <c r="E21" s="1">
-        <v>104</v>
+        <v>1984</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="G21" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2211,22 +2550,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.1682872176170349</v>
+        <v>0.2482929825782776</v>
       </c>
       <c r="C22" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
-        <v>39</v>
+        <v>2147</v>
       </c>
       <c r="E22" s="1">
-        <v>30</v>
+        <v>1996</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G22" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2237,22 +2576,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.1495886296033859</v>
+        <v>0.1418817043304443</v>
       </c>
       <c r="C23" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1">
-        <v>3051</v>
+        <v>1528</v>
       </c>
       <c r="E23" s="1">
-        <v>2670</v>
+        <v>1512</v>
       </c>
       <c r="F23" s="1">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -2263,22 +2602,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.1495886296033859</v>
+        <v>0.1241464912891388</v>
       </c>
       <c r="C24" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1">
-        <v>2231</v>
+        <v>1416</v>
       </c>
       <c r="E24" s="1">
-        <v>1892</v>
+        <v>1398</v>
       </c>
       <c r="F24" s="1">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -2289,22 +2628,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.1495886296033859</v>
+        <v>0.1064112782478333</v>
       </c>
       <c r="C25" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2315,22 +2654,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.1495886296033859</v>
+        <v>0.07980845868587494</v>
       </c>
       <c r="C26" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
-        <v>844</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1">
-        <v>762</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2341,19 +2680,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.1495886296033859</v>
+        <v>0.07094085216522217</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
       </c>
       <c r="D27" s="1">
-        <v>215</v>
+        <v>3051</v>
       </c>
       <c r="E27" s="1">
-        <v>168</v>
+        <v>2670</v>
       </c>
       <c r="F27" s="1">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="G27" s="1">
         <v>8</v>
@@ -2367,22 +2706,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.07479431480169296</v>
+        <v>0.07094085216522217</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1">
-        <v>320</v>
+        <v>2231</v>
       </c>
       <c r="E28" s="1">
-        <v>244</v>
+        <v>1892</v>
       </c>
       <c r="F28" s="1">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="G28" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2393,22 +2732,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.07479431480169296</v>
+        <v>0.07094085216522217</v>
       </c>
       <c r="C29" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1">
-        <v>4239</v>
+        <v>122</v>
       </c>
       <c r="E29" s="1">
-        <v>3838</v>
+        <v>114</v>
       </c>
       <c r="F29" s="1">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2419,56 +2758,160 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.07479431480169296</v>
+        <v>0.07094085216522217</v>
       </c>
       <c r="C30" s="1">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>844</v>
+      </c>
+      <c r="E30" s="1">
+        <v>762</v>
+      </c>
+      <c r="F30" s="1">
+        <v>74</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.07094085216522217</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>215</v>
+      </c>
+      <c r="E31" s="1">
+        <v>168</v>
+      </c>
+      <c r="F31" s="1">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.03547042608261108</v>
+      </c>
+      <c r="C32" s="1">
         <v>4</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D32" s="1">
+        <v>320</v>
+      </c>
+      <c r="E32" s="1">
+        <v>244</v>
+      </c>
+      <c r="F32" s="1">
+        <v>72</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.03547042608261108</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4239</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3838</v>
+      </c>
+      <c r="F33" s="1">
+        <v>397</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.03547042608261108</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
         <v>481</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E34" s="1">
         <v>440</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F34" s="1">
         <v>37</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G34" s="1">
         <v>4</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C97">
+      <c r="C132">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D97">
+      <c r="D132">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E97">
+      <c r="E132">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F132">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="G132">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H97">
+      <c r="H132">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2484,7 +2927,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2500,51 +2943,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>7.244977951049805</v>
+        <v>6.131606578826904</v>
       </c>
       <c r="C3" s="1">
-        <v>5179</v>
+        <v>5739</v>
       </c>
       <c r="D3" s="1">
-        <v>120</v>
+        <v>828</v>
       </c>
       <c r="E3" s="1">
-        <v>4070</v>
+        <v>4818</v>
       </c>
       <c r="F3" s="1">
-        <v>989</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1">
-        <v>120</v>
+        <v>828</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -2552,51 +2995,51 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>6.366459846496582</v>
+        <v>5.652958869934082</v>
       </c>
       <c r="C4" s="1">
-        <v>4551</v>
+        <v>5291</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="E4" s="1">
-        <v>3790</v>
+        <v>4950</v>
       </c>
       <c r="F4" s="1">
-        <v>761</v>
+        <v>329</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>5.929998397827148</v>
+        <v>5.533297061920166</v>
       </c>
       <c r="C5" s="1">
-        <v>4239</v>
+        <v>5179</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
-        <v>3838</v>
+        <v>4070</v>
       </c>
       <c r="F5" s="1">
-        <v>397</v>
+        <v>989</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -2604,51 +3047,51 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>4.823456764221191</v>
+        <v>5.063196659088135</v>
       </c>
       <c r="C6" s="1">
-        <v>3448</v>
+        <v>4739</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>4173</v>
       </c>
       <c r="E6" s="1">
-        <v>3448</v>
+        <v>444</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>4117</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
-        <v>4.268087863922119</v>
+        <v>4.862335205078125</v>
       </c>
       <c r="C7" s="1">
-        <v>3051</v>
+        <v>4551</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2670</v>
+        <v>3790</v>
       </c>
       <c r="F7" s="1">
-        <v>373</v>
+        <v>761</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -2656,45 +3099,45 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.528991222381592</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4239</v>
+      </c>
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
-        <v>3.992501735687256</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2854</v>
-      </c>
-      <c r="D8" s="1">
-        <v>424</v>
-      </c>
       <c r="E8" s="1">
-        <v>2556</v>
+        <v>3838</v>
       </c>
       <c r="F8" s="1">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="G8" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>3.894577741622925</v>
+        <v>4.465955257415772</v>
       </c>
       <c r="C9" s="1">
-        <v>2784</v>
+        <v>4180</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E9" s="1">
-        <v>2784</v>
+        <v>4180</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2703,56 +3146,56 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
-        <v>3.591013431549072</v>
+        <v>3.683878660202026</v>
       </c>
       <c r="C10" s="1">
-        <v>2567</v>
+        <v>3448</v>
       </c>
       <c r="D10" s="1">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>2408</v>
+        <v>3448</v>
       </c>
       <c r="F10" s="1">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>3.267864227294922</v>
+        <v>3.259719848632813</v>
       </c>
       <c r="C11" s="1">
-        <v>2336</v>
+        <v>3051</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>2202</v>
+        <v>2670</v>
       </c>
       <c r="F11" s="1">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2760,103 +3203,103 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>3.224497795104981</v>
+        <v>3.049242973327637</v>
       </c>
       <c r="C12" s="1">
-        <v>2305</v>
+        <v>2854</v>
       </c>
       <c r="D12" s="1">
-        <v>72</v>
+        <v>424</v>
       </c>
       <c r="E12" s="1">
-        <v>1984</v>
+        <v>2556</v>
       </c>
       <c r="F12" s="1">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
-        <v>72</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
-        <v>3.158748865127564</v>
+        <v>2.974454402923584</v>
       </c>
       <c r="C13" s="1">
-        <v>2258</v>
+        <v>2784</v>
       </c>
       <c r="D13" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1986</v>
+        <v>2784</v>
       </c>
       <c r="F13" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>3.120978116989136</v>
+        <v>2.742609262466431</v>
       </c>
       <c r="C14" s="1">
-        <v>2231</v>
+        <v>2567</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="E14" s="1">
-        <v>1892</v>
+        <v>2408</v>
       </c>
       <c r="F14" s="1">
-        <v>331</v>
+        <v>139</v>
       </c>
       <c r="G14" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
-        <v>3.003469228744507</v>
+        <v>2.495806455612183</v>
       </c>
       <c r="C15" s="1">
-        <v>2147</v>
+        <v>2336</v>
       </c>
       <c r="D15" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1996</v>
+        <v>2202</v>
       </c>
       <c r="F15" s="1">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G15" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2864,51 +3307,51 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>2.920933246612549</v>
+        <v>2.462685823440552</v>
       </c>
       <c r="C16" s="1">
-        <v>2088</v>
+        <v>2305</v>
       </c>
       <c r="D16" s="1">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
-        <v>1810</v>
+        <v>1984</v>
       </c>
       <c r="F16" s="1">
-        <v>154</v>
+        <v>321</v>
       </c>
       <c r="G16" s="1">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>2.785238742828369</v>
+        <v>2.383623361587524</v>
       </c>
       <c r="C17" s="1">
-        <v>1991</v>
+        <v>2231</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>1498</v>
+        <v>1892</v>
       </c>
       <c r="F17" s="1">
-        <v>493</v>
+        <v>331</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2916,25 +3359,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>2.72228741645813</v>
+        <v>2.293876886367798</v>
       </c>
       <c r="C18" s="1">
-        <v>1946</v>
+        <v>2147</v>
       </c>
       <c r="D18" s="1">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1">
-        <v>1594</v>
+        <v>1996</v>
       </c>
       <c r="F18" s="1">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -2942,51 +3385,51 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>2.638352632522583</v>
+        <v>2.230840682983398</v>
       </c>
       <c r="C19" s="1">
-        <v>1886</v>
+        <v>2088</v>
       </c>
       <c r="D19" s="1">
-        <v>336</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1">
-        <v>1552</v>
+        <v>1810</v>
       </c>
       <c r="F19" s="1">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="G19" s="1">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="H19" s="1">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
-        <v>2.457892656326294</v>
+        <v>2.127204895019531</v>
       </c>
       <c r="C20" s="1">
-        <v>1757</v>
+        <v>1991</v>
       </c>
       <c r="D20" s="1">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1326</v>
+        <v>1498</v>
       </c>
       <c r="F20" s="1">
-        <v>147</v>
+        <v>493</v>
       </c>
       <c r="G20" s="1">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2994,25 +3437,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2">
-        <v>2.37116003036499</v>
+        <v>2.079126358032227</v>
       </c>
       <c r="C21" s="1">
-        <v>1695</v>
+        <v>1946</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E21" s="1">
-        <v>1536</v>
+        <v>1594</v>
       </c>
       <c r="F21" s="1">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -3020,51 +3463,51 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>2.224273920059204</v>
+        <v>2.015021800994873</v>
       </c>
       <c r="C22" s="1">
-        <v>1590</v>
+        <v>1886</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="E22" s="1">
-        <v>1578</v>
+        <v>1552</v>
       </c>
       <c r="F22" s="1">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>2.1375412940979</v>
+        <v>1.877196907997131</v>
       </c>
       <c r="C23" s="1">
-        <v>1528</v>
+        <v>1757</v>
       </c>
       <c r="D23" s="1">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="E23" s="1">
-        <v>1512</v>
+        <v>1326</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G23" s="1">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3072,22 +3515,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
-        <v>2.053606510162354</v>
+        <v>1.81095552444458</v>
       </c>
       <c r="C24" s="1">
-        <v>1468</v>
+        <v>1695</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>1282</v>
+        <v>1536</v>
       </c>
       <c r="F24" s="1">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -3098,25 +3541,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
-        <v>1.980862855911255</v>
+        <v>1.698772430419922</v>
       </c>
       <c r="C25" s="1">
-        <v>1416</v>
+        <v>1590</v>
       </c>
       <c r="D25" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>1398</v>
+        <v>1578</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3124,25 +3567,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
-        <v>1.729058265686035</v>
+        <v>1.632530927658081</v>
       </c>
       <c r="C26" s="1">
-        <v>1236</v>
+        <v>1528</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1">
-        <v>1236</v>
+        <v>1512</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -3150,51 +3593,51 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
-        <v>1.631134271621704</v>
+        <v>1.568426370620728</v>
       </c>
       <c r="C27" s="1">
-        <v>1166</v>
+        <v>1468</v>
       </c>
       <c r="D27" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>1078</v>
+        <v>1282</v>
       </c>
       <c r="F27" s="1">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="G27" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
-        <v>1.189077258110046</v>
+        <v>1.512869000434876</v>
       </c>
       <c r="C28" s="1">
-        <v>850</v>
+        <v>1416</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1">
-        <v>850</v>
+        <v>1398</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -3202,25 +3645,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
-        <v>1.180683732032776</v>
+        <v>1.320555090904236</v>
       </c>
       <c r="C29" s="1">
-        <v>844</v>
+        <v>1236</v>
       </c>
       <c r="D29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>762</v>
+        <v>1236</v>
       </c>
       <c r="F29" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -3228,45 +3671,45 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2">
-        <v>1.064573884010315</v>
+        <v>1.245766401290894</v>
       </c>
       <c r="C30" s="1">
-        <v>761</v>
+        <v>1166</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="E30" s="1">
-        <v>704</v>
+        <v>1078</v>
       </c>
       <c r="F30" s="1">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
-        <v>1.026803255081177</v>
+        <v>0.9081487655639648</v>
       </c>
       <c r="C31" s="1">
-        <v>734</v>
+        <v>850</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>734</v>
+        <v>850</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -3280,25 +3723,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>0.8463432192802429</v>
+        <v>0.9017382860183716</v>
       </c>
       <c r="C32" s="1">
-        <v>605</v>
+        <v>844</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1">
-        <v>586</v>
+        <v>762</v>
       </c>
       <c r="F32" s="1">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -3306,22 +3749,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>0.7861899137496948</v>
+        <v>0.896396279335022</v>
       </c>
       <c r="C33" s="1">
-        <v>562</v>
+        <v>839</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>468</v>
+        <v>738</v>
       </c>
       <c r="F33" s="1">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -3332,25 +3775,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>0.672877848148346</v>
+        <v>0.8130602240562439</v>
       </c>
       <c r="C34" s="1">
-        <v>481</v>
+        <v>761</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>440</v>
+        <v>704</v>
       </c>
       <c r="F34" s="1">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3358,74 +3801,74 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6686810851097107</v>
+        <v>0.7842131853103638</v>
       </c>
       <c r="C35" s="1">
-        <v>478</v>
+        <v>734</v>
       </c>
       <c r="D35" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>406</v>
+        <v>734</v>
       </c>
       <c r="F35" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6379050016403198</v>
+        <v>0.6463882327079773</v>
       </c>
       <c r="C36" s="1">
-        <v>456</v>
+        <v>605</v>
       </c>
       <c r="D36" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>60</v>
+        <v>586</v>
       </c>
       <c r="F36" s="1">
-        <v>396</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6015332341194153</v>
+        <v>0.6004465818405151</v>
       </c>
       <c r="C37" s="1">
-        <v>430</v>
+        <v>562</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -3436,71 +3879,71 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
-        <v>0.51200270652771</v>
+        <v>0.5139053463935852</v>
       </c>
       <c r="C38" s="1">
-        <v>366</v>
+        <v>481</v>
       </c>
       <c r="D38" s="1">
-        <v>448</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>342</v>
+        <v>440</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G38" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1">
-        <v>424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5064070224761963</v>
+        <v>0.5107001066207886</v>
       </c>
       <c r="C39" s="1">
-        <v>362</v>
+        <v>478</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E39" s="1">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4588439464569092</v>
+        <v>0.5021528601646423</v>
       </c>
       <c r="C40" s="1">
-        <v>328</v>
+        <v>470</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>328</v>
+        <v>470</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3514,48 +3957,48 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4476526081562042</v>
+        <v>0.4871951043605804</v>
       </c>
       <c r="C41" s="1">
-        <v>320</v>
+        <v>456</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="E41" s="1">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="F41" s="1">
-        <v>72</v>
+        <v>396</v>
       </c>
       <c r="G41" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4420569539070129</v>
+        <v>0.4594164490699768</v>
       </c>
       <c r="C42" s="1">
-        <v>316</v>
+        <v>430</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="F42" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -3566,74 +4009,74 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4308656454086304</v>
+        <v>0.391038179397583</v>
       </c>
       <c r="C43" s="1">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="E43" s="1">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3972916901111603</v>
+        <v>0.3867645263671875</v>
       </c>
       <c r="C44" s="1">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="D44" s="1">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3553242683410645</v>
+        <v>0.3739435970783234</v>
       </c>
       <c r="C45" s="1">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="F45" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -3644,22 +4087,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3329416513442993</v>
+        <v>0.357917457818985</v>
       </c>
       <c r="C46" s="1">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -3670,25 +4113,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3007666170597076</v>
+        <v>0.3504385948181152</v>
       </c>
       <c r="C47" s="1">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="D47" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="F47" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3696,25 +4139,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2294219732284546</v>
+        <v>0.3418912887573242</v>
       </c>
       <c r="C48" s="1">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -3722,22 +4165,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2182306498289108</v>
+        <v>0.3376176655292511</v>
       </c>
       <c r="C49" s="1">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -3748,19 +4191,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2098371684551239</v>
+        <v>0.3333440124988556</v>
       </c>
       <c r="C50" s="1">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3774,19 +4217,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2070393413305283</v>
+        <v>0.3290703892707825</v>
       </c>
       <c r="C51" s="1">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -3800,51 +4243,51 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1790610551834106</v>
+        <v>0.324796736240387</v>
       </c>
       <c r="C52" s="1">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="E52" s="1">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>0.1706675589084625</v>
+        <v>0.3162494599819183</v>
       </c>
       <c r="C53" s="1">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="D53" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -3852,22 +4295,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>0.1678697317838669</v>
+        <v>0.2713762223720551</v>
       </c>
       <c r="C54" s="1">
-        <v>120</v>
+        <v>254</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -3878,25 +4321,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>0.1622740775346756</v>
+        <v>0.2649657428264618</v>
       </c>
       <c r="C55" s="1">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="D55" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -3904,19 +4347,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1566784232854843</v>
+        <v>0.2564184665679932</v>
       </c>
       <c r="C56" s="1">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3930,19 +4373,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1398914456367493</v>
+        <v>0.2542816400527954</v>
       </c>
       <c r="C57" s="1">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3956,19 +4399,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1398914456367493</v>
+        <v>0.25214484333992</v>
       </c>
       <c r="C58" s="1">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3982,25 +4425,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1259022951126099</v>
+        <v>0.2297082245349884</v>
       </c>
       <c r="C59" s="1">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -4008,19 +4451,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1231044679880142</v>
+        <v>0.1901770383119583</v>
       </c>
       <c r="C60" s="1">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4034,19 +4477,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1203066408634186</v>
+        <v>0.1880402117967606</v>
       </c>
       <c r="C61" s="1">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4060,19 +4503,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1091153249144554</v>
+        <v>0.1752192974090576</v>
       </c>
       <c r="C62" s="1">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4086,19 +4529,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1035196706652641</v>
+        <v>0.1602615416049957</v>
       </c>
       <c r="C63" s="1">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4112,19 +4555,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1007218435406685</v>
+        <v>0.1474406272172928</v>
       </c>
       <c r="C64" s="1">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4138,19 +4581,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2">
-        <v>0.09512618184089661</v>
+        <v>0.1367565244436264</v>
       </c>
       <c r="C65" s="1">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4164,22 +4607,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2">
-        <v>0.08673269301652908</v>
+        <v>0.1367565244436264</v>
       </c>
       <c r="C66" s="1">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -4190,25 +4633,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B67" s="2">
-        <v>0.08673269301652908</v>
+        <v>0.1303460597991943</v>
       </c>
       <c r="C67" s="1">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -4216,19 +4659,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>0.08393486589193344</v>
+        <v>0.1282092332839966</v>
       </c>
       <c r="C68" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4242,19 +4685,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>0.07274354994297028</v>
+        <v>0.1282092332839966</v>
       </c>
       <c r="C69" s="1">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4268,25 +4711,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B70" s="2">
-        <v>0.05455766245722771</v>
+        <v>0.1239355951547623</v>
       </c>
       <c r="C70" s="1">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D70" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -4294,19 +4737,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>0.0475630909204483</v>
+        <v>0.119661957025528</v>
       </c>
       <c r="C71" s="1">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4320,19 +4763,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>0.03916960582137108</v>
+        <v>0.1068410277366638</v>
       </c>
       <c r="C72" s="1">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4346,19 +4789,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>0.03916960582137108</v>
+        <v>0.1068410277366638</v>
       </c>
       <c r="C73" s="1">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4372,19 +4815,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>0.03637177497148514</v>
+        <v>0.09615692496299744</v>
       </c>
       <c r="C74" s="1">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4398,19 +4841,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>0.0335739478468895</v>
+        <v>0.09402010589838028</v>
       </c>
       <c r="C75" s="1">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4424,19 +4867,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>0.0335739478468895</v>
+        <v>0.09188328683376312</v>
       </c>
       <c r="C76" s="1">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4450,19 +4893,19 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>0.02797828800976276</v>
+        <v>0.0833360031247139</v>
       </c>
       <c r="C77" s="1">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4476,19 +4919,19 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>0.02518046088516712</v>
+        <v>0.0833360031247139</v>
       </c>
       <c r="C78" s="1">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4502,19 +4945,19 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>0.02238263189792633</v>
+        <v>0.08119918406009674</v>
       </c>
       <c r="C79" s="1">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4528,19 +4971,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>0.01678697392344475</v>
+        <v>0.07906236499547958</v>
       </c>
       <c r="C80" s="1">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4554,19 +4997,19 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>0.01678697392344475</v>
+        <v>0.07692554593086243</v>
       </c>
       <c r="C81" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4580,19 +5023,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>0.01398914400488138</v>
+        <v>0.07478871941566467</v>
       </c>
       <c r="C82" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4606,19 +5049,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>0.01398914400488138</v>
+        <v>0.07265190035104752</v>
       </c>
       <c r="C83" s="1">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4632,19 +5075,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>0.01398914400488138</v>
+        <v>0.07051508128643036</v>
       </c>
       <c r="C84" s="1">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4658,19 +5101,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>0.01119131594896317</v>
+        <v>0.06624143570661545</v>
       </c>
       <c r="C85" s="1">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4684,19 +5127,19 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>0.01119131594896317</v>
+        <v>0.06624143570661545</v>
       </c>
       <c r="C86" s="1">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4710,19 +5153,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>0.01119131594896317</v>
+        <v>0.06410461664199829</v>
       </c>
       <c r="C87" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D87" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4731,24 +5174,24 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>0.01119131594896317</v>
+        <v>0.05555733665823937</v>
       </c>
       <c r="C88" s="1">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4762,19 +5205,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>0.008393486961722374</v>
+        <v>0.05555733665823937</v>
       </c>
       <c r="C89" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4788,19 +5231,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>0.008393486961722374</v>
+        <v>0.05342051386833191</v>
       </c>
       <c r="C90" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4814,19 +5257,19 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0.002797828987240791</v>
+        <v>0.05128369480371475</v>
       </c>
       <c r="C91" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4840,25 +5283,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B92" s="2">
-        <v>0.002797828987240791</v>
+        <v>0.04166800156235695</v>
       </c>
       <c r="C92" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E92" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -4866,19 +5309,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.002797828987240791</v>
+        <v>0.03846277296543121</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -4892,19 +5335,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.002797828987240791</v>
+        <v>0.03632595017552376</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -4918,19 +5361,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.002797828987240791</v>
+        <v>0.02991548925638199</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4944,59 +5387,969 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.002797828987240791</v>
+        <v>0.02991548925638199</v>
       </c>
       <c r="C96" s="1">
+        <v>28</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>28</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.02991548925638199</v>
+      </c>
+      <c r="C97" s="1">
+        <v>28</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>28</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.02777866832911968</v>
+      </c>
+      <c r="C98" s="1">
+        <v>26</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>26</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.02777866832911968</v>
+      </c>
+      <c r="C99" s="1">
+        <v>26</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>26</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.02564184740185738</v>
+      </c>
+      <c r="C100" s="1">
+        <v>24</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>24</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.02564184740185738</v>
+      </c>
+      <c r="C101" s="1">
+        <v>24</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>24</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.02564184740185738</v>
+      </c>
+      <c r="C102" s="1">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>24</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.02136820554733276</v>
+      </c>
+      <c r="C103" s="1">
+        <v>20</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>20</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.01923138648271561</v>
+      </c>
+      <c r="C104" s="1">
+        <v>18</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>18</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.0170945655554533</v>
+      </c>
+      <c r="C105" s="1">
+        <v>16</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>16</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.0170945655554533</v>
+      </c>
+      <c r="C106" s="1">
+        <v>16</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>16</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.01495774462819099</v>
+      </c>
+      <c r="C107" s="1">
+        <v>14</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.01495774462819099</v>
+      </c>
+      <c r="C108" s="1">
+        <v>14</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>14</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.01282092370092869</v>
+      </c>
+      <c r="C109" s="1">
+        <v>12</v>
+      </c>
+      <c r="D109" s="1">
+        <v>264</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>12</v>
+      </c>
+      <c r="H109" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.01282092370092869</v>
+      </c>
+      <c r="C110" s="1">
+        <v>12</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.01068410277366638</v>
+      </c>
+      <c r="C111" s="1">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.01068410277366638</v>
+      </c>
+      <c r="C112" s="1">
+        <v>10</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>10</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.01068410277366638</v>
+      </c>
+      <c r="C113" s="1">
+        <v>10</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>10</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.01068410277366638</v>
+      </c>
+      <c r="C114" s="1">
+        <v>10</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.00854728277772665</v>
+      </c>
+      <c r="C115" s="1">
+        <v>8</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>8</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.00854728277772665</v>
+      </c>
+      <c r="C116" s="1">
+        <v>8</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>8</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.00854728277772665</v>
+      </c>
+      <c r="C117" s="1">
+        <v>8</v>
+      </c>
+      <c r="D117" s="1">
+        <v>96</v>
+      </c>
+      <c r="E117" s="1">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.00854728277772665</v>
+      </c>
+      <c r="C118" s="1">
+        <v>8</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>8</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.00854728277772665</v>
+      </c>
+      <c r="C119" s="1">
+        <v>8</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>8</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.006410461850464344</v>
+      </c>
+      <c r="C120" s="1">
+        <v>6</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>6</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.006410461850464344</v>
+      </c>
+      <c r="C121" s="1">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>6</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.006410461850464344</v>
+      </c>
+      <c r="C122" s="1">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>6</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.006410461850464344</v>
+      </c>
+      <c r="C123" s="1">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>6</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.006410461850464344</v>
+      </c>
+      <c r="C124" s="1">
+        <v>6</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>6</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.004273641388863325</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.004273641388863325</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.002136820694431663</v>
+      </c>
+      <c r="C127" s="1">
         <v>2</v>
       </c>
-      <c r="D96" s="1">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1">
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
         <v>2</v>
       </c>
-      <c r="F96" s="1">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.002136820694431663</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.002136820694431663</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.002136820694431663</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.002136820694431663</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C97">
+      <c r="C132">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D97">
+      <c r="D132">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E97">
+      <c r="E132">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F132">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="G132">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H97">
+      <c r="H132">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
+++ b/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="138">
   <si>
     <t>rt-thread</t>
   </si>
   <si>
-    <t>cdc_acm_template.o</t>
-  </si>
-  <si>
     <t>main.o</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
     <t>drv_gpio.o</t>
   </si>
   <si>
+    <t>cherry_vcom.o</t>
+  </si>
+  <si>
     <t>drv_soft_i2c.o</t>
   </si>
   <si>
@@ -83,12 +83,12 @@
     <t>cpuport.o</t>
   </si>
   <si>
+    <t>irq.o</t>
+  </si>
+  <si>
     <t>bh1750fvi.o</t>
   </si>
   <si>
-    <t>irq.o</t>
-  </si>
-  <si>
     <t>stm32l4xx_hal.o</t>
   </si>
   <si>
@@ -137,6 +137,9 @@
     <t>dev_i2c_bit_ops.o</t>
   </si>
   <si>
+    <t>ringbuffer.o</t>
+  </si>
+  <si>
     <t>device.o</t>
   </si>
   <si>
@@ -167,12 +170,12 @@
     <t>kstring.o</t>
   </si>
   <si>
+    <t>board.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_cortex.o</t>
   </si>
   <si>
-    <t>board.o</t>
-  </si>
-  <si>
     <t>__printf_flags_wp.o</t>
   </si>
   <si>
@@ -230,9 +233,6 @@
     <t>strtoul.o</t>
   </si>
   <si>
-    <t>_printf_dec.o</t>
-  </si>
-  <si>
     <t>strtol.o</t>
   </si>
   <si>
@@ -335,9 +335,6 @@
     <t>rt_ctype_table.o</t>
   </si>
   <si>
-    <t>aeabi_memset.o</t>
-  </si>
-  <si>
     <t>defsig_rtred_outer.o</t>
   </si>
   <si>
@@ -378,9 +375,6 @@
   </si>
   <si>
     <t>_printf_x.o</t>
-  </si>
-  <si>
-    <t>_printf_d.o</t>
   </si>
   <si>
     <t>__rtentry4.o</t>
@@ -524,50 +518,50 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$132</c:f>
+              <c:f>ram_percent!$A$3:$A$130</c:f>
               <c:strCache>
-                <c:ptCount val="130"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>cdc_acm_template.o</c:v>
+                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>main.o</c:v>
+                  <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>startup_stm32l432xx.o</c:v>
+                  <c:v>usbd_core.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>usbd_core.o</c:v>
+                  <c:v>idle.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>idle.o</c:v>
+                  <c:v>drv_usart.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>drv_usart.o</c:v>
+                  <c:v>usb_dc_fsdev.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>usb_dc_fsdev.o</c:v>
+                  <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>c_w.l</c:v>
+                  <c:v>kservice.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>kservice.o</c:v>
+                  <c:v>object.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>object.o</c:v>
+                  <c:v>shell.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>shell.o</c:v>
+                  <c:v>scheduler_up.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>scheduler_up.o</c:v>
+                  <c:v>stdio_streams.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>stdio_streams.o</c:v>
+                  <c:v>drv_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>drv_gpio.o</c:v>
+                  <c:v>cherry_vcom.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>drv_soft_i2c.o</c:v>
@@ -591,10 +585,10 @@
                   <c:v>cpuport.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>irq.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>bh1750fvi.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>irq.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>stm32l4xx_hal.o</c:v>
@@ -623,7 +617,7 @@
                 <c:pt idx="31">
                   <c:v>drv_common.o</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="127">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -631,107 +625,107 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$132</c:f>
+              <c:f>ram_percent!$B$3:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>37.00452423095703</c:v>
+                  <c:v>16.47735023498535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.67659854888916</c:v>
+                  <c:v>14.01395893096924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.080429077148438</c:v>
+                  <c:v>11.33160018920898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.34237813949585</c:v>
+                  <c:v>6.131107330322266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.972687721252441</c:v>
+                  <c:v>5.802655220031738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.759865283966065</c:v>
+                  <c:v>5.474202632904053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.547042608261108</c:v>
+                  <c:v>4.926782608032227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.192338466644287</c:v>
+                  <c:v>4.598330497741699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.979515790939331</c:v>
+                  <c:v>3.886683940887451</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.518400192260742</c:v>
+                  <c:v>3.790885448455811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.456326961517334</c:v>
+                  <c:v>3.722457885742188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.411988973617554</c:v>
+                  <c:v>3.612973928451538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.341048240661621</c:v>
+                  <c:v>3.558231830596924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.305577754974365</c:v>
+                  <c:v>2.805528879165649</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.596169233322144</c:v>
+                  <c:v>2.463391304016113</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.099583268165588</c:v>
+                  <c:v>1.69700288772583</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.064112782478333</c:v>
+                  <c:v>1.642260789871216</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.851290225982666</c:v>
+                  <c:v>1.313808679580689</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6384676694869995</c:v>
+                  <c:v>0.9853565096855164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2482929825782776</c:v>
+                  <c:v>0.3831942081451416</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1418817043304443</c:v>
+                  <c:v>0.2189681082963944</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1241464912891388</c:v>
+                  <c:v>0.1642260849475861</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1064112782478333</c:v>
+                  <c:v>0.1642260849475861</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.07980845868587494</c:v>
+                  <c:v>0.1231695637106895</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.07094085216522217</c:v>
+                  <c:v>0.1094840541481972</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.07094085216522217</c:v>
+                  <c:v>0.1094840541481972</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.07094085216522217</c:v>
+                  <c:v>0.1094840541481972</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.07094085216522217</c:v>
+                  <c:v>0.1094840541481972</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.07094085216522217</c:v>
+                  <c:v>0.1094840541481972</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.03547042608261108</c:v>
+                  <c:v>0.05474202707409859</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.03547042608261108</c:v>
+                  <c:v>0.05474202707409859</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.03547042608261108</c:v>
-                </c:pt>
-                <c:pt idx="129">
+                  <c:v>0.05474202707409859</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -799,116 +793,116 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$132</c:f>
+              <c:f>flash_percent!$A$3:$A$130</c:f>
               <c:strCache>
-                <c:ptCount val="130"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
+                  <c:v>ipc.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>usbd_core.o</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>cmd.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cdc_acm_template.o</c:v>
+                  <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ipc.o</c:v>
+                  <c:v>serial.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>serial.o</c:v>
+                  <c:v>usb_dc_fsdev.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>usb_dc_fsdev.o</c:v>
+                  <c:v>stm32l4xx_hal_uart.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>stm32l4xx_hal_uart.o</c:v>
+                  <c:v>thread.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>thread.o</c:v>
+                  <c:v>drv_usart.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>drv_usart.o</c:v>
+                  <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>stm32l4xx_hal_rcc.o</c:v>
+                  <c:v>shell.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>shell.o</c:v>
+                  <c:v>dataqueue.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>dataqueue.o</c:v>
+                  <c:v>dev_pin.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>dev_pin.o</c:v>
+                  <c:v>sensor.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>sensor.o</c:v>
+                  <c:v>timer.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>timer.o</c:v>
+                  <c:v>kstdio.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>kstdio.o</c:v>
+                  <c:v>mem.o</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mem.o</c:v>
+                  <c:v>drv_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>drv_gpio.o</c:v>
+                  <c:v>kservice.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>kservice.o</c:v>
+                  <c:v>object.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>object.o</c:v>
+                  <c:v>msh.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>msh.o</c:v>
+                  <c:v>dev_i2c_bit_ops.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>dev_i2c_bit_ops.o</c:v>
+                  <c:v>cpuport.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>cpuport.o</c:v>
+                  <c:v>ringbuffer.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>device.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>cherry_vcom.o</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>bh1750fvi.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>scheduler_up.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>stm32l4xx_hal_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>completion_up.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>syscalls.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>scheduler_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>dev_i2c_core.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>dev_i2c_dev.o</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>drv_common.o</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>drv_soft_i2c.o</c:v>
@@ -923,85 +917,85 @@
                   <c:v>kstring.o</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>drv_common.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>board.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>board.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>__printf_flags_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>context_rvds.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>initio.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>usbd_cdc.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>components.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>fseek.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>stdio.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>lludivv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>fopen.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>_printf_intcommon.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>_strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>strncmp.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>rt_memcpy_v6.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>_printf_hex_int.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>cpu_up.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>strtoul.o</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>_printf_dec.o</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>irq.o</c:v>
@@ -1112,84 +1106,78 @@
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>aeabi_memset.o</c:v>
+                  <c:v>defsig_rtred_outer.o</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>defsig_rtred_outer.o</c:v>
+                  <c:v>__printf_wp.o</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>__printf_wp.o</c:v>
+                  <c:v>stdio_streams.o</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>stdio_streams.o</c:v>
+                  <c:v>__rtentry2.o</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>__rtentry2.o</c:v>
+                  <c:v>fz_wm.l</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>fz_wm.l</c:v>
+                  <c:v>fpinit.o</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>fpinit.o</c:v>
+                  <c:v>rtexit2.o</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>rtexit2.o</c:v>
+                  <c:v>defsig_exit.o</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>defsig_exit.o</c:v>
+                  <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>rt_locale_intlibspace.o</c:v>
+                  <c:v>rt_errno_addr_intlibspace.o</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>rt_errno_addr_intlibspace.o</c:v>
+                  <c:v>libspace.o</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>libspace.o</c:v>
+                  <c:v>ferror.o</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>ferror.o</c:v>
+                  <c:v>__main.o</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>__main.o</c:v>
+                  <c:v>libshutdown2.o</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>libshutdown2.o</c:v>
+                  <c:v>heapauxi.o</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>heapauxi.o</c:v>
+                  <c:v>_printf_x.o</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>_printf_x.o</c:v>
+                  <c:v>__rtentry4.o</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>_printf_d.o</c:v>
+                  <c:v>hguard.o</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>__rtentry4.o</c:v>
+                  <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>hguard.o</c:v>
+                  <c:v>use_no_semi.o</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>_printf_percent_end.o</c:v>
+                  <c:v>rtexit.o</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>use_no_semi.o</c:v>
+                  <c:v>libshutdown.o</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>rtexit.o</c:v>
+                  <c:v>libinit.o</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>libshutdown.o</c:v>
+                  <c:v>stm32l4xx_hal_uart_ex.o</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>libinit.o</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>stm32l4xx_hal_uart_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="129">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1197,398 +1185,392 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$132</c:f>
+              <c:f>flash_percent!$B$3:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>6.131606578826904</c:v>
+                  <c:v>6.330574035644531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.652958869934082</c:v>
+                  <c:v>6.255120277404785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.533297061920166</c:v>
+                  <c:v>5.582503318786621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.063196659088135</c:v>
+                  <c:v>5.550166130065918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.862335205078125</c:v>
+                  <c:v>4.569266796112061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.528991222381592</c:v>
+                  <c:v>4.557409763336182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.465955257415772</c:v>
+                  <c:v>3.716638565063477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.683878660202026</c:v>
+                  <c:v>3.288707733154297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.259719848632813</c:v>
+                  <c:v>3.076359272003174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.049242973327637</c:v>
+                  <c:v>3.000905513763428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.974454402923584</c:v>
+                  <c:v>2.766998767852783</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.742609262466431</c:v>
+                  <c:v>2.518001079559326</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.495806455612183</c:v>
+                  <c:v>2.484585762023926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.462685823440552</c:v>
+                  <c:v>2.404820442199707</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.383623361587524</c:v>
+                  <c:v>2.314275741577148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.293876886367798</c:v>
+                  <c:v>2.250679016113281</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.230840682983398</c:v>
+                  <c:v>2.146121740341187</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.127204895019531</c:v>
+                  <c:v>2.097615718841553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.079126358032227</c:v>
+                  <c:v>2.030785083770752</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.015021800994873</c:v>
+                  <c:v>1.893890380859375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.877196907997131</c:v>
+                  <c:v>1.827059864997864</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.81095552444458</c:v>
+                  <c:v>1.713879227638245</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.698772430419922</c:v>
+                  <c:v>1.647048711776733</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.632530927658081</c:v>
+                  <c:v>1.585607767105103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.568426370620728</c:v>
+                  <c:v>1.582373976707459</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.512869000434876</c:v>
+                  <c:v>1.49721896648407</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.320555090904236</c:v>
+                  <c:v>1.390505790710449</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.245766401290894</c:v>
+                  <c:v>1.332298517227173</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9081487655639648</c:v>
+                  <c:v>1.256844758987427</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9017382860183716</c:v>
+                  <c:v>0.9162247180938721</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.896396279335022</c:v>
+                  <c:v>0.9097572565078735</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8130602240562439</c:v>
+                  <c:v>0.9043676853179932</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7842131853103638</c:v>
+                  <c:v>0.8202906250953674</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6463882327079773</c:v>
+                  <c:v>0.7911869883537293</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6004465818405151</c:v>
+                  <c:v>0.6521364450454712</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5139053463935852</c:v>
+                  <c:v>0.6057862043380737</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5107001066207886</c:v>
+                  <c:v>0.5152416825294495</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5021528601646423</c:v>
+                  <c:v>0.5066183805465698</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4871951043605804</c:v>
+                  <c:v>0.4915276169776917</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4594164490699768</c:v>
+                  <c:v>0.4635019302368164</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.391038179397583</c:v>
+                  <c:v>0.458112359046936</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3867645263671875</c:v>
+                  <c:v>0.4074505269527435</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3739435970783234</c:v>
+                  <c:v>0.3945155739784241</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.357917457818985</c:v>
+                  <c:v>0.3923597633838654</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3504385948181152</c:v>
+                  <c:v>0.3902039527893066</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3418912887573242</c:v>
+                  <c:v>0.3611003458499908</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3376176655292511</c:v>
+                  <c:v>0.3535549640655518</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3333440124988556</c:v>
+                  <c:v>0.3449316620826721</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3290703892707825</c:v>
+                  <c:v>0.3406200110912323</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.324796736240387</c:v>
+                  <c:v>0.3363083600997925</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3162494599819183</c:v>
+                  <c:v>0.3319967091083527</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2713762223720551</c:v>
+                  <c:v>0.3190617859363556</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2649657428264618</c:v>
+                  <c:v>0.2737894952297211</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2564184665679932</c:v>
+                  <c:v>0.2673220336437225</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2542816400527954</c:v>
+                  <c:v>0.2586987316608429</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.25214484333992</c:v>
+                  <c:v>0.2565429210662842</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2297082245349884</c:v>
+                  <c:v>0.2543871104717255</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1901770383119583</c:v>
+                  <c:v>0.2317509651184082</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1880402117967606</c:v>
+                  <c:v>0.1918682307004929</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1752192974090576</c:v>
+                  <c:v>0.1897124201059341</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1602615416049957</c:v>
+                  <c:v>0.1767774820327759</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1474406272172928</c:v>
+                  <c:v>0.1616867184638977</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1367565244436264</c:v>
+                  <c:v>0.1487517803907394</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1367565244436264</c:v>
+                  <c:v>0.1379726678133011</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1303460597991943</c:v>
+                  <c:v>0.1379726678133011</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1282092332839966</c:v>
+                  <c:v>0.1315051913261414</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1282092332839966</c:v>
+                  <c:v>0.1293493658304215</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1239355951547623</c:v>
+                  <c:v>0.1250377297401428</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.119661957025528</c:v>
+                  <c:v>0.120726078748703</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1068410277366638</c:v>
+                  <c:v>0.1077911406755447</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1068410277366638</c:v>
+                  <c:v>0.1077911406755447</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.09615692496299744</c:v>
+                  <c:v>0.09701202809810638</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.09402010589838028</c:v>
+                  <c:v>0.09485621005296707</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09188328683376312</c:v>
+                  <c:v>0.09270038455724716</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0833360031247139</c:v>
+                  <c:v>0.08407709002494812</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0833360031247139</c:v>
+                  <c:v>0.08407709002494812</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.08119918406009674</c:v>
+                  <c:v>0.08192127197980881</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.07906236499547958</c:v>
+                  <c:v>0.0797654464840889</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.07692554593086243</c:v>
+                  <c:v>0.07760962098836899</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.07478871941566467</c:v>
+                  <c:v>0.07545380294322968</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07265190035104752</c:v>
+                  <c:v>0.07329797744750977</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07051508128643036</c:v>
+                  <c:v>0.07114215195178986</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.06624143570661545</c:v>
+                  <c:v>0.06683050841093063</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.06624143570661545</c:v>
+                  <c:v>0.06683050841093063</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.06410461664199829</c:v>
+                  <c:v>0.06467468291521072</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.05555733665823937</c:v>
+                  <c:v>0.05605139583349228</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.05555733665823937</c:v>
+                  <c:v>0.05605139583349228</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.05342051386833191</c:v>
+                  <c:v>0.05389557033777237</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05128369480371475</c:v>
+                  <c:v>0.05173974856734276</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.04166800156235695</c:v>
+                  <c:v>0.04203854501247406</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03846277296543121</c:v>
+                  <c:v>0.03880481049418449</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03632595017552376</c:v>
+                  <c:v>0.03664898872375488</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.02991548925638199</c:v>
+                  <c:v>0.03018151968717575</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.02991548925638199</c:v>
+                  <c:v>0.03018151968717575</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.02991548925638199</c:v>
+                  <c:v>0.03018151968717575</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02777866832911968</c:v>
+                  <c:v>0.02802569791674614</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02777866832911968</c:v>
+                  <c:v>0.02802569791674614</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02564184740185738</c:v>
+                  <c:v>0.02586987428367138</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02564184740185738</c:v>
+                  <c:v>0.02586987428367138</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02564184740185738</c:v>
+                  <c:v>0.02586987428367138</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02136820554733276</c:v>
+                  <c:v>0.02155822888016701</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.01923138648271561</c:v>
+                  <c:v>0.01940240524709225</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0170945655554533</c:v>
+                  <c:v>0.01724658347666264</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0170945655554533</c:v>
+                  <c:v>0.01509075984358788</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.01495774462819099</c:v>
+                  <c:v>0.01509075984358788</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01495774462819099</c:v>
+                  <c:v>0.01293493714183569</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01282092370092869</c:v>
+                  <c:v>0.01293493714183569</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01282092370092869</c:v>
+                  <c:v>0.0107791144400835</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01068410277366638</c:v>
+                  <c:v>0.0107791144400835</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.01068410277366638</c:v>
+                  <c:v>0.0107791144400835</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.01068410277366638</c:v>
+                  <c:v>0.0107791144400835</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.01068410277366638</c:v>
+                  <c:v>0.008623291738331318</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.00854728277772665</c:v>
+                  <c:v>0.008623291738331318</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.00854728277772665</c:v>
+                  <c:v>0.008623291738331318</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.00854728277772665</c:v>
+                  <c:v>0.008623291738331318</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.00854728277772665</c:v>
+                  <c:v>0.008623291738331318</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.00854728277772665</c:v>
+                  <c:v>0.006467468570917845</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.006410461850464344</c:v>
+                  <c:v>0.006467468570917845</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.006410461850464344</c:v>
+                  <c:v>0.006467468570917845</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.006410461850464344</c:v>
+                  <c:v>0.006467468570917845</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.006410461850464344</c:v>
+                  <c:v>0.004311645869165659</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.006410461850464344</c:v>
+                  <c:v>0.004311645869165659</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.004273641388863325</c:v>
+                  <c:v>0.00215582293458283</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.004273641388863325</c:v>
+                  <c:v>0.00215582293458283</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.002136820694431663</c:v>
+                  <c:v>0.00215582293458283</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.002136820694431663</c:v>
+                  <c:v>0.00215582293458283</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.002136820694431663</c:v>
+                  <c:v>0.00215582293458283</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.002136820694431663</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.002136820694431663</c:v>
-                </c:pt>
-                <c:pt idx="129">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1693,8 +1675,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H132" totalsRowCount="1">
-  <autoFilter ref="A2:H131"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H130" totalsRowCount="1">
+  <autoFilter ref="A2:H129"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1710,8 +1692,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H132" totalsRowCount="1">
-  <autoFilter ref="A2:H131"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H130" totalsRowCount="1">
+  <autoFilter ref="A2:H129"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2011,7 +1993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2027,28 +2009,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>136</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2056,25 +2038,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>37.00452423095703</v>
+        <v>16.47735023498535</v>
       </c>
       <c r="C3" s="1">
-        <v>4173</v>
+        <v>1204</v>
       </c>
       <c r="D3" s="1">
-        <v>4739</v>
+        <v>364</v>
       </c>
       <c r="E3" s="1">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="F3" s="1">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>4117</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>56</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2082,25 +2064,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>10.67659854888916</v>
+        <v>14.01395893096924</v>
       </c>
       <c r="C4" s="1">
-        <v>1204</v>
+        <v>1024</v>
       </c>
       <c r="D4" s="1">
-        <v>304</v>
+        <v>456</v>
       </c>
       <c r="E4" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1200</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2108,25 +2090,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>9.080429077148438</v>
+        <v>11.33160018920898</v>
       </c>
       <c r="C5" s="1">
-        <v>1024</v>
+        <v>828</v>
       </c>
       <c r="D5" s="1">
-        <v>456</v>
+        <v>5803</v>
       </c>
       <c r="E5" s="1">
-        <v>60</v>
+        <v>4882</v>
       </c>
       <c r="F5" s="1">
-        <v>396</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="H5" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2134,25 +2116,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>7.34237813949585</v>
+        <v>6.131107330322266</v>
       </c>
       <c r="C6" s="1">
-        <v>828</v>
+        <v>448</v>
       </c>
       <c r="D6" s="1">
-        <v>5739</v>
+        <v>366</v>
       </c>
       <c r="E6" s="1">
-        <v>4818</v>
+        <v>342</v>
       </c>
       <c r="F6" s="1">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>828</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2160,25 +2142,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3.972687721252441</v>
+        <v>5.802655220031738</v>
       </c>
       <c r="C7" s="1">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="D7" s="1">
-        <v>366</v>
+        <v>2854</v>
       </c>
       <c r="E7" s="1">
-        <v>342</v>
+        <v>2556</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G7" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2186,25 +2168,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>3.759865283966065</v>
+        <v>5.474202632904053</v>
       </c>
       <c r="C8" s="1">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D8" s="1">
-        <v>2854</v>
+        <v>4228</v>
       </c>
       <c r="E8" s="1">
-        <v>2556</v>
+        <v>4228</v>
       </c>
       <c r="F8" s="1">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2212,25 +2194,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>3.547042608261108</v>
+        <v>4.926782608032227</v>
       </c>
       <c r="C9" s="1">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D9" s="1">
-        <v>4180</v>
+        <v>5149</v>
       </c>
       <c r="E9" s="1">
-        <v>4180</v>
+        <v>4808</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1">
-        <v>400</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2238,25 +2220,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>3.192338466644287</v>
+        <v>4.598330497741699</v>
       </c>
       <c r="C10" s="1">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D10" s="1">
-        <v>5291</v>
+        <v>1884</v>
       </c>
       <c r="E10" s="1">
-        <v>4950</v>
+        <v>1550</v>
       </c>
       <c r="F10" s="1">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="G10" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1">
-        <v>348</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2264,25 +2246,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>2.979515790939331</v>
+        <v>3.886683940887451</v>
       </c>
       <c r="C11" s="1">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="D11" s="1">
-        <v>1886</v>
+        <v>1757</v>
       </c>
       <c r="E11" s="1">
-        <v>1552</v>
+        <v>1326</v>
       </c>
       <c r="F11" s="1">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="G11" s="1">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="H11" s="1">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2290,25 +2272,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>2.518400192260742</v>
+        <v>3.790885448455811</v>
       </c>
       <c r="C12" s="1">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1">
-        <v>1757</v>
+        <v>2567</v>
       </c>
       <c r="E12" s="1">
-        <v>1326</v>
+        <v>2408</v>
       </c>
       <c r="F12" s="1">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G12" s="1">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2316,25 +2298,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>2.456326961517334</v>
+        <v>3.722457885742188</v>
       </c>
       <c r="C13" s="1">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D13" s="1">
-        <v>2567</v>
+        <v>1166</v>
       </c>
       <c r="E13" s="1">
-        <v>2408</v>
+        <v>1078</v>
       </c>
       <c r="F13" s="1">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2342,25 +2324,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>2.411988973617554</v>
+        <v>3.612973928451538</v>
       </c>
       <c r="C14" s="1">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D14" s="1">
-        <v>1166</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2368,25 +2350,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>2.341048240661621</v>
+        <v>3.558231830596924</v>
       </c>
       <c r="C15" s="1">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D15" s="1">
-        <v>12</v>
+        <v>1946</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1594</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="H15" s="1">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2394,25 +2376,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>2.305577754974365</v>
+        <v>2.805528879165649</v>
       </c>
       <c r="C16" s="1">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="D16" s="1">
-        <v>1946</v>
+        <v>1389</v>
       </c>
       <c r="E16" s="1">
-        <v>1594</v>
+        <v>1032</v>
       </c>
       <c r="F16" s="1">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="G16" s="1">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2420,7 +2402,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1.596169233322144</v>
+        <v>2.463391304016113</v>
       </c>
       <c r="C17" s="1">
         <v>180</v>
@@ -2446,7 +2428,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>1.099583268165588</v>
+        <v>1.69700288772583</v>
       </c>
       <c r="C18" s="1">
         <v>124</v>
@@ -2472,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>1.064112782478333</v>
+        <v>1.642260789871216</v>
       </c>
       <c r="C19" s="1">
         <v>120</v>
@@ -2498,7 +2480,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.851290225982666</v>
+        <v>1.313808679580689</v>
       </c>
       <c r="C20" s="1">
         <v>96</v>
@@ -2524,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.6384676694869995</v>
+        <v>0.9853565096855164</v>
       </c>
       <c r="C21" s="1">
         <v>72</v>
@@ -2550,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.2482929825782776</v>
+        <v>0.3831942081451416</v>
       </c>
       <c r="C22" s="1">
         <v>28</v>
@@ -2576,7 +2558,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.1418817043304443</v>
+        <v>0.2189681082963944</v>
       </c>
       <c r="C23" s="1">
         <v>16</v>
@@ -2602,22 +2584,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.1241464912891388</v>
+        <v>0.1642260849475861</v>
       </c>
       <c r="C24" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
-        <v>1416</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1">
-        <v>1398</v>
+        <v>104</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -2628,19 +2610,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.1064112782478333</v>
+        <v>0.1642260849475861</v>
       </c>
       <c r="C25" s="1">
         <v>12</v>
       </c>
       <c r="D25" s="1">
-        <v>116</v>
+        <v>1290</v>
       </c>
       <c r="E25" s="1">
-        <v>104</v>
+        <v>1274</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1">
         <v>12</v>
@@ -2654,7 +2636,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.07980845868587494</v>
+        <v>0.1231695637106895</v>
       </c>
       <c r="C26" s="1">
         <v>9</v>
@@ -2680,7 +2662,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.07094085216522217</v>
+        <v>0.1094840541481972</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
@@ -2706,7 +2688,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.07094085216522217</v>
+        <v>0.1094840541481972</v>
       </c>
       <c r="C28" s="1">
         <v>8</v>
@@ -2732,7 +2714,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.07094085216522217</v>
+        <v>0.1094840541481972</v>
       </c>
       <c r="C29" s="1">
         <v>8</v>
@@ -2758,7 +2740,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.07094085216522217</v>
+        <v>0.1094840541481972</v>
       </c>
       <c r="C30" s="1">
         <v>8</v>
@@ -2784,7 +2766,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>0.07094085216522217</v>
+        <v>0.1094840541481972</v>
       </c>
       <c r="C31" s="1">
         <v>8</v>
@@ -2810,7 +2792,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>0.03547042608261108</v>
+        <v>0.05474202707409859</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -2836,7 +2818,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>0.03547042608261108</v>
+        <v>0.05474202707409859</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -2862,16 +2844,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.03547042608261108</v>
+        <v>0.05474202707409859</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="E34" s="1">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="F34" s="1">
         <v>37</v>
@@ -2883,35 +2865,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C132">
+      <c r="C130">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D132">
+      <c r="D130">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E132">
+      <c r="E130">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F132">
+      <c r="F130">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G132">
+      <c r="G130">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H132">
+      <c r="H130">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2927,7 +2909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2943,51 +2925,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>136</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
-        <v>6.131606578826904</v>
+        <v>6.330574035644531</v>
       </c>
       <c r="C3" s="1">
-        <v>5739</v>
+        <v>5873</v>
       </c>
       <c r="D3" s="1">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>4818</v>
+        <v>5044</v>
       </c>
       <c r="F3" s="1">
-        <v>93</v>
+        <v>829</v>
       </c>
       <c r="G3" s="1">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -2995,28 +2977,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>5.652958869934082</v>
+        <v>6.255120277404785</v>
       </c>
       <c r="C4" s="1">
-        <v>5291</v>
+        <v>5803</v>
       </c>
       <c r="D4" s="1">
-        <v>360</v>
+        <v>828</v>
       </c>
       <c r="E4" s="1">
-        <v>4950</v>
+        <v>4882</v>
       </c>
       <c r="F4" s="1">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1">
-        <v>12</v>
+        <v>828</v>
       </c>
       <c r="H4" s="1">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3024,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>5.533297061920166</v>
+        <v>5.582503318786621</v>
       </c>
       <c r="C5" s="1">
         <v>5179</v>
@@ -3047,51 +3029,51 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>5.063196659088135</v>
+        <v>5.550166130065918</v>
       </c>
       <c r="C6" s="1">
-        <v>4739</v>
+        <v>5149</v>
       </c>
       <c r="D6" s="1">
-        <v>4173</v>
+        <v>360</v>
       </c>
       <c r="E6" s="1">
-        <v>444</v>
+        <v>4808</v>
       </c>
       <c r="F6" s="1">
-        <v>178</v>
+        <v>329</v>
       </c>
       <c r="G6" s="1">
-        <v>4117</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>56</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
-        <v>4.862335205078125</v>
+        <v>4.569266796112061</v>
       </c>
       <c r="C7" s="1">
-        <v>4551</v>
+        <v>4239</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>3790</v>
+        <v>3838</v>
       </c>
       <c r="F7" s="1">
-        <v>761</v>
+        <v>397</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -3099,45 +3081,45 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>4.528991222381592</v>
+        <v>4.557409763336182</v>
       </c>
       <c r="C8" s="1">
-        <v>4239</v>
+        <v>4228</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="E8" s="1">
-        <v>3838</v>
+        <v>4228</v>
       </c>
       <c r="F8" s="1">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2">
-        <v>4.465955257415772</v>
+        <v>3.716638565063477</v>
       </c>
       <c r="C9" s="1">
-        <v>4180</v>
+        <v>3448</v>
       </c>
       <c r="D9" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>4180</v>
+        <v>3448</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3146,30 +3128,30 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>3.683878660202026</v>
+        <v>3.288707733154297</v>
       </c>
       <c r="C10" s="1">
-        <v>3448</v>
+        <v>3051</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>3448</v>
+        <v>2670</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -3177,181 +3159,181 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>3.259719848632813</v>
+        <v>3.076359272003174</v>
       </c>
       <c r="C11" s="1">
-        <v>3051</v>
+        <v>2854</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>424</v>
       </c>
       <c r="E11" s="1">
-        <v>2670</v>
+        <v>2556</v>
       </c>
       <c r="F11" s="1">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="G11" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
-        <v>3.049242973327637</v>
+        <v>3.000905513763428</v>
       </c>
       <c r="C12" s="1">
-        <v>2854</v>
+        <v>2784</v>
       </c>
       <c r="D12" s="1">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>2556</v>
+        <v>2784</v>
       </c>
       <c r="F12" s="1">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>2.974454402923584</v>
+        <v>2.766998767852783</v>
       </c>
       <c r="C13" s="1">
-        <v>2784</v>
+        <v>2567</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="E13" s="1">
-        <v>2784</v>
+        <v>2408</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
-        <v>2.742609262466431</v>
+        <v>2.518001079559326</v>
       </c>
       <c r="C14" s="1">
-        <v>2567</v>
+        <v>2336</v>
       </c>
       <c r="D14" s="1">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>2408</v>
+        <v>2202</v>
       </c>
       <c r="F14" s="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>2.495806455612183</v>
+        <v>2.484585762023926</v>
       </c>
       <c r="C15" s="1">
-        <v>2336</v>
+        <v>2305</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1">
-        <v>2202</v>
+        <v>1984</v>
       </c>
       <c r="F15" s="1">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>2.462685823440552</v>
+        <v>2.404820442199707</v>
       </c>
       <c r="C16" s="1">
-        <v>2305</v>
+        <v>2231</v>
       </c>
       <c r="D16" s="1">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>1984</v>
+        <v>1892</v>
       </c>
       <c r="F16" s="1">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>2.383623361587524</v>
+        <v>2.314275741577148</v>
       </c>
       <c r="C17" s="1">
-        <v>2231</v>
+        <v>2147</v>
       </c>
       <c r="D17" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1">
-        <v>1892</v>
+        <v>1996</v>
       </c>
       <c r="F17" s="1">
-        <v>331</v>
+        <v>123</v>
       </c>
       <c r="G17" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3359,25 +3341,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>2.293876886367798</v>
+        <v>2.250679016113281</v>
       </c>
       <c r="C18" s="1">
-        <v>2147</v>
+        <v>2088</v>
       </c>
       <c r="D18" s="1">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1">
-        <v>1996</v>
+        <v>1810</v>
       </c>
       <c r="F18" s="1">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G18" s="1">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -3385,25 +3367,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>2.230840682983398</v>
+        <v>2.146121740341187</v>
       </c>
       <c r="C19" s="1">
-        <v>2088</v>
+        <v>1991</v>
       </c>
       <c r="D19" s="1">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1810</v>
+        <v>1498</v>
       </c>
       <c r="F19" s="1">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="G19" s="1">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -3411,25 +3393,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>2.127204895019531</v>
+        <v>2.097615718841553</v>
       </c>
       <c r="C20" s="1">
-        <v>1991</v>
+        <v>1946</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E20" s="1">
-        <v>1498</v>
+        <v>1594</v>
       </c>
       <c r="F20" s="1">
-        <v>493</v>
+        <v>92</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -3437,28 +3419,28 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>2.079126358032227</v>
+        <v>2.030785083770752</v>
       </c>
       <c r="C21" s="1">
-        <v>1946</v>
+        <v>1884</v>
       </c>
       <c r="D21" s="1">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="E21" s="1">
-        <v>1594</v>
+        <v>1550</v>
       </c>
       <c r="F21" s="1">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="G21" s="1">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3466,48 +3448,48 @@
         <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>2.015021800994873</v>
+        <v>1.893890380859375</v>
       </c>
       <c r="C22" s="1">
-        <v>1886</v>
+        <v>1757</v>
       </c>
       <c r="D22" s="1">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="E22" s="1">
-        <v>1552</v>
+        <v>1326</v>
       </c>
       <c r="F22" s="1">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="G22" s="1">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="H22" s="1">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
-        <v>1.877196907997131</v>
+        <v>1.827059864997864</v>
       </c>
       <c r="C23" s="1">
-        <v>1757</v>
+        <v>1695</v>
       </c>
       <c r="D23" s="1">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1326</v>
+        <v>1536</v>
       </c>
       <c r="F23" s="1">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G23" s="1">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3515,22 +3497,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
-        <v>1.81095552444458</v>
+        <v>1.713879227638245</v>
       </c>
       <c r="C24" s="1">
-        <v>1695</v>
+        <v>1590</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>1536</v>
+        <v>1578</v>
       </c>
       <c r="F24" s="1">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -3541,25 +3523,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>1.698772430419922</v>
+        <v>1.647048711776733</v>
       </c>
       <c r="C25" s="1">
-        <v>1590</v>
+        <v>1528</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1">
-        <v>1578</v>
+        <v>1512</v>
       </c>
       <c r="F25" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3567,25 +3549,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
-        <v>1.632530927658081</v>
+        <v>1.585607767105103</v>
       </c>
       <c r="C26" s="1">
-        <v>1528</v>
+        <v>1471</v>
       </c>
       <c r="D26" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>1512</v>
+        <v>1238</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="G26" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -3593,10 +3575,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
-        <v>1.568426370620728</v>
+        <v>1.582373976707459</v>
       </c>
       <c r="C27" s="1">
         <v>1468</v>
@@ -3619,51 +3601,51 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>1.512869000434876</v>
+        <v>1.49721896648407</v>
       </c>
       <c r="C28" s="1">
-        <v>1416</v>
+        <v>1389</v>
       </c>
       <c r="D28" s="1">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="E28" s="1">
-        <v>1398</v>
+        <v>1032</v>
       </c>
       <c r="F28" s="1">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="G28" s="1">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
-        <v>1.320555090904236</v>
+        <v>1.390505790710449</v>
       </c>
       <c r="C29" s="1">
-        <v>1236</v>
+        <v>1290</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1">
-        <v>1236</v>
+        <v>1274</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -3671,77 +3653,77 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>1.245766401290894</v>
+        <v>1.332298517227173</v>
       </c>
       <c r="C30" s="1">
-        <v>1166</v>
+        <v>1236</v>
       </c>
       <c r="D30" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>1078</v>
+        <v>1236</v>
       </c>
       <c r="F30" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2">
-        <v>0.9081487655639648</v>
+        <v>1.256844758987427</v>
       </c>
       <c r="C31" s="1">
-        <v>850</v>
+        <v>1166</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="E31" s="1">
-        <v>850</v>
+        <v>1078</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
-        <v>0.9017382860183716</v>
+        <v>0.9162247180938721</v>
       </c>
       <c r="C32" s="1">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>762</v>
+        <v>850</v>
       </c>
       <c r="F32" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -3749,25 +3731,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
-        <v>0.896396279335022</v>
+        <v>0.9097572565078735</v>
       </c>
       <c r="C33" s="1">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="F33" s="1">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -3778,19 +3760,19 @@
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>0.8130602240562439</v>
+        <v>0.9043676853179932</v>
       </c>
       <c r="C34" s="1">
-        <v>761</v>
+        <v>839</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="F34" s="1">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -3804,19 +3786,19 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>0.7842131853103638</v>
+        <v>0.8202906250953674</v>
       </c>
       <c r="C35" s="1">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -3830,19 +3812,19 @@
         <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6463882327079773</v>
+        <v>0.7911869883537293</v>
       </c>
       <c r="C36" s="1">
-        <v>605</v>
+        <v>734</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>586</v>
+        <v>734</v>
       </c>
       <c r="F36" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -3856,19 +3838,19 @@
         <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6004465818405151</v>
+        <v>0.6521364450454712</v>
       </c>
       <c r="C37" s="1">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>468</v>
+        <v>586</v>
       </c>
       <c r="F37" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -3879,25 +3861,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5139053463935852</v>
+        <v>0.6057862043380737</v>
       </c>
       <c r="C38" s="1">
-        <v>481</v>
+        <v>562</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="F38" s="1">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -3908,7 +3890,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5107001066207886</v>
+        <v>0.5152416825294495</v>
       </c>
       <c r="C39" s="1">
         <v>478</v>
@@ -3931,10 +3913,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5021528601646423</v>
+        <v>0.5066183805465698</v>
       </c>
       <c r="C40" s="1">
         <v>470</v>
@@ -3957,10 +3939,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4871951043605804</v>
+        <v>0.4915276169776917</v>
       </c>
       <c r="C41" s="1">
         <v>456</v>
@@ -3983,10 +3965,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4594164490699768</v>
+        <v>0.4635019302368164</v>
       </c>
       <c r="C42" s="1">
         <v>430</v>
@@ -4009,45 +3991,45 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2">
-        <v>0.391038179397583</v>
+        <v>0.458112359046936</v>
       </c>
       <c r="C43" s="1">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="D43" s="1">
-        <v>448</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G43" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1">
-        <v>424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3867645263671875</v>
+        <v>0.4074505269527435</v>
       </c>
       <c r="C44" s="1">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -4061,71 +4043,71 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3739435970783234</v>
+        <v>0.3945155739784241</v>
       </c>
       <c r="C45" s="1">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="E45" s="1">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>0.357917457818985</v>
+        <v>0.3923597633838654</v>
       </c>
       <c r="C46" s="1">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="E46" s="1">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="F46" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3504385948181152</v>
+        <v>0.3902039527893066</v>
       </c>
       <c r="C47" s="1">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -4139,25 +4121,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3418912887573242</v>
+        <v>0.3611003458499908</v>
       </c>
       <c r="C48" s="1">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="F48" s="1">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G48" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -4168,19 +4150,19 @@
         <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3376176655292511</v>
+        <v>0.3535549640655518</v>
       </c>
       <c r="C49" s="1">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="F49" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -4191,25 +4173,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3333440124988556</v>
+        <v>0.3449316620826721</v>
       </c>
       <c r="C50" s="1">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -4217,22 +4199,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3290703892707825</v>
+        <v>0.3406200110912323</v>
       </c>
       <c r="C51" s="1">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -4243,28 +4225,28 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>0.324796736240387</v>
+        <v>0.3363083600997925</v>
       </c>
       <c r="C52" s="1">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D52" s="1">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4272,16 +4254,16 @@
         <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3162494599819183</v>
+        <v>0.3319967091083527</v>
       </c>
       <c r="C53" s="1">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -4298,19 +4280,19 @@
         <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2713762223720551</v>
+        <v>0.3190617859363556</v>
       </c>
       <c r="C54" s="1">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="F54" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -4324,19 +4306,19 @@
         <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2649657428264618</v>
+        <v>0.2737894952297211</v>
       </c>
       <c r="C55" s="1">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -4350,16 +4332,16 @@
         <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2564184665679932</v>
+        <v>0.2673220336437225</v>
       </c>
       <c r="C56" s="1">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -4376,16 +4358,16 @@
         <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2542816400527954</v>
+        <v>0.2586987316608429</v>
       </c>
       <c r="C57" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -4402,16 +4384,16 @@
         <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>0.25214484333992</v>
+        <v>0.2565429210662842</v>
       </c>
       <c r="C58" s="1">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4425,25 +4407,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2297082245349884</v>
+        <v>0.2543871104717255</v>
       </c>
       <c r="C59" s="1">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D59" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="F59" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -4451,25 +4433,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1901770383119583</v>
+        <v>0.2317509651184082</v>
       </c>
       <c r="C60" s="1">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -4480,16 +4462,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1880402117967606</v>
+        <v>0.1918682307004929</v>
       </c>
       <c r="C61" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4506,16 +4488,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1752192974090576</v>
+        <v>0.1897124201059341</v>
       </c>
       <c r="C62" s="1">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4532,16 +4514,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1602615416049957</v>
+        <v>0.1767774820327759</v>
       </c>
       <c r="C63" s="1">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4558,16 +4540,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1474406272172928</v>
+        <v>0.1616867184638977</v>
       </c>
       <c r="C64" s="1">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4584,16 +4566,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1367565244436264</v>
+        <v>0.1487517803907394</v>
       </c>
       <c r="C65" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4610,7 +4592,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1367565244436264</v>
+        <v>0.1379726678133011</v>
       </c>
       <c r="C66" s="1">
         <v>128</v>
@@ -4619,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F66" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -4633,25 +4615,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1303460597991943</v>
+        <v>0.1379726678133011</v>
       </c>
       <c r="C67" s="1">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G67" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -4659,25 +4641,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1282092332839966</v>
+        <v>0.1315051913261414</v>
       </c>
       <c r="C68" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -4688,7 +4670,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1282092332839966</v>
+        <v>0.1293493658304215</v>
       </c>
       <c r="C69" s="1">
         <v>120</v>
@@ -4711,10 +4693,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1239355951547623</v>
+        <v>0.1250377297401428</v>
       </c>
       <c r="C70" s="1">
         <v>116</v>
@@ -4740,7 +4722,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>0.119661957025528</v>
+        <v>0.120726078748703</v>
       </c>
       <c r="C71" s="1">
         <v>112</v>
@@ -4766,7 +4748,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1068410277366638</v>
+        <v>0.1077911406755447</v>
       </c>
       <c r="C72" s="1">
         <v>100</v>
@@ -4792,7 +4774,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1068410277366638</v>
+        <v>0.1077911406755447</v>
       </c>
       <c r="C73" s="1">
         <v>100</v>
@@ -4818,7 +4800,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>0.09615692496299744</v>
+        <v>0.09701202809810638</v>
       </c>
       <c r="C74" s="1">
         <v>90</v>
@@ -4844,7 +4826,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>0.09402010589838028</v>
+        <v>0.09485621005296707</v>
       </c>
       <c r="C75" s="1">
         <v>88</v>
@@ -4870,7 +4852,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09188328683376312</v>
+        <v>0.09270038455724716</v>
       </c>
       <c r="C76" s="1">
         <v>86</v>
@@ -4896,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>0.0833360031247139</v>
+        <v>0.08407709002494812</v>
       </c>
       <c r="C77" s="1">
         <v>78</v>
@@ -4922,7 +4904,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0833360031247139</v>
+        <v>0.08407709002494812</v>
       </c>
       <c r="C78" s="1">
         <v>78</v>
@@ -4948,7 +4930,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>0.08119918406009674</v>
+        <v>0.08192127197980881</v>
       </c>
       <c r="C79" s="1">
         <v>76</v>
@@ -4974,7 +4956,7 @@
         <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>0.07906236499547958</v>
+        <v>0.0797654464840889</v>
       </c>
       <c r="C80" s="1">
         <v>74</v>
@@ -5000,7 +4982,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>0.07692554593086243</v>
+        <v>0.07760962098836899</v>
       </c>
       <c r="C81" s="1">
         <v>72</v>
@@ -5026,7 +5008,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>0.07478871941566467</v>
+        <v>0.07545380294322968</v>
       </c>
       <c r="C82" s="1">
         <v>70</v>
@@ -5052,7 +5034,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07265190035104752</v>
+        <v>0.07329797744750977</v>
       </c>
       <c r="C83" s="1">
         <v>68</v>
@@ -5078,7 +5060,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07051508128643036</v>
+        <v>0.07114215195178986</v>
       </c>
       <c r="C84" s="1">
         <v>66</v>
@@ -5104,7 +5086,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>0.06624143570661545</v>
+        <v>0.06683050841093063</v>
       </c>
       <c r="C85" s="1">
         <v>62</v>
@@ -5130,7 +5112,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>0.06624143570661545</v>
+        <v>0.06683050841093063</v>
       </c>
       <c r="C86" s="1">
         <v>62</v>
@@ -5156,7 +5138,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>0.06410461664199829</v>
+        <v>0.06467468291521072</v>
       </c>
       <c r="C87" s="1">
         <v>60</v>
@@ -5182,7 +5164,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>0.05555733665823937</v>
+        <v>0.05605139583349228</v>
       </c>
       <c r="C88" s="1">
         <v>52</v>
@@ -5208,7 +5190,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>0.05555733665823937</v>
+        <v>0.05605139583349228</v>
       </c>
       <c r="C89" s="1">
         <v>52</v>
@@ -5234,7 +5216,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>0.05342051386833191</v>
+        <v>0.05389557033777237</v>
       </c>
       <c r="C90" s="1">
         <v>50</v>
@@ -5260,7 +5242,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0.05128369480371475</v>
+        <v>0.05173974856734276</v>
       </c>
       <c r="C91" s="1">
         <v>48</v>
@@ -5286,7 +5268,7 @@
         <v>24</v>
       </c>
       <c r="B92" s="2">
-        <v>0.04166800156235695</v>
+        <v>0.04203854501247406</v>
       </c>
       <c r="C92" s="1">
         <v>39</v>
@@ -5312,7 +5294,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.03846277296543121</v>
+        <v>0.03880481049418449</v>
       </c>
       <c r="C93" s="1">
         <v>36</v>
@@ -5338,7 +5320,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>0.03632595017552376</v>
+        <v>0.03664898872375488</v>
       </c>
       <c r="C94" s="1">
         <v>34</v>
@@ -5364,7 +5346,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>0.02991548925638199</v>
+        <v>0.03018151968717575</v>
       </c>
       <c r="C95" s="1">
         <v>28</v>
@@ -5390,7 +5372,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>0.02991548925638199</v>
+        <v>0.03018151968717575</v>
       </c>
       <c r="C96" s="1">
         <v>28</v>
@@ -5416,7 +5398,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>0.02991548925638199</v>
+        <v>0.03018151968717575</v>
       </c>
       <c r="C97" s="1">
         <v>28</v>
@@ -5442,7 +5424,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>0.02777866832911968</v>
+        <v>0.02802569791674614</v>
       </c>
       <c r="C98" s="1">
         <v>26</v>
@@ -5468,7 +5450,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2">
-        <v>0.02777866832911968</v>
+        <v>0.02802569791674614</v>
       </c>
       <c r="C99" s="1">
         <v>26</v>
@@ -5494,7 +5476,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2">
-        <v>0.02564184740185738</v>
+        <v>0.02586987428367138</v>
       </c>
       <c r="C100" s="1">
         <v>24</v>
@@ -5520,7 +5502,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.02564184740185738</v>
+        <v>0.02586987428367138</v>
       </c>
       <c r="C101" s="1">
         <v>24</v>
@@ -5546,7 +5528,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.02564184740185738</v>
+        <v>0.02586987428367138</v>
       </c>
       <c r="C102" s="1">
         <v>24</v>
@@ -5572,7 +5554,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02136820554733276</v>
+        <v>0.02155822888016701</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -5598,7 +5580,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.01923138648271561</v>
+        <v>0.01940240524709225</v>
       </c>
       <c r="C104" s="1">
         <v>18</v>
@@ -5624,7 +5606,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.0170945655554533</v>
+        <v>0.01724658347666264</v>
       </c>
       <c r="C105" s="1">
         <v>16</v>
@@ -5650,16 +5632,16 @@
         <v>106</v>
       </c>
       <c r="B106" s="2">
-        <v>0.0170945655554533</v>
+        <v>0.01509075984358788</v>
       </c>
       <c r="C106" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5676,7 +5658,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2">
-        <v>0.01495774462819099</v>
+        <v>0.01509075984358788</v>
       </c>
       <c r="C107" s="1">
         <v>14</v>
@@ -5699,54 +5681,54 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01495774462819099</v>
+        <v>0.01293493714183569</v>
       </c>
       <c r="C108" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="E108" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H108" s="1">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01282092370092869</v>
+        <v>0.01293493714183569</v>
       </c>
       <c r="C109" s="1">
         <v>12</v>
       </c>
       <c r="D109" s="1">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H109" s="1">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5754,16 +5736,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01282092370092869</v>
+        <v>0.0107791144400835</v>
       </c>
       <c r="C110" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5780,7 +5762,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01068410277366638</v>
+        <v>0.0107791144400835</v>
       </c>
       <c r="C111" s="1">
         <v>10</v>
@@ -5806,7 +5788,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.01068410277366638</v>
+        <v>0.0107791144400835</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
@@ -5832,7 +5814,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.01068410277366638</v>
+        <v>0.0107791144400835</v>
       </c>
       <c r="C113" s="1">
         <v>10</v>
@@ -5858,16 +5840,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.01068410277366638</v>
+        <v>0.008623291738331318</v>
       </c>
       <c r="C114" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -5884,7 +5866,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>0.00854728277772665</v>
+        <v>0.008623291738331318</v>
       </c>
       <c r="C115" s="1">
         <v>8</v>
@@ -5907,16 +5889,16 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="B116" s="2">
-        <v>0.00854728277772665</v>
+        <v>0.008623291738331318</v>
       </c>
       <c r="C116" s="1">
         <v>8</v>
       </c>
       <c r="D116" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E116" s="1">
         <v>8</v>
@@ -5928,21 +5910,21 @@
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>0.00854728277772665</v>
+        <v>0.008623291738331318</v>
       </c>
       <c r="C117" s="1">
         <v>8</v>
       </c>
       <c r="D117" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1">
         <v>8</v>
@@ -5954,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5962,7 +5944,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>0.00854728277772665</v>
+        <v>0.008623291738331318</v>
       </c>
       <c r="C118" s="1">
         <v>8</v>
@@ -5988,16 +5970,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>0.00854728277772665</v>
+        <v>0.006467468570917845</v>
       </c>
       <c r="C119" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -6014,7 +5996,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>0.006410461850464344</v>
+        <v>0.006467468570917845</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -6040,7 +6022,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>0.006410461850464344</v>
+        <v>0.006467468570917845</v>
       </c>
       <c r="C121" s="1">
         <v>6</v>
@@ -6066,7 +6048,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>0.006410461850464344</v>
+        <v>0.006467468570917845</v>
       </c>
       <c r="C122" s="1">
         <v>6</v>
@@ -6092,16 +6074,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>0.006410461850464344</v>
+        <v>0.004311645869165659</v>
       </c>
       <c r="C123" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -6118,16 +6100,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>0.006410461850464344</v>
+        <v>0.004311645869165659</v>
       </c>
       <c r="C124" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -6144,16 +6126,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>0.004273641388863325</v>
+        <v>0.00215582293458283</v>
       </c>
       <c r="C125" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -6170,16 +6152,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.004273641388863325</v>
+        <v>0.00215582293458283</v>
       </c>
       <c r="C126" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -6196,7 +6178,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.002136820694431663</v>
+        <v>0.00215582293458283</v>
       </c>
       <c r="C127" s="1">
         <v>2</v>
@@ -6222,7 +6204,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.002136820694431663</v>
+        <v>0.00215582293458283</v>
       </c>
       <c r="C128" s="1">
         <v>2</v>
@@ -6248,7 +6230,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.002136820694431663</v>
+        <v>0.00215582293458283</v>
       </c>
       <c r="C129" s="1">
         <v>2</v>
@@ -6270,86 +6252,34 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="2">
-        <v>0.002136820694431663</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2</v>
-      </c>
-      <c r="D130" s="1">
-        <v>0</v>
-      </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-      <c r="F130" s="1">
-        <v>0</v>
-      </c>
-      <c r="G130" s="1">
-        <v>0</v>
-      </c>
-      <c r="H130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="1" t="s">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="2">
-        <v>0.002136820694431663</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0</v>
-      </c>
-      <c r="E131" s="1">
-        <v>2</v>
-      </c>
-      <c r="F131" s="1">
-        <v>0</v>
-      </c>
-      <c r="G131" s="1">
-        <v>0</v>
-      </c>
-      <c r="H131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
+      <c r="B130">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C132">
+      <c r="C130">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D132">
+      <c r="D130">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E132">
+      <c r="E130">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F132">
+      <c r="F130">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G132">
+      <c r="G130">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H132">
+      <c r="H130">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
+++ b/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
   <si>
     <t>rt-thread</t>
   </si>
@@ -32,9 +32,6 @@
     <t>idle.o</t>
   </si>
   <si>
-    <t>drv_usart.o</t>
-  </si>
-  <si>
     <t>usb_dc_fsdev.o</t>
   </si>
   <si>
@@ -59,24 +56,36 @@
     <t>drv_gpio.o</t>
   </si>
   <si>
+    <t>dev_soft_rtc.o</t>
+  </si>
+  <si>
     <t>cherry_vcom.o</t>
   </si>
   <si>
     <t>drv_soft_i2c.o</t>
   </si>
   <si>
+    <t>ctime.o</t>
+  </si>
+  <si>
     <t>kstdio.o</t>
   </si>
   <si>
     <t>cmd.o</t>
   </si>
   <si>
+    <t>dev_alarm.o</t>
+  </si>
+  <si>
     <t>libspace.o</t>
   </si>
   <si>
     <t>dev_pin.o</t>
   </si>
   <si>
+    <t>cpu_usage.o</t>
+  </si>
+  <si>
     <t>timer.o</t>
   </si>
   <si>
@@ -116,12 +125,15 @@
     <t>drv_common.o</t>
   </si>
   <si>
+    <t>dev_rtc.o</t>
+  </si>
+  <si>
+    <t>cpu_usage_cmd.o</t>
+  </si>
+  <si>
     <t>ipc.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_uart.o</t>
-  </si>
-  <si>
     <t>stm32l4xx_hal_rcc.o</t>
   </si>
   <si>
@@ -143,12 +155,12 @@
     <t>device.o</t>
   </si>
   <si>
+    <t>fz_wm.l</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_rcc_ex.o</t>
   </si>
   <si>
-    <t>stm32l4xx_hal_dma.o</t>
-  </si>
-  <si>
     <t>syscalls.o</t>
   </si>
   <si>
@@ -158,6 +170,9 @@
     <t>stm32l4xx_hal_gpio.o</t>
   </si>
   <si>
+    <t>ddiv.o</t>
+  </si>
+  <si>
     <t>dev_i2c_core.o</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
     <t>stm32l4xx_hal_cortex.o</t>
   </si>
   <si>
+    <t>dmul.o</t>
+  </si>
+  <si>
     <t>__printf_flags_wp.o</t>
   </si>
   <si>
@@ -188,93 +206,99 @@
     <t>initio.o</t>
   </si>
   <si>
+    <t>usbd_cdc.o</t>
+  </si>
+  <si>
+    <t>components.o</t>
+  </si>
+  <si>
+    <t>fseek.o</t>
+  </si>
+  <si>
+    <t>stdio.o</t>
+  </si>
+  <si>
+    <t>fopen.o</t>
+  </si>
+  <si>
+    <t>_printf_intcommon.o</t>
+  </si>
+  <si>
+    <t>stm32l4xx_hal_pwr_ex.o</t>
+  </si>
+  <si>
+    <t>_strtoul.o</t>
+  </si>
+  <si>
+    <t>dnaninf.o</t>
+  </si>
+  <si>
+    <t>strncmp.o</t>
+  </si>
+  <si>
+    <t>rt_memcpy_v6.o</t>
+  </si>
+  <si>
+    <t>strcmpv7m.o</t>
+  </si>
+  <si>
+    <t>_printf_hex_int.o</t>
+  </si>
+  <si>
+    <t>strtoul.o</t>
+  </si>
+  <si>
+    <t>strtol.o</t>
+  </si>
+  <si>
+    <t>rt_memcpy_w.o</t>
+  </si>
+  <si>
+    <t>cstdlib.o</t>
+  </si>
+  <si>
+    <t>d2f.o</t>
+  </si>
+  <si>
+    <t>__dczerorl2.o</t>
+  </si>
+  <si>
+    <t>memcmp.o</t>
+  </si>
+  <si>
+    <t>strncpy.o</t>
+  </si>
+  <si>
+    <t>dflt_clz.o</t>
+  </si>
+  <si>
+    <t>rt_memclr_w.o</t>
+  </si>
+  <si>
+    <t>_printf_pad.o</t>
+  </si>
+  <si>
+    <t>fclose.o</t>
+  </si>
+  <si>
+    <t>sys_stackheap_outer.o</t>
+  </si>
+  <si>
+    <t>strcpy.o</t>
+  </si>
+  <si>
+    <t>setvbuf.o</t>
+  </si>
+  <si>
+    <t>rt_memclr.o</t>
+  </si>
+  <si>
+    <t>ftell.o</t>
+  </si>
+  <si>
     <t>stm32l4xx_hal_msp.o</t>
   </si>
   <si>
-    <t>usbd_cdc.o</t>
-  </si>
-  <si>
-    <t>components.o</t>
-  </si>
-  <si>
-    <t>fseek.o</t>
-  </si>
-  <si>
-    <t>stdio.o</t>
-  </si>
-  <si>
-    <t>lludivv7m.o</t>
-  </si>
-  <si>
-    <t>fopen.o</t>
-  </si>
-  <si>
-    <t>_printf_intcommon.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_pwr_ex.o</t>
-  </si>
-  <si>
-    <t>_strtoul.o</t>
-  </si>
-  <si>
-    <t>strncmp.o</t>
-  </si>
-  <si>
-    <t>rt_memcpy_v6.o</t>
-  </si>
-  <si>
-    <t>strcmpv7m.o</t>
-  </si>
-  <si>
-    <t>_printf_hex_int.o</t>
-  </si>
-  <si>
-    <t>strtoul.o</t>
-  </si>
-  <si>
-    <t>strtol.o</t>
-  </si>
-  <si>
-    <t>rt_memcpy_w.o</t>
-  </si>
-  <si>
-    <t>cstdlib.o</t>
-  </si>
-  <si>
-    <t>__dczerorl2.o</t>
-  </si>
-  <si>
-    <t>memcmp.o</t>
-  </si>
-  <si>
-    <t>strncpy.o</t>
-  </si>
-  <si>
-    <t>rt_memclr_w.o</t>
-  </si>
-  <si>
-    <t>_printf_pad.o</t>
-  </si>
-  <si>
-    <t>fclose.o</t>
-  </si>
-  <si>
-    <t>sys_stackheap_outer.o</t>
-  </si>
-  <si>
-    <t>strcpy.o</t>
-  </si>
-  <si>
-    <t>setvbuf.o</t>
-  </si>
-  <si>
-    <t>rt_memclr.o</t>
-  </si>
-  <si>
-    <t>ftell.o</t>
-  </si>
-  <si>
     <t>strlen.o</t>
   </si>
   <si>
@@ -341,10 +365,13 @@
     <t>__printf_wp.o</t>
   </si>
   <si>
+    <t>dretinf.o</t>
+  </si>
+  <si>
     <t>__rtentry2.o</t>
   </si>
   <si>
-    <t>fz_wm.l</t>
+    <t>fretinf.o</t>
   </si>
   <si>
     <t>fpinit.o</t>
@@ -396,9 +423,6 @@
   </si>
   <si>
     <t>libinit.o</t>
-  </si>
-  <si>
-    <t>stm32l4xx_hal_uart_ex.o</t>
   </si>
   <si>
     <t>File_name</t>
@@ -518,9 +542,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$130</c:f>
+              <c:f>ram_percent!$A$3:$A$138</c:f>
               <c:strCache>
-                <c:ptCount val="128"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
                   <c:v>main.o</c:v>
                 </c:pt>
@@ -534,31 +558,31 @@
                   <c:v>idle.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>drv_usart.o</c:v>
+                  <c:v>usb_dc_fsdev.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>usb_dc_fsdev.o</c:v>
+                  <c:v>c_w.l</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>c_w.l</c:v>
+                  <c:v>kservice.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>kservice.o</c:v>
+                  <c:v>object.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>object.o</c:v>
+                  <c:v>shell.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>shell.o</c:v>
+                  <c:v>scheduler_up.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>scheduler_up.o</c:v>
+                  <c:v>stdio_streams.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>stdio_streams.o</c:v>
+                  <c:v>drv_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>drv_gpio.o</c:v>
+                  <c:v>dev_soft_rtc.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>cherry_vcom.o</c:v>
@@ -567,57 +591,72 @@
                   <c:v>drv_soft_i2c.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>ctime.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>kstdio.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>cmd.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>dev_alarm.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>dev_pin.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
+                  <c:v>cpu_usage.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>bh1750fvi.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>thread.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>sensor.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>cpu_up.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>completion_up.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>serial.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>drv_common.o</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="35">
+                  <c:v>dev_rtc.o</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>cpu_usage_cmd.o</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -625,107 +664,122 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$130</c:f>
+              <c:f>ram_percent!$B$3:$B$138</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
-                  <c:v>16.47735023498535</c:v>
+                  <c:v>16.19585609436035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.01395893096924</c:v>
+                  <c:v>13.77454948425293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.33160018920898</c:v>
+                  <c:v>11.138014793396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.131107330322266</c:v>
+                  <c:v>6.026365280151367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.802655220031738</c:v>
+                  <c:v>5.380683422088623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.474202632904053</c:v>
+                  <c:v>4.842615127563477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.926782608032227</c:v>
+                  <c:v>4.519773960113525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.598330497741699</c:v>
+                  <c:v>3.820285081863403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.886683940887451</c:v>
+                  <c:v>3.726123332977295</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.790885448455811</c:v>
+                  <c:v>3.658864736557007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.722457885742188</c:v>
+                  <c:v>3.55125093460083</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.612973928451538</c:v>
+                  <c:v>3.497444152832031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.558231830596924</c:v>
+                  <c:v>3.12079644203186</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.805528879165649</c:v>
+                  <c:v>2.7576003074646</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.463391304016113</c:v>
+                  <c:v>2.421307563781738</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.69700288772583</c:v>
+                  <c:v>1.802528977394104</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.642260789871216</c:v>
+                  <c:v>1.668011784553528</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.313808679580689</c:v>
+                  <c:v>1.614205002784729</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9853565096855164</c:v>
+                  <c:v>1.412429332733154</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3831942081451416</c:v>
+                  <c:v>1.291363954544067</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2189681082963944</c:v>
+                  <c:v>0.9685230255126953</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1642260849475861</c:v>
+                  <c:v>0.9685230255126953</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1642260849475861</c:v>
+                  <c:v>0.3766478300094605</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1231695637106895</c:v>
+                  <c:v>0.215227335691452</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1094840541481972</c:v>
+                  <c:v>0.1614204943180084</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1094840541481972</c:v>
+                  <c:v>0.1614204943180084</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1094840541481972</c:v>
+                  <c:v>0.1210653781890869</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1094840541481972</c:v>
+                  <c:v>0.107613667845726</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1094840541481972</c:v>
+                  <c:v>0.107613667845726</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.05474202707409859</c:v>
+                  <c:v>0.107613667845726</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.05474202707409859</c:v>
+                  <c:v>0.107613667845726</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.05474202707409859</c:v>
-                </c:pt>
-                <c:pt idx="127">
+                  <c:v>0.107613667845726</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.05380683392286301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.05380683392286301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.05380683392286301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.05380683392286301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.05380683392286301</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -793,9 +847,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$130</c:f>
+              <c:f>flash_percent!$A$3:$A$138</c:f>
               <c:strCache>
-                <c:ptCount val="128"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
                   <c:v>ipc.o</c:v>
                 </c:pt>
@@ -815,55 +869,55 @@
                   <c:v>usb_dc_fsdev.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>stm32l4xx_hal_uart.o</c:v>
+                  <c:v>thread.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>thread.o</c:v>
+                  <c:v>stm32l4xx_hal_rcc.o</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>drv_usart.o</c:v>
+                  <c:v>shell.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>stm32l4xx_hal_rcc.o</c:v>
+                  <c:v>dataqueue.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>shell.o</c:v>
+                  <c:v>dev_pin.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>dataqueue.o</c:v>
+                  <c:v>sensor.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>dev_pin.o</c:v>
+                  <c:v>timer.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>sensor.o</c:v>
+                  <c:v>kstdio.o</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>timer.o</c:v>
+                  <c:v>mem.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kstdio.o</c:v>
+                  <c:v>drv_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mem.o</c:v>
+                  <c:v>kservice.o</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>drv_gpio.o</c:v>
+                  <c:v>object.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>kservice.o</c:v>
+                  <c:v>msh.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>object.o</c:v>
+                  <c:v>ctime.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>msh.o</c:v>
+                  <c:v>dev_i2c_bit_ops.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>dev_i2c_bit_ops.o</c:v>
+                  <c:v>cpuport.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>cpuport.o</c:v>
+                  <c:v>dev_alarm.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>ringbuffer.o</c:v>
@@ -872,312 +926,336 @@
                   <c:v>device.o</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>fz_wm.l</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>cherry_vcom.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>bh1750fvi.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>scheduler_up.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>stm32l4xx_hal_dma.o</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>dev_rtc.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>completion_up.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>syscalls.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>dev_soft_rtc.o</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>scheduler_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
+                  <c:v>ddiv.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>dev_i2c_core.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>dev_i2c_dev.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>drv_soft_i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>flsbuf.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>kstring.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>drv_common.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>board.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
+                  <c:v>cpu_usage_cmd.o</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>stm32l4xx_hal_cortex.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>cpu_usage.o</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>stm32l4xx_hal_cortex.o</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
+                  <c:v>dmul.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>__printf_flags_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>context_rvds.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>initio.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
+                  <c:v>usbd_cdc.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>components.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>fseek.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>stdio.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>fopen.o</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>clock.o</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>_printf_intcommon.o</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>_strtoul.o</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>dnaninf.o</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>strncmp.o</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>rt_memcpy_v6.o</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>strcmpv7m.o</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>_printf_hex_int.o</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>cpu_up.o</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>strtoul.o</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>irq.o</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>strtol.o</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>rt_memcpy_w.o</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>cstdlib.o</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>d2f.o</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>__dczerorl2.o</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>memcmp.o</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>strncpy.o</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>dflt_clz.o</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>rt_memclr_w.o</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>_printf_pad.o</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>fclose.o</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>sys_stackheap_outer.o</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>strcpy.o</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>setvbuf.o</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>rt_memclr.o</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>ftell.o</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>usbd_cdc.o</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>components.o</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>fseek.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>stdio.o</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>lludivv7m.o</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>fopen.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>clock.o</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>_printf_intcommon.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>_strtoul.o</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>strncmp.o</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>rt_memcpy_v6.o</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>strcmpv7m.o</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>_printf_hex_int.o</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>cpu_up.o</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>strtoul.o</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>irq.o</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>strtol.o</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>rt_memcpy_w.o</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>cstdlib.o</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>__dczerorl2.o</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>memcmp.o</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>strncpy.o</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>rt_memclr_w.o</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>_printf_pad.o</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>fclose.o</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>sys_stackheap_outer.o</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>strcpy.o</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>setvbuf.o</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>rt_memclr.o</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>ftell.o</c:v>
-                </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="90">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="91">
                   <c:v>atomic_arm.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="92">
                   <c:v>msh_parse.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="93">
                   <c:v>defsig_rtred_inner.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="94">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="95">
                   <c:v>defsig_general.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="96">
                   <c:v>_printf_char_common.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="97">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="98">
                   <c:v>_printf_char_file.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="99">
                   <c:v>completion_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="100">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="101">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="102">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="103">
                   <c:v>fputc.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="104">
                   <c:v>atoi.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="105">
                   <c:v>strcat.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="106">
                   <c:v>noretval__2printf.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="107">
                   <c:v>syscall_mem.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="108">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="109">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="110">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="111">
                   <c:v>defsig_rtred_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="112">
                   <c:v>__printf_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="113">
+                  <c:v>dretinf.o</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>stdio_streams.o</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="115">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="107">
-                  <c:v>fz_wm.l</c:v>
-                </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="116">
+                  <c:v>fretinf.o</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="118">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="119">
                   <c:v>defsig_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="120">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="121">
                   <c:v>rt_errno_addr_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="122">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="123">
                   <c:v>ferror.o</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="124">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="125">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="126">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="127">
                   <c:v>_printf_x.o</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="128">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="129">
                   <c:v>hguard.o</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="130">
                   <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="131">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="132">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="133">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="134">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="126">
-                  <c:v>stm32l4xx_hal_uart_ex.o</c:v>
-                </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="135">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1185,392 +1263,416 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$130</c:f>
+              <c:f>flash_percent!$B$3:$B$138</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
-                  <c:v>6.330574035644531</c:v>
+                  <c:v>6.755343914031982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.255120277404785</c:v>
+                  <c:v>6.189998626708984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.582503318786621</c:v>
+                  <c:v>5.524384498596191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.550166130065918</c:v>
+                  <c:v>5.238511562347412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.569266796112061</c:v>
+                  <c:v>4.5216965675354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.557409763336182</c:v>
+                  <c:v>4.509963035583496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.716638565063477</c:v>
+                  <c:v>3.282203435897827</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.288707733154297</c:v>
+                  <c:v>2.880061388015747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.076359272003174</c:v>
+                  <c:v>2.738191843032837</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.000905513763428</c:v>
+                  <c:v>2.491786479949951</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.766998767852783</c:v>
+                  <c:v>2.45871901512146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.518001079559326</c:v>
+                  <c:v>2.379784107208252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.484585762023926</c:v>
+                  <c:v>2.290182113647461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.404820442199707</c:v>
+                  <c:v>2.227247476577759</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.314275741577148</c:v>
+                  <c:v>2.123778581619263</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.250679016113281</c:v>
+                  <c:v>2.075777530670166</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.146121740341187</c:v>
+                  <c:v>2.009642839431763</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.097615718841553</c:v>
+                  <c:v>1.874173283576965</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.030785083770752</c:v>
+                  <c:v>1.808038592338562</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.893890380859375</c:v>
+                  <c:v>1.763237595558167</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.827059864997864</c:v>
+                  <c:v>1.696036219596863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.713879227638245</c:v>
+                  <c:v>1.62990140914917</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.647048711776733</c:v>
+                  <c:v>1.582967162132263</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.585607767105103</c:v>
+                  <c:v>1.569100141525269</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.582373976707459</c:v>
+                  <c:v>1.565900087356567</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.49721896648407</c:v>
+                  <c:v>1.491231799125671</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.390505790710449</c:v>
+                  <c:v>1.434697270393372</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.332298517227173</c:v>
+                  <c:v>1.376029372215271</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.256844758987427</c:v>
+                  <c:v>1.318428158760071</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9162247180938721</c:v>
+                  <c:v>1.243759870529175</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9097572565078735</c:v>
+                  <c:v>1.157358050346375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9043676853179932</c:v>
+                  <c:v>0.9002858996391296</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.8202906250953674</c:v>
+                  <c:v>0.8949524164199829</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.7911869883537293</c:v>
+                  <c:v>0.8554849028587341</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6521364450454712</c:v>
+                  <c:v>0.8117506504058838</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6057862043380737</c:v>
+                  <c:v>0.7829500436782837</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5152416825294495</c:v>
+                  <c:v>0.7338823080062866</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5066183805465698</c:v>
+                  <c:v>0.6453471183776856</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4915276169776917</c:v>
+                  <c:v>0.5994794368743897</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4635019302368164</c:v>
+                  <c:v>0.5098775625228882</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.458112359046936</c:v>
+                  <c:v>0.5013440251350403</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4074505269527435</c:v>
+                  <c:v>0.48641037940979</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3945155739784241</c:v>
+                  <c:v>0.4586764574050903</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3923597633838654</c:v>
+                  <c:v>0.453343003988266</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3902039527893066</c:v>
+                  <c:v>0.4032086133956909</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3611003458499908</c:v>
+                  <c:v>0.3904083371162415</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3535549640655518</c:v>
+                  <c:v>0.3882749378681183</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3449316620826721</c:v>
+                  <c:v>0.3861415684223175</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3406200110912323</c:v>
+                  <c:v>0.3712079226970673</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3363083600997925</c:v>
+                  <c:v>0.3669411540031433</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3319967091083527</c:v>
+                  <c:v>0.3626744151115418</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3190617859363556</c:v>
+                  <c:v>0.3573409616947174</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2737894952297211</c:v>
+                  <c:v>0.3498741388320923</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2673220336437225</c:v>
+                  <c:v>0.3413406014442444</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2586987316608429</c:v>
+                  <c:v>0.3370738625526428</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2565429210662842</c:v>
+                  <c:v>0.3328070938587189</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2543871104717255</c:v>
+                  <c:v>0.3157400786876679</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2317509651184082</c:v>
+                  <c:v>0.2709391117095947</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1918682307004929</c:v>
+                  <c:v>0.26453897356987</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1897124201059341</c:v>
+                  <c:v>0.2560054659843445</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1767774820327759</c:v>
+                  <c:v>0.2517386972904205</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1616867184638977</c:v>
+                  <c:v>0.2293382287025452</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1487517803907394</c:v>
+                  <c:v>0.1898707151412964</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1379726678133011</c:v>
+                  <c:v>0.1877373456954956</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1379726678133011</c:v>
+                  <c:v>0.1749370694160461</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1315051913261414</c:v>
+                  <c:v>0.1664035469293594</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1293493658304215</c:v>
+                  <c:v>0.1600034087896347</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1250377297401428</c:v>
+                  <c:v>0.1472031474113464</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.120726078748703</c:v>
+                  <c:v>0.1365362405776978</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1077911406755447</c:v>
+                  <c:v>0.1365362405776978</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1077911406755447</c:v>
+                  <c:v>0.130136102437973</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.09701202809810638</c:v>
+                  <c:v>0.1280027329921722</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.09485621005296707</c:v>
+                  <c:v>0.1237359717488289</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09270038455724716</c:v>
+                  <c:v>0.1194692179560661</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.08407709002494812</c:v>
+                  <c:v>0.1066689416766167</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.08407709002494812</c:v>
+                  <c:v>0.1066689416766167</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.08192127197980881</c:v>
+                  <c:v>0.1045355647802353</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0797654464840889</c:v>
+                  <c:v>0.09600204974412918</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.07760962098836899</c:v>
+                  <c:v>0.0938686728477478</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.07545380294322968</c:v>
+                  <c:v>0.09173528850078583</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07329797744750977</c:v>
+                  <c:v>0.08960191160440445</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07114215195178986</c:v>
+                  <c:v>0.08320177346467972</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.06683050841093063</c:v>
+                  <c:v>0.08320177346467972</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.06683050841093063</c:v>
+                  <c:v>0.08106839656829834</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.06467468291521072</c:v>
+                  <c:v>0.07893501967191696</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.05605139583349228</c:v>
+                  <c:v>0.07680163532495499</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.05605139583349228</c:v>
+                  <c:v>0.07466825842857361</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.05389557033777237</c:v>
+                  <c:v>0.07253488153219223</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05173974856734276</c:v>
+                  <c:v>0.07040150463581085</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.04203854501247406</c:v>
+                  <c:v>0.06826812028884888</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03880481049418449</c:v>
+                  <c:v>0.0661347433924675</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03664898872375488</c:v>
+                  <c:v>0.0661347433924675</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.03018151968717575</c:v>
+                  <c:v>0.06400136649608612</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03018151968717575</c:v>
+                  <c:v>0.05546785145998001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03018151968717575</c:v>
+                  <c:v>0.05546785145998001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02802569791674614</c:v>
+                  <c:v>0.05333447083830833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02802569791674614</c:v>
+                  <c:v>0.05120109394192696</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02586987428367138</c:v>
+                  <c:v>0.04160088673233986</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02586987428367138</c:v>
+                  <c:v>0.03840081766247749</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02586987428367138</c:v>
+                  <c:v>0.03626744076609612</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02155822888016701</c:v>
+                  <c:v>0.02986730448901653</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.01940240524709225</c:v>
+                  <c:v>0.02986730448901653</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.01724658347666264</c:v>
+                  <c:v>0.02986730448901653</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.01509075984358788</c:v>
+                  <c:v>0.02773392572999001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.01509075984358788</c:v>
+                  <c:v>0.02773392572999001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01293493714183569</c:v>
+                  <c:v>0.02560054697096348</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01293493714183569</c:v>
+                  <c:v>0.02560054697096348</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.0107791144400835</c:v>
+                  <c:v>0.02560054697096348</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.0107791144400835</c:v>
+                  <c:v>0.02133378759026527</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.0107791144400835</c:v>
+                  <c:v>0.01920040883123875</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.0107791144400835</c:v>
+                  <c:v>0.01706703007221222</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.008623291738331318</c:v>
+                  <c:v>0.01493365224450827</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.008623291738331318</c:v>
+                  <c:v>0.01493365224450827</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.008623291738331318</c:v>
+                  <c:v>0.01280027348548174</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.008623291738331318</c:v>
+                  <c:v>0.01280027348548174</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.008623291738331318</c:v>
+                  <c:v>0.01280027348548174</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.006467468570917845</c:v>
+                  <c:v>0.01066689379513264</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.006467468570917845</c:v>
+                  <c:v>0.01066689379513264</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.006467468570917845</c:v>
+                  <c:v>0.01066689379513264</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.006467468570917845</c:v>
+                  <c:v>0.01066689379513264</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.004311645869165659</c:v>
+                  <c:v>0.00853351503610611</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.004311645869165659</c:v>
+                  <c:v>0.00853351503610611</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.00215582293458283</c:v>
+                  <c:v>0.00853351503610611</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.00215582293458283</c:v>
+                  <c:v>0.00853351503610611</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.00215582293458283</c:v>
+                  <c:v>0.00853351503610611</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.00215582293458283</c:v>
+                  <c:v>0.00640013674274087</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.00215582293458283</c:v>
+                  <c:v>0.00640013674274087</c:v>
                 </c:pt>
                 <c:pt idx="127">
+                  <c:v>0.00640013674274087</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.00640013674274087</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.004266757518053055</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.004266757518053055</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.002133378759026527</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.002133378759026527</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.002133378759026527</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.002133378759026527</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1675,8 +1777,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H130" totalsRowCount="1">
-  <autoFilter ref="A2:H129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H138" totalsRowCount="1">
+  <autoFilter ref="A2:H137"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1692,8 +1794,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H130" totalsRowCount="1">
-  <autoFilter ref="A2:H129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H138" totalsRowCount="1">
+  <autoFilter ref="A2:H137"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1993,7 +2095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2009,28 +2111,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2038,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>16.47735023498535</v>
+        <v>16.19585609436035</v>
       </c>
       <c r="C3" s="1">
         <v>1204</v>
       </c>
       <c r="D3" s="1">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="E3" s="1">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2064,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>14.01395893096924</v>
+        <v>13.77454948425293</v>
       </c>
       <c r="C4" s="1">
         <v>1024</v>
@@ -2090,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.33160018920898</v>
+        <v>11.138014793396</v>
       </c>
       <c r="C5" s="1">
         <v>828</v>
@@ -2116,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>6.131107330322266</v>
+        <v>6.026365280151367</v>
       </c>
       <c r="C6" s="1">
         <v>448</v>
@@ -2142,25 +2244,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>5.802655220031738</v>
+        <v>5.380683422088623</v>
       </c>
       <c r="C7" s="1">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D7" s="1">
-        <v>2854</v>
+        <v>4228</v>
       </c>
       <c r="E7" s="1">
-        <v>2556</v>
+        <v>4228</v>
       </c>
       <c r="F7" s="1">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2168,25 +2270,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>5.474202632904053</v>
+        <v>4.842615127563477</v>
       </c>
       <c r="C8" s="1">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D8" s="1">
-        <v>4228</v>
+        <v>4911</v>
       </c>
       <c r="E8" s="1">
-        <v>4228</v>
+        <v>4570</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1">
-        <v>400</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2194,25 +2296,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>4.926782608032227</v>
+        <v>4.519773960113525</v>
       </c>
       <c r="C9" s="1">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D9" s="1">
-        <v>5149</v>
+        <v>1884</v>
       </c>
       <c r="E9" s="1">
-        <v>4808</v>
+        <v>1550</v>
       </c>
       <c r="F9" s="1">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="G9" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1">
-        <v>348</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2220,25 +2322,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>4.598330497741699</v>
+        <v>3.820285081863403</v>
       </c>
       <c r="C10" s="1">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="D10" s="1">
-        <v>1884</v>
+        <v>1757</v>
       </c>
       <c r="E10" s="1">
-        <v>1550</v>
+        <v>1326</v>
       </c>
       <c r="F10" s="1">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="G10" s="1">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="H10" s="1">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2246,25 +2348,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>3.886683940887451</v>
+        <v>3.726123332977295</v>
       </c>
       <c r="C11" s="1">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D11" s="1">
-        <v>1757</v>
+        <v>2567</v>
       </c>
       <c r="E11" s="1">
-        <v>1326</v>
+        <v>2408</v>
       </c>
       <c r="F11" s="1">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G11" s="1">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2272,25 +2374,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>3.790885448455811</v>
+        <v>3.658864736557007</v>
       </c>
       <c r="C12" s="1">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D12" s="1">
-        <v>2567</v>
+        <v>1166</v>
       </c>
       <c r="E12" s="1">
-        <v>2408</v>
+        <v>1078</v>
       </c>
       <c r="F12" s="1">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2298,25 +2400,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>3.722457885742188</v>
+        <v>3.55125093460083</v>
       </c>
       <c r="C13" s="1">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D13" s="1">
-        <v>1166</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2324,25 +2426,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>3.612973928451538</v>
+        <v>3.497444152832031</v>
       </c>
       <c r="C14" s="1">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D14" s="1">
-        <v>12</v>
+        <v>1946</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1594</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G14" s="1">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="H14" s="1">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2350,25 +2452,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>3.558231830596924</v>
+        <v>3.12079644203186</v>
       </c>
       <c r="C15" s="1">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D15" s="1">
-        <v>1946</v>
+        <v>802</v>
       </c>
       <c r="E15" s="1">
-        <v>1594</v>
+        <v>694</v>
       </c>
       <c r="F15" s="1">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2376,16 +2478,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>2.805528879165649</v>
+        <v>2.7576003074646</v>
       </c>
       <c r="C16" s="1">
         <v>205</v>
       </c>
       <c r="D16" s="1">
-        <v>1389</v>
+        <v>1345</v>
       </c>
       <c r="E16" s="1">
-        <v>1032</v>
+        <v>988</v>
       </c>
       <c r="F16" s="1">
         <v>208</v>
@@ -2402,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>2.463391304016113</v>
+        <v>2.421307563781738</v>
       </c>
       <c r="C17" s="1">
         <v>180</v>
@@ -2428,25 +2530,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>1.69700288772583</v>
+        <v>1.802528977394104</v>
       </c>
       <c r="C18" s="1">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D18" s="1">
-        <v>2088</v>
+        <v>1653</v>
       </c>
       <c r="E18" s="1">
-        <v>1810</v>
+        <v>1454</v>
       </c>
       <c r="F18" s="1">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2454,22 +2556,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>1.642260789871216</v>
+        <v>1.668011784553528</v>
       </c>
       <c r="C19" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D19" s="1">
-        <v>5179</v>
+        <v>2088</v>
       </c>
       <c r="E19" s="1">
-        <v>4070</v>
+        <v>1810</v>
       </c>
       <c r="F19" s="1">
-        <v>989</v>
+        <v>154</v>
       </c>
       <c r="G19" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2480,25 +2582,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>1.313808679580689</v>
+        <v>1.614205002784729</v>
       </c>
       <c r="C20" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1">
-        <v>8</v>
+        <v>5179</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>4070</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H20" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2506,25 +2608,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.9853565096855164</v>
+        <v>1.412429332733154</v>
       </c>
       <c r="C21" s="1">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1">
-        <v>2305</v>
+        <v>1484</v>
       </c>
       <c r="E21" s="1">
-        <v>1984</v>
+        <v>1312</v>
       </c>
       <c r="F21" s="1">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2532,25 +2634,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.3831942081451416</v>
+        <v>1.291363954544067</v>
       </c>
       <c r="C22" s="1">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1">
-        <v>2147</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1">
-        <v>1996</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2558,25 +2660,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.2189681082963944</v>
+        <v>0.9685230255126953</v>
       </c>
       <c r="C23" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>1528</v>
+        <v>2305</v>
       </c>
       <c r="E23" s="1">
-        <v>1512</v>
+        <v>1984</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="G23" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2584,25 +2686,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.1642260849475861</v>
+        <v>0.9685230255126953</v>
       </c>
       <c r="C24" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1">
-        <v>116</v>
+        <v>348</v>
       </c>
       <c r="E24" s="1">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2610,22 +2712,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.1642260849475861</v>
+        <v>0.3766478300094605</v>
       </c>
       <c r="C25" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
-        <v>1290</v>
+        <v>2147</v>
       </c>
       <c r="E25" s="1">
-        <v>1274</v>
+        <v>1996</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="G25" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2636,22 +2738,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.1231695637106895</v>
+        <v>0.215227335691452</v>
       </c>
       <c r="C26" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1">
-        <v>39</v>
+        <v>1528</v>
       </c>
       <c r="E26" s="1">
-        <v>30</v>
+        <v>1512</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2662,22 +2764,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.1094840541481972</v>
+        <v>0.1614204943180084</v>
       </c>
       <c r="C27" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1">
-        <v>3051</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1">
-        <v>2670</v>
+        <v>104</v>
       </c>
       <c r="F27" s="1">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2688,22 +2790,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.1094840541481972</v>
+        <v>0.1614204943180084</v>
       </c>
       <c r="C28" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1">
-        <v>2231</v>
+        <v>1290</v>
       </c>
       <c r="E28" s="1">
-        <v>1892</v>
+        <v>1274</v>
       </c>
       <c r="F28" s="1">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2714,22 +2816,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.1094840541481972</v>
+        <v>0.1210653781890869</v>
       </c>
       <c r="C29" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2740,19 +2842,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.1094840541481972</v>
+        <v>0.107613667845726</v>
       </c>
       <c r="C30" s="1">
         <v>8</v>
       </c>
       <c r="D30" s="1">
-        <v>844</v>
+        <v>3077</v>
       </c>
       <c r="E30" s="1">
-        <v>762</v>
+        <v>2696</v>
       </c>
       <c r="F30" s="1">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="G30" s="1">
         <v>8</v>
@@ -2766,19 +2868,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>0.1094840541481972</v>
+        <v>0.107613667845726</v>
       </c>
       <c r="C31" s="1">
         <v>8</v>
       </c>
       <c r="D31" s="1">
-        <v>215</v>
+        <v>2231</v>
       </c>
       <c r="E31" s="1">
-        <v>168</v>
+        <v>1892</v>
       </c>
       <c r="F31" s="1">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="G31" s="1">
         <v>8</v>
@@ -2792,22 +2894,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>0.05474202707409859</v>
+        <v>0.107613667845726</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1">
-        <v>320</v>
+        <v>122</v>
       </c>
       <c r="E32" s="1">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="F32" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2818,22 +2920,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>0.05474202707409859</v>
+        <v>0.107613667845726</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1">
-        <v>4239</v>
+        <v>844</v>
       </c>
       <c r="E33" s="1">
-        <v>3838</v>
+        <v>762</v>
       </c>
       <c r="F33" s="1">
-        <v>397</v>
+        <v>74</v>
       </c>
       <c r="G33" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2844,56 +2946,186 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.05474202707409859</v>
+        <v>0.107613667845726</v>
       </c>
       <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>215</v>
+      </c>
+      <c r="E34" s="1">
+        <v>168</v>
+      </c>
+      <c r="F34" s="1">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.05380683392286301</v>
+      </c>
+      <c r="C35" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
+        <v>320</v>
+      </c>
+      <c r="E35" s="1">
+        <v>244</v>
+      </c>
+      <c r="F35" s="1">
+        <v>72</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.05380683392286301</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4239</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3838</v>
+      </c>
+      <c r="F36" s="1">
+        <v>397</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.05380683392286301</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
         <v>425</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E37" s="1">
         <v>384</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F37" s="1">
         <v>37</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G37" s="1">
         <v>4</v>
       </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.05380683392286301</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1085</v>
+      </c>
+      <c r="E38" s="1">
+        <v>988</v>
+      </c>
+      <c r="F38" s="1">
+        <v>93</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.05380683392286301</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>364</v>
+      </c>
+      <c r="E39" s="1">
+        <v>328</v>
+      </c>
+      <c r="F39" s="1">
+        <v>32</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C130">
+      <c r="C138">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D130">
+      <c r="D138">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E130">
+      <c r="E138">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F130">
+      <c r="F138">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G130">
+      <c r="G138">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H130">
+      <c r="H138">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2909,7 +3141,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2925,45 +3157,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
-        <v>6.330574035644531</v>
+        <v>6.755343914031982</v>
       </c>
       <c r="C3" s="1">
-        <v>5873</v>
+        <v>6333</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>5044</v>
+        <v>5504</v>
       </c>
       <c r="F3" s="1">
         <v>829</v>
@@ -2980,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>6.255120277404785</v>
+        <v>6.189998626708984</v>
       </c>
       <c r="C4" s="1">
         <v>5803</v>
@@ -3003,10 +3235,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>5.582503318786621</v>
+        <v>5.524384498596191</v>
       </c>
       <c r="C5" s="1">
         <v>5179</v>
@@ -3029,19 +3261,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>5.550166130065918</v>
+        <v>5.238511562347412</v>
       </c>
       <c r="C6" s="1">
-        <v>5149</v>
+        <v>4911</v>
       </c>
       <c r="D6" s="1">
         <v>360</v>
       </c>
       <c r="E6" s="1">
-        <v>4808</v>
+        <v>4570</v>
       </c>
       <c r="F6" s="1">
         <v>329</v>
@@ -3055,10 +3287,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2">
-        <v>4.569266796112061</v>
+        <v>4.5216965675354</v>
       </c>
       <c r="C7" s="1">
         <v>4239</v>
@@ -3081,10 +3313,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>4.557409763336182</v>
+        <v>4.509963035583496</v>
       </c>
       <c r="C8" s="1">
         <v>4228</v>
@@ -3107,25 +3339,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
-        <v>3.716638565063477</v>
+        <v>3.282203435897827</v>
       </c>
       <c r="C9" s="1">
-        <v>3448</v>
+        <v>3077</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>3448</v>
+        <v>2696</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -3133,25 +3365,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>3.288707733154297</v>
+        <v>2.880061388015747</v>
       </c>
       <c r="C10" s="1">
-        <v>3051</v>
+        <v>2700</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>2670</v>
+        <v>2700</v>
       </c>
       <c r="F10" s="1">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -3159,48 +3391,48 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>3.076359272003174</v>
+        <v>2.738191843032837</v>
       </c>
       <c r="C11" s="1">
-        <v>2854</v>
+        <v>2567</v>
       </c>
       <c r="D11" s="1">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="E11" s="1">
-        <v>2556</v>
+        <v>2408</v>
       </c>
       <c r="F11" s="1">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="G11" s="1">
         <v>20</v>
       </c>
       <c r="H11" s="1">
-        <v>404</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
-        <v>3.000905513763428</v>
+        <v>2.491786479949951</v>
       </c>
       <c r="C12" s="1">
-        <v>2784</v>
+        <v>2336</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>2784</v>
+        <v>2202</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -3211,51 +3443,51 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>2.766998767852783</v>
+        <v>2.45871901512146</v>
       </c>
       <c r="C13" s="1">
-        <v>2567</v>
+        <v>2305</v>
       </c>
       <c r="D13" s="1">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1">
-        <v>2408</v>
+        <v>1984</v>
       </c>
       <c r="F13" s="1">
-        <v>139</v>
+        <v>321</v>
       </c>
       <c r="G13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>257</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>2.518001079559326</v>
+        <v>2.379784107208252</v>
       </c>
       <c r="C14" s="1">
-        <v>2336</v>
+        <v>2231</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>2202</v>
+        <v>1892</v>
       </c>
       <c r="F14" s="1">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -3263,51 +3495,51 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>2.484585762023926</v>
+        <v>2.290182113647461</v>
       </c>
       <c r="C15" s="1">
-        <v>2305</v>
+        <v>2147</v>
       </c>
       <c r="D15" s="1">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1">
-        <v>1984</v>
+        <v>1996</v>
       </c>
       <c r="F15" s="1">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>2.404820442199707</v>
+        <v>2.227247476577759</v>
       </c>
       <c r="C16" s="1">
-        <v>2231</v>
+        <v>2088</v>
       </c>
       <c r="D16" s="1">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="E16" s="1">
-        <v>1892</v>
+        <v>1810</v>
       </c>
       <c r="F16" s="1">
-        <v>331</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -3315,25 +3547,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2">
-        <v>2.314275741577148</v>
+        <v>2.123778581619263</v>
       </c>
       <c r="C17" s="1">
-        <v>2147</v>
+        <v>1991</v>
       </c>
       <c r="D17" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1996</v>
+        <v>1498</v>
       </c>
       <c r="F17" s="1">
-        <v>123</v>
+        <v>493</v>
       </c>
       <c r="G17" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3341,25 +3573,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
-        <v>2.250679016113281</v>
+        <v>2.075777530670166</v>
       </c>
       <c r="C18" s="1">
-        <v>2088</v>
+        <v>1946</v>
       </c>
       <c r="D18" s="1">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="E18" s="1">
-        <v>1810</v>
+        <v>1594</v>
       </c>
       <c r="F18" s="1">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -3367,51 +3599,51 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
-        <v>2.146121740341187</v>
+        <v>2.009642839431763</v>
       </c>
       <c r="C19" s="1">
-        <v>1991</v>
+        <v>1884</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="E19" s="1">
-        <v>1498</v>
+        <v>1550</v>
       </c>
       <c r="F19" s="1">
-        <v>493</v>
+        <v>306</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>2.097615718841553</v>
+        <v>1.874173283576965</v>
       </c>
       <c r="C20" s="1">
-        <v>1946</v>
+        <v>1757</v>
       </c>
       <c r="D20" s="1">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="E20" s="1">
-        <v>1594</v>
+        <v>1326</v>
       </c>
       <c r="F20" s="1">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="G20" s="1">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -3419,74 +3651,74 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
-        <v>2.030785083770752</v>
+        <v>1.808038592338562</v>
       </c>
       <c r="C21" s="1">
-        <v>1884</v>
+        <v>1695</v>
       </c>
       <c r="D21" s="1">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1550</v>
+        <v>1536</v>
       </c>
       <c r="F21" s="1">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="G21" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
-        <v>1.893890380859375</v>
+        <v>1.763237595558167</v>
       </c>
       <c r="C22" s="1">
-        <v>1757</v>
+        <v>1653</v>
       </c>
       <c r="D22" s="1">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="E22" s="1">
-        <v>1326</v>
+        <v>1454</v>
       </c>
       <c r="F22" s="1">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G22" s="1">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
-        <v>1.827059864997864</v>
+        <v>1.696036219596863</v>
       </c>
       <c r="C23" s="1">
-        <v>1695</v>
+        <v>1590</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1536</v>
+        <v>1578</v>
       </c>
       <c r="F23" s="1">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -3497,25 +3729,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1.713879227638245</v>
+        <v>1.62990140914917</v>
       </c>
       <c r="C24" s="1">
-        <v>1590</v>
+        <v>1528</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1">
-        <v>1578</v>
+        <v>1512</v>
       </c>
       <c r="F24" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -3523,36 +3755,36 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
-        <v>1.647048711776733</v>
+        <v>1.582967162132263</v>
       </c>
       <c r="C25" s="1">
-        <v>1528</v>
+        <v>1484</v>
       </c>
       <c r="D25" s="1">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E25" s="1">
-        <v>1512</v>
+        <v>1312</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="G25" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2">
-        <v>1.585607767105103</v>
+        <v>1.569100141525269</v>
       </c>
       <c r="C26" s="1">
         <v>1471</v>
@@ -3575,10 +3807,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2">
-        <v>1.582373976707459</v>
+        <v>1.565900087356567</v>
       </c>
       <c r="C27" s="1">
         <v>1468</v>
@@ -3601,77 +3833,77 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2">
-        <v>1.49721896648407</v>
+        <v>1.491231799125671</v>
       </c>
       <c r="C28" s="1">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="D28" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>1032</v>
+        <v>1398</v>
       </c>
       <c r="F28" s="1">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2">
-        <v>1.390505790710449</v>
+        <v>1.434697270393372</v>
       </c>
       <c r="C29" s="1">
-        <v>1290</v>
+        <v>1345</v>
       </c>
       <c r="D29" s="1">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="E29" s="1">
-        <v>1274</v>
+        <v>988</v>
       </c>
       <c r="F29" s="1">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="G29" s="1">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
-        <v>1.332298517227173</v>
+        <v>1.376029372215271</v>
       </c>
       <c r="C30" s="1">
-        <v>1236</v>
+        <v>1290</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1">
-        <v>1236</v>
+        <v>1274</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -3679,77 +3911,77 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>1.256844758987427</v>
+        <v>1.318428158760071</v>
       </c>
       <c r="C31" s="1">
-        <v>1166</v>
+        <v>1236</v>
       </c>
       <c r="D31" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>1078</v>
+        <v>1236</v>
       </c>
       <c r="F31" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2">
-        <v>0.9162247180938721</v>
+        <v>1.243759870529175</v>
       </c>
       <c r="C32" s="1">
-        <v>850</v>
+        <v>1166</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="E32" s="1">
-        <v>850</v>
+        <v>1078</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.9097572565078735</v>
+        <v>1.157358050346375</v>
       </c>
       <c r="C33" s="1">
-        <v>844</v>
+        <v>1085</v>
       </c>
       <c r="D33" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>762</v>
+        <v>988</v>
       </c>
       <c r="F33" s="1">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G33" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -3757,25 +3989,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
-        <v>0.9043676853179932</v>
+        <v>0.9002858996391296</v>
       </c>
       <c r="C34" s="1">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="F34" s="1">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3783,22 +4015,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
-        <v>0.8202906250953674</v>
+        <v>0.8949524164199829</v>
       </c>
       <c r="C35" s="1">
-        <v>761</v>
+        <v>839</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="F35" s="1">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -3809,48 +4041,48 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>0.7911869883537293</v>
+        <v>0.8554849028587341</v>
       </c>
       <c r="C36" s="1">
-        <v>734</v>
+        <v>802</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E36" s="1">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
-        <v>0.6521364450454712</v>
+        <v>0.8117506504058838</v>
       </c>
       <c r="C37" s="1">
-        <v>605</v>
+        <v>761</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>586</v>
+        <v>704</v>
       </c>
       <c r="F37" s="1">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -3861,22 +4093,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2">
-        <v>0.6057862043380737</v>
+        <v>0.7829500436782837</v>
       </c>
       <c r="C38" s="1">
-        <v>562</v>
+        <v>734</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>468</v>
+        <v>734</v>
       </c>
       <c r="F38" s="1">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -3887,48 +4119,48 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5152416825294495</v>
+        <v>0.7338823080062866</v>
       </c>
       <c r="C39" s="1">
-        <v>478</v>
+        <v>688</v>
       </c>
       <c r="D39" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>406</v>
+        <v>688</v>
       </c>
       <c r="F39" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5066183805465698</v>
+        <v>0.6453471183776856</v>
       </c>
       <c r="C40" s="1">
-        <v>470</v>
+        <v>605</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>470</v>
+        <v>586</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3939,77 +4171,77 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4915276169776917</v>
+        <v>0.5994794368743897</v>
       </c>
       <c r="C41" s="1">
-        <v>456</v>
+        <v>562</v>
       </c>
       <c r="D41" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="F41" s="1">
-        <v>396</v>
+        <v>94</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4635019302368164</v>
+        <v>0.5098775625228882</v>
       </c>
       <c r="C42" s="1">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
-        <v>0.458112359046936</v>
+        <v>0.5013440251350403</v>
       </c>
       <c r="C43" s="1">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="F43" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -4017,97 +4249,97 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4074505269527435</v>
+        <v>0.48641037940979</v>
       </c>
       <c r="C44" s="1">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E44" s="1">
-        <v>378</v>
+        <v>60</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3945155739784241</v>
+        <v>0.4586764574050903</v>
       </c>
       <c r="C45" s="1">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="D45" s="1">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3923597633838654</v>
+        <v>0.453343003988266</v>
       </c>
       <c r="C46" s="1">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="D46" s="1">
-        <v>1204</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G46" s="1">
         <v>4</v>
       </c>
       <c r="H46" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3902039527893066</v>
+        <v>0.4032086133956909</v>
       </c>
       <c r="C47" s="1">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -4121,51 +4353,51 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>0.3611003458499908</v>
+        <v>0.3904083371162415</v>
       </c>
       <c r="C48" s="1">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="E48" s="1">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="F48" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3535549640655518</v>
+        <v>0.3882749378681183</v>
       </c>
       <c r="C49" s="1">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
         <v>328</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -4173,25 +4405,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3449316620826721</v>
+        <v>0.3861415684223175</v>
       </c>
       <c r="C50" s="1">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="D50" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="F50" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -4199,71 +4431,71 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3406200110912323</v>
+        <v>0.3712079226970673</v>
       </c>
       <c r="C51" s="1">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="F51" s="1">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3363083600997925</v>
+        <v>0.3669411540031433</v>
       </c>
       <c r="C52" s="1">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="E52" s="1">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3319967091083527</v>
+        <v>0.3626744151115418</v>
       </c>
       <c r="C53" s="1">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -4277,22 +4509,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3190617859363556</v>
+        <v>0.3573409616947174</v>
       </c>
       <c r="C54" s="1">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -4303,22 +4535,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2737894952297211</v>
+        <v>0.3498741388320923</v>
       </c>
       <c r="C55" s="1">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="F55" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -4329,25 +4561,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2673220336437225</v>
+        <v>0.3413406014442444</v>
       </c>
       <c r="C56" s="1">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -4358,19 +4590,19 @@
         <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2586987316608429</v>
+        <v>0.3370738625526428</v>
       </c>
       <c r="C57" s="1">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -4384,16 +4616,16 @@
         <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2565429210662842</v>
+        <v>0.3328070938587189</v>
       </c>
       <c r="C58" s="1">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4410,16 +4642,16 @@
         <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2543871104717255</v>
+        <v>0.3157400786876679</v>
       </c>
       <c r="C59" s="1">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -4433,25 +4665,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2317509651184082</v>
+        <v>0.2709391117095947</v>
       </c>
       <c r="C60" s="1">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D60" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="F60" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G60" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -4459,19 +4691,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1918682307004929</v>
+        <v>0.26453897356987</v>
       </c>
       <c r="C61" s="1">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4485,19 +4717,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1897124201059341</v>
+        <v>0.2560054659843445</v>
       </c>
       <c r="C62" s="1">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4511,19 +4743,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1767774820327759</v>
+        <v>0.2517386972904205</v>
       </c>
       <c r="C63" s="1">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4537,25 +4769,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1616867184638977</v>
+        <v>0.2293382287025452</v>
       </c>
       <c r="C64" s="1">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E64" s="1">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -4566,16 +4798,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1487517803907394</v>
+        <v>0.1898707151412964</v>
       </c>
       <c r="C65" s="1">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4592,16 +4824,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1379726678133011</v>
+        <v>0.1877373456954956</v>
       </c>
       <c r="C66" s="1">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4618,19 +4850,19 @@
         <v>70</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1379726678133011</v>
+        <v>0.1749370694160461</v>
       </c>
       <c r="C67" s="1">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="F67" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -4641,25 +4873,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1315051913261414</v>
+        <v>0.1664035469293594</v>
       </c>
       <c r="C68" s="1">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -4667,19 +4899,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1293493658304215</v>
+        <v>0.1600034087896347</v>
       </c>
       <c r="C69" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4693,25 +4925,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1250377297401428</v>
+        <v>0.1472031474113464</v>
       </c>
       <c r="C70" s="1">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D70" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -4719,19 +4951,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2">
-        <v>0.120726078748703</v>
+        <v>0.1365362405776978</v>
       </c>
       <c r="C71" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4745,22 +4977,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1077911406755447</v>
+        <v>0.1365362405776978</v>
       </c>
       <c r="C72" s="1">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -4771,25 +5003,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1077911406755447</v>
+        <v>0.130136102437973</v>
       </c>
       <c r="C73" s="1">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E73" s="1">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -4797,19 +5029,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>0.09701202809810638</v>
+        <v>0.1280027329921722</v>
       </c>
       <c r="C74" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4823,25 +5055,25 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2">
-        <v>0.09485621005296707</v>
+        <v>0.1237359717488289</v>
       </c>
       <c r="C75" s="1">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E75" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
@@ -4852,16 +5084,16 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09270038455724716</v>
+        <v>0.1194692179560661</v>
       </c>
       <c r="C76" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4878,16 +5110,16 @@
         <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>0.08407709002494812</v>
+        <v>0.1066689416766167</v>
       </c>
       <c r="C77" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4904,16 +5136,16 @@
         <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>0.08407709002494812</v>
+        <v>0.1066689416766167</v>
       </c>
       <c r="C78" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4930,16 +5162,16 @@
         <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>0.08192127197980881</v>
+        <v>0.1045355647802353</v>
       </c>
       <c r="C79" s="1">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4956,16 +5188,16 @@
         <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>0.0797654464840889</v>
+        <v>0.09600204974412918</v>
       </c>
       <c r="C80" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4982,16 +5214,16 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>0.07760962098836899</v>
+        <v>0.0938686728477478</v>
       </c>
       <c r="C81" s="1">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -5008,16 +5240,16 @@
         <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>0.07545380294322968</v>
+        <v>0.09173528850078583</v>
       </c>
       <c r="C82" s="1">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -5034,16 +5266,16 @@
         <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07329797744750977</v>
+        <v>0.08960191160440445</v>
       </c>
       <c r="C83" s="1">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -5060,16 +5292,16 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07114215195178986</v>
+        <v>0.08320177346467972</v>
       </c>
       <c r="C84" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -5086,16 +5318,16 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>0.06683050841093063</v>
+        <v>0.08320177346467972</v>
       </c>
       <c r="C85" s="1">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -5112,16 +5344,16 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>0.06683050841093063</v>
+        <v>0.08106839656829834</v>
       </c>
       <c r="C86" s="1">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -5138,16 +5370,16 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>0.06467468291521072</v>
+        <v>0.07893501967191696</v>
       </c>
       <c r="C87" s="1">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -5164,16 +5396,16 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>0.05605139583349228</v>
+        <v>0.07680163532495499</v>
       </c>
       <c r="C88" s="1">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -5190,16 +5422,16 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>0.05605139583349228</v>
+        <v>0.07466825842857361</v>
       </c>
       <c r="C89" s="1">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -5216,16 +5448,16 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>0.05389557033777237</v>
+        <v>0.07253488153219223</v>
       </c>
       <c r="C90" s="1">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -5242,16 +5474,16 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0.05173974856734276</v>
+        <v>0.07040150463581085</v>
       </c>
       <c r="C91" s="1">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -5265,25 +5497,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>0.04203854501247406</v>
+        <v>0.06826812028884888</v>
       </c>
       <c r="C92" s="1">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D92" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -5291,19 +5523,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>0.03880481049418449</v>
+        <v>0.0661347433924675</v>
       </c>
       <c r="C93" s="1">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5317,19 +5549,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>0.03664898872375488</v>
+        <v>0.0661347433924675</v>
       </c>
       <c r="C94" s="1">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -5343,19 +5575,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>0.03018151968717575</v>
+        <v>0.06400136649608612</v>
       </c>
       <c r="C95" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5369,19 +5601,19 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2">
-        <v>0.03018151968717575</v>
+        <v>0.05546785145998001</v>
       </c>
       <c r="C96" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5395,19 +5627,19 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>0.03018151968717575</v>
+        <v>0.05546785145998001</v>
       </c>
       <c r="C97" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -5421,19 +5653,19 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>0.02802569791674614</v>
+        <v>0.05333447083830833</v>
       </c>
       <c r="C98" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5447,19 +5679,19 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
-        <v>0.02802569791674614</v>
+        <v>0.05120109394192696</v>
       </c>
       <c r="C99" s="1">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5473,25 +5705,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B100" s="2">
-        <v>0.02586987428367138</v>
+        <v>0.04160088673233986</v>
       </c>
       <c r="C100" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E100" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -5502,16 +5734,16 @@
         <v>101</v>
       </c>
       <c r="B101" s="2">
-        <v>0.02586987428367138</v>
+        <v>0.03840081766247749</v>
       </c>
       <c r="C101" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -5528,16 +5760,16 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.02586987428367138</v>
+        <v>0.03626744076609612</v>
       </c>
       <c r="C102" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -5554,16 +5786,16 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02155822888016701</v>
+        <v>0.02986730448901653</v>
       </c>
       <c r="C103" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -5580,16 +5812,16 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.01940240524709225</v>
+        <v>0.02986730448901653</v>
       </c>
       <c r="C104" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -5606,16 +5838,16 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.01724658347666264</v>
+        <v>0.02986730448901653</v>
       </c>
       <c r="C105" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -5632,16 +5864,16 @@
         <v>106</v>
       </c>
       <c r="B106" s="2">
-        <v>0.01509075984358788</v>
+        <v>0.02773392572999001</v>
       </c>
       <c r="C106" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5658,16 +5890,16 @@
         <v>107</v>
       </c>
       <c r="B107" s="2">
-        <v>0.01509075984358788</v>
+        <v>0.02773392572999001</v>
       </c>
       <c r="C107" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5681,45 +5913,45 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01293493714183569</v>
+        <v>0.02560054697096348</v>
       </c>
       <c r="C108" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D108" s="1">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H108" s="1">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01293493714183569</v>
+        <v>0.02560054697096348</v>
       </c>
       <c r="C109" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -5733,19 +5965,19 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2">
-        <v>0.0107791144400835</v>
+        <v>0.02560054697096348</v>
       </c>
       <c r="C110" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5759,19 +5991,19 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2">
-        <v>0.0107791144400835</v>
+        <v>0.02133378759026527</v>
       </c>
       <c r="C111" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -5785,19 +6017,19 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2">
-        <v>0.0107791144400835</v>
+        <v>0.01920040883123875</v>
       </c>
       <c r="C112" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -5811,19 +6043,19 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2">
-        <v>0.0107791144400835</v>
+        <v>0.01706703007221222</v>
       </c>
       <c r="C113" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -5837,19 +6069,19 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2">
-        <v>0.008623291738331318</v>
+        <v>0.01493365224450827</v>
       </c>
       <c r="C114" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -5863,19 +6095,19 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2">
-        <v>0.008623291738331318</v>
+        <v>0.01493365224450827</v>
       </c>
       <c r="C115" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
       </c>
       <c r="E115" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -5889,19 +6121,19 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2">
-        <v>0.008623291738331318</v>
+        <v>0.01280027348548174</v>
       </c>
       <c r="C116" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -5910,50 +6142,50 @@
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B117" s="2">
-        <v>0.008623291738331318</v>
+        <v>0.01280027348548174</v>
       </c>
       <c r="C117" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D117" s="1">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="E117" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H117" s="1">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.008623291738331318</v>
+        <v>0.01280027348548174</v>
       </c>
       <c r="C118" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
       </c>
       <c r="E118" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
@@ -5967,19 +6199,19 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.006467468570917845</v>
+        <v>0.01066689379513264</v>
       </c>
       <c r="C119" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -5993,19 +6225,19 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.006467468570917845</v>
+        <v>0.01066689379513264</v>
       </c>
       <c r="C120" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
       </c>
       <c r="E120" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -6019,19 +6251,19 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.006467468570917845</v>
+        <v>0.01066689379513264</v>
       </c>
       <c r="C121" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
       <c r="E121" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -6045,19 +6277,19 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.006467468570917845</v>
+        <v>0.01066689379513264</v>
       </c>
       <c r="C122" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -6071,19 +6303,19 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.004311645869165659</v>
+        <v>0.00853351503610611</v>
       </c>
       <c r="C123" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -6097,19 +6329,19 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.004311645869165659</v>
+        <v>0.00853351503610611</v>
       </c>
       <c r="C124" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -6123,19 +6355,19 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B125" s="2">
-        <v>0.00215582293458283</v>
+        <v>0.00853351503610611</v>
       </c>
       <c r="C125" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E125" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -6144,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6152,16 +6384,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.00215582293458283</v>
+        <v>0.00853351503610611</v>
       </c>
       <c r="C126" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -6178,16 +6410,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.00215582293458283</v>
+        <v>0.00853351503610611</v>
       </c>
       <c r="C127" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
       <c r="E127" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -6204,16 +6436,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.00215582293458283</v>
+        <v>0.00640013674274087</v>
       </c>
       <c r="C128" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
       <c r="E128" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -6230,56 +6462,264 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.00215582293458283</v>
+        <v>0.00640013674274087</v>
       </c>
       <c r="C129" s="1">
+        <v>6</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>6</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.00640013674274087</v>
+      </c>
+      <c r="C130" s="1">
+        <v>6</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>6</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.00640013674274087</v>
+      </c>
+      <c r="C131" s="1">
+        <v>6</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>6</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.004266757518053055</v>
+      </c>
+      <c r="C132" s="1">
+        <v>4</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>4</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.004266757518053055</v>
+      </c>
+      <c r="C133" s="1">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>4</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.002133378759026527</v>
+      </c>
+      <c r="C134" s="1">
         <v>2</v>
       </c>
-      <c r="D129" s="1">
-        <v>0</v>
-      </c>
-      <c r="E129" s="1">
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
         <v>2</v>
       </c>
-      <c r="F129" s="1">
-        <v>0</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0</v>
-      </c>
-      <c r="H129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.002133378759026527</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>2</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.002133378759026527</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.002133378759026527</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>2</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C130">
+      <c r="C138">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D130">
+      <c r="D138">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E130">
+      <c r="E138">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F130">
+      <c r="F138">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G130">
+      <c r="G138">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H130">
+      <c r="H138">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
+++ b/Software_RT/bsp/STM32L432xx/rt-thread_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
   <si>
     <t>rt-thread</t>
   </si>
@@ -29,6 +29,9 @@
     <t>usbd_core.o</t>
   </si>
   <si>
+    <t>timer.o</t>
+  </si>
+  <si>
     <t>idle.o</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
     <t>drv_gpio.o</t>
   </si>
   <si>
-    <t>dev_soft_rtc.o</t>
-  </si>
-  <si>
     <t>cherry_vcom.o</t>
   </si>
   <si>
@@ -74,6 +74,9 @@
     <t>cmd.o</t>
   </si>
   <si>
+    <t>rx8900.o</t>
+  </si>
+  <si>
     <t>dev_alarm.o</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
     <t>cpu_usage.o</t>
   </si>
   <si>
-    <t>timer.o</t>
-  </si>
-  <si>
     <t>cpuport.o</t>
   </si>
   <si>
@@ -140,6 +140,9 @@
     <t>dataqueue.o</t>
   </si>
   <si>
+    <t>fz_wm.l</t>
+  </si>
+  <si>
     <t>mem.o</t>
   </si>
   <si>
@@ -155,13 +158,13 @@
     <t>device.o</t>
   </si>
   <si>
-    <t>fz_wm.l</t>
-  </si>
-  <si>
     <t>stm32l4xx_hal_rcc_ex.o</t>
   </si>
   <si>
     <t>syscalls.o</t>
+  </si>
+  <si>
+    <t>daddsub_clz.o</t>
   </si>
   <si>
     <t>scheduler_comm.o</t>
@@ -542,9 +545,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$138</c:f>
+              <c:f>ram_percent!$A$3:$A$139</c:f>
               <c:strCache>
-                <c:ptCount val="136"/>
+                <c:ptCount val="137"/>
                 <c:pt idx="0">
                   <c:v>main.o</c:v>
                 </c:pt>
@@ -555,34 +558,34 @@
                   <c:v>usbd_core.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>timer.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>usb_dc_fsdev.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>c_w.l</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>object.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>shell.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>scheduler_up.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>stdio_streams.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>drv_gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>dev_soft_rtc.o</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>cherry_vcom.o</c:v>
@@ -600,19 +603,19 @@
                   <c:v>cmd.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>rx8900.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>dev_alarm.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>dev_pin.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>cpu_usage.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>timer.o</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>cpuport.o</c:v>
@@ -656,7 +659,7 @@
                 <c:pt idx="36">
                   <c:v>cpu_usage_cmd.o</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -664,122 +667,122 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$138</c:f>
+              <c:f>ram_percent!$B$3:$B$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="137"/>
                 <c:pt idx="0">
-                  <c:v>16.19585609436035</c:v>
+                  <c:v>14.58584880828857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.77454948425293</c:v>
+                  <c:v>12.36416339874268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.138014793396</c:v>
+                  <c:v>9.997585296630859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.026365280151367</c:v>
+                  <c:v>8.838444709777832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.380683422088623</c:v>
+                  <c:v>8.500362396240234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.842615127563477</c:v>
+                  <c:v>4.829751491546631</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.519773960113525</c:v>
+                  <c:v>4.346776008605957</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.820285081863403</c:v>
+                  <c:v>4.056991100311279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.726123332977295</c:v>
+                  <c:v>3.429123401641846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.658864736557007</c:v>
+                  <c:v>3.344602823257446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.55125093460083</c:v>
+                  <c:v>3.284230947494507</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.497444152832031</c:v>
+                  <c:v>3.187635898590088</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.12079644203186</c:v>
+                  <c:v>3.139338254928589</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7576003074646</c:v>
+                  <c:v>2.475247621536255</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.421307563781738</c:v>
+                  <c:v>2.173388004302979</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.802528977394104</c:v>
+                  <c:v>1.617966651916504</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.668011784553528</c:v>
+                  <c:v>1.497222900390625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.614205002784729</c:v>
+                  <c:v>1.448925375938416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.412429332733154</c:v>
+                  <c:v>1.400627851486206</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.291363954544067</c:v>
+                  <c:v>1.267809748649597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9685230255126953</c:v>
+                  <c:v>1.159140348434448</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9685230255126953</c:v>
+                  <c:v>0.8693552017211914</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3766478300094605</c:v>
+                  <c:v>0.8693552017211914</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.215227335691452</c:v>
+                  <c:v>0.1931900531053543</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1614204943180084</c:v>
+                  <c:v>0.144892543554306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1614204943180084</c:v>
+                  <c:v>0.144892543554306</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1210653781890869</c:v>
+                  <c:v>0.1086694002151489</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.107613667845726</c:v>
+                  <c:v>0.09659502655267716</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.107613667845726</c:v>
+                  <c:v>0.09659502655267716</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.107613667845726</c:v>
+                  <c:v>0.09659502655267716</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.107613667845726</c:v>
+                  <c:v>0.09659502655267716</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.107613667845726</c:v>
+                  <c:v>0.09659502655267716</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.05380683392286301</c:v>
+                  <c:v>0.04829751327633858</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.05380683392286301</c:v>
+                  <c:v>0.04829751327633858</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.05380683392286301</c:v>
+                  <c:v>0.04829751327633858</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.05380683392286301</c:v>
+                  <c:v>0.04829751327633858</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.05380683392286301</c:v>
-                </c:pt>
-                <c:pt idx="135">
+                  <c:v>0.04829751327633858</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -847,9 +850,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$138</c:f>
+              <c:f>flash_percent!$A$3:$A$139</c:f>
               <c:strCache>
-                <c:ptCount val="136"/>
+                <c:ptCount val="137"/>
                 <c:pt idx="0">
                   <c:v>ipc.o</c:v>
                 </c:pt>
@@ -878,384 +881,387 @@
                   <c:v>shell.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>dev_alarm.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>dataqueue.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>timer.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>dev_pin.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>sensor.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>timer.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>fz_wm.l</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>kstdio.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>mem.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>drv_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>kservice.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>object.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>msh.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>ctime.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>rx8900.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>dev_i2c_bit_ops.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>cpuport.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>dev_alarm.o</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>ringbuffer.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>device.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>fz_wm.l</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>cherry_vcom.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>bh1750fvi.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>stm32l4xx_hal_rcc_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>scheduler_up.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>dev_rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>completion_up.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>syscalls.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>dev_soft_rtc.o</c:v>
-                </c:pt>
                 <c:pt idx="34">
+                  <c:v>daddsub_clz.o</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>scheduler_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>stm32l4xx_hal_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>ddiv.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>dev_i2c_core.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>dev_i2c_dev.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>drv_soft_i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>flsbuf.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>startup_stm32l432xx.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>kstring.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>drv_common.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>board.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>idle.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>cpu_usage_cmd.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>stm32l4xx_hal_cortex.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>cpu_usage.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>__printf_flags_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>context_rvds.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>system_stm32l4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>initio.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>usbd_cdc.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>components.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>fseek.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>stdio.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>fopen.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>clock.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>_printf_intcommon.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>stm32l4xx_hal_pwr_ex.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>_strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>dnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>strncmp.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>rt_memcpy_v6.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>_printf_hex_int.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>cpu_up.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>strtoul.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>irq.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>strtol.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>rt_memcpy_w.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>cstdlib.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>dflt_clz.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>_printf_pad.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>fclose.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>strcpy.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>setvbuf.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>ftell.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>stm32l4xx_hal_msp.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>atomic_arm.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>msh_parse.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>defsig_rtred_inner.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>defsig_general.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>_printf_char_common.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>stm32l4xx_hal.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>_printf_char_file.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>completion_comm.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>fputc.o</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>atoi.o</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>strcat.o</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>noretval__2printf.o</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>syscall_mem.o</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>defsig_rtred_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>__printf_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>dretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>stdio_streams.o</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>fretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>defsig_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>rt_errno_addr_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>ferror.o</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>_printf_x.o</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>hguard.o</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1263,416 +1269,419 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$138</c:f>
+              <c:f>flash_percent!$B$3:$B$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="137"/>
                 <c:pt idx="0">
-                  <c:v>6.755343914031982</c:v>
+                  <c:v>6.68606424331665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.189998626708984</c:v>
+                  <c:v>5.924451351165772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.524384498596191</c:v>
+                  <c:v>5.287391662597656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.238511562347412</c:v>
+                  <c:v>5.013782501220703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5216965675354</c:v>
+                  <c:v>4.327718257904053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.509963035583496</c:v>
+                  <c:v>4.316487789154053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.282203435897827</c:v>
+                  <c:v>3.141398668289185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.880061388015747</c:v>
+                  <c:v>2.756508350372315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.738191843032837</c:v>
+                  <c:v>2.62072491645813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.491786479949951</c:v>
+                  <c:v>2.54823899269104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.45871901512146</c:v>
+                  <c:v>2.38489031791687</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.379784107208252</c:v>
+                  <c:v>2.381827354431152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.290182113647461</c:v>
+                  <c:v>2.353241443634033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.227247476577759</c:v>
+                  <c:v>2.277692794799805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.123778581619263</c:v>
+                  <c:v>2.248085737228394</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.075777530670166</c:v>
+                  <c:v>2.131699800491333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.009642839431763</c:v>
+                  <c:v>2.03266978263855</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.874173283576965</c:v>
+                  <c:v>1.986727952957153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.808038592338562</c:v>
+                  <c:v>1.923430323600769</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.763237595558167</c:v>
+                  <c:v>1.793772339820862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.696036219596863</c:v>
+                  <c:v>1.730474710464478</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.62990140914917</c:v>
+                  <c:v>1.726390957832336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.582967162132263</c:v>
+                  <c:v>1.678407311439514</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.569100141525269</c:v>
+                  <c:v>1.623277187347412</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.565900087356567</c:v>
+                  <c:v>1.559979557991028</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.491231799125671</c:v>
+                  <c:v>1.501786589622498</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.434697270393372</c:v>
+                  <c:v>1.498723864555359</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.376029372215271</c:v>
+                  <c:v>1.373149514198303</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.318428158760071</c:v>
+                  <c:v>1.316998481750488</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.243759870529175</c:v>
+                  <c:v>1.261868357658386</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.157358050346375</c:v>
+                  <c:v>1.19040322303772</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9002858996391296</c:v>
+                  <c:v>1.107707977294922</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.8949524164199829</c:v>
+                  <c:v>0.8616641163825989</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.8554849028587341</c:v>
+                  <c:v>0.8565594553947449</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.8117506504058838</c:v>
+                  <c:v>0.8208269476890564</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.7829500436782837</c:v>
+                  <c:v>0.7769269943237305</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.7338823080062866</c:v>
+                  <c:v>0.7493619322776794</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6453471183776856</c:v>
+                  <c:v>0.7023991942405701</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5994794368743897</c:v>
+                  <c:v>0.6493108868598938</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5098775625228882</c:v>
+                  <c:v>0.6176620721817017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5013440251350403</c:v>
+                  <c:v>0.5737621188163757</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.48641037940979</c:v>
+                  <c:v>0.4880040884017944</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.4586764574050903</c:v>
+                  <c:v>0.479836642742157</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.453343003988266</c:v>
+                  <c:v>0.465543657541275</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4032086133956909</c:v>
+                  <c:v>0.4389995038509369</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3904083371162415</c:v>
+                  <c:v>0.4338948428630829</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3882749378681183</c:v>
+                  <c:v>0.3940786123275757</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3861415684223175</c:v>
+                  <c:v>0.3736600279808044</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3712079226970673</c:v>
+                  <c:v>0.3716181814670563</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3669411540031433</c:v>
+                  <c:v>0.3695763051509857</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3626744151115418</c:v>
+                  <c:v>0.3552833199501038</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3573409616947174</c:v>
+                  <c:v>0.3471158742904663</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3498741388320923</c:v>
+                  <c:v>0.3420112431049347</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.3413406014442444</c:v>
+                  <c:v>0.3348647356033325</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.3370738625526428</c:v>
+                  <c:v>0.3266972899436951</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.3328070938587189</c:v>
+                  <c:v>0.3226135671138763</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3157400786876679</c:v>
+                  <c:v>0.31852987408638</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2709391117095947</c:v>
+                  <c:v>0.3021949827671051</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.26453897356987</c:v>
+                  <c:v>0.2593159675598145</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2560054659843445</c:v>
+                  <c:v>0.2531903982162476</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2517386972904205</c:v>
+                  <c:v>0.2450229674577713</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.2293382287025452</c:v>
+                  <c:v>0.2409392595291138</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1898707151412964</c:v>
+                  <c:v>0.2194997519254684</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1877373456954956</c:v>
+                  <c:v>0.1817253679037094</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1749370694160461</c:v>
+                  <c:v>0.1796835064888001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1664035469293594</c:v>
+                  <c:v>0.1674323678016663</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1600034087896347</c:v>
+                  <c:v>0.15926493704319</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1472031474113464</c:v>
+                  <c:v>0.1531393527984619</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1365362405776978</c:v>
+                  <c:v>0.1408882141113281</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1365362405776978</c:v>
+                  <c:v>0.1306789219379425</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.130136102437973</c:v>
+                  <c:v>0.1306789219379425</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1280027329921722</c:v>
+                  <c:v>0.124553345143795</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1237359717488289</c:v>
+                  <c:v>0.1225114837288857</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1194692179560661</c:v>
+                  <c:v>0.1184277683496475</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1066689416766167</c:v>
+                  <c:v>0.1143440529704094</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1066689416766167</c:v>
+                  <c:v>0.102092906832695</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1045355647802353</c:v>
+                  <c:v>0.102092906832695</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09600204974412918</c:v>
+                  <c:v>0.1000510454177856</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0938686728477478</c:v>
+                  <c:v>0.09188361465930939</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.09173528850078583</c:v>
+                  <c:v>0.08984175324440002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08960191160440445</c:v>
+                  <c:v>0.08779989928007126</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08320177346467972</c:v>
+                  <c:v>0.0857580378651619</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08320177346467972</c:v>
+                  <c:v>0.079632468521595</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.08106839656829834</c:v>
+                  <c:v>0.079632468521595</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07893501967191696</c:v>
+                  <c:v>0.07759060710668564</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07680163532495499</c:v>
+                  <c:v>0.07554874569177628</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07466825842857361</c:v>
+                  <c:v>0.07350689172744751</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.07253488153219223</c:v>
+                  <c:v>0.07146503031253815</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.07040150463581085</c:v>
+                  <c:v>0.06942317634820938</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06826812028884888</c:v>
+                  <c:v>0.06738131493330002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0661347433924675</c:v>
+                  <c:v>0.06533946096897125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0661347433924675</c:v>
+                  <c:v>0.06329759955406189</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.06400136649608612</c:v>
+                  <c:v>0.06329759955406189</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.05546785145998001</c:v>
+                  <c:v>0.06125574186444283</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.05546785145998001</c:v>
+                  <c:v>0.05308831110596657</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05333447083830833</c:v>
+                  <c:v>0.05308831110596657</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.05120109394192696</c:v>
+                  <c:v>0.0510464534163475</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.04160088673233986</c:v>
+                  <c:v>0.04900459572672844</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.03840081766247749</c:v>
+                  <c:v>0.0398162342607975</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03626744076609612</c:v>
+                  <c:v>0.03675344586372376</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02986730448901653</c:v>
+                  <c:v>0.03471158817410469</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.02986730448901653</c:v>
+                  <c:v>0.02858601324260235</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.02986730448901653</c:v>
+                  <c:v>0.02858601324260235</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.02773392572999001</c:v>
+                  <c:v>0.02858601324260235</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02773392572999001</c:v>
+                  <c:v>0.02654415555298328</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.02560054697096348</c:v>
+                  <c:v>0.02654415555298328</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.02560054697096348</c:v>
+                  <c:v>0.02450229786336422</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.02560054697096348</c:v>
+                  <c:v>0.02450229786336422</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.02133378759026527</c:v>
+                  <c:v>0.02450229786336422</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.01920040883123875</c:v>
+                  <c:v>0.02041858062148094</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.01706703007221222</c:v>
+                  <c:v>0.01837672293186188</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.01493365224450827</c:v>
+                  <c:v>0.01633486524224281</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.01493365224450827</c:v>
+                  <c:v>0.01429300662130117</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.01280027348548174</c:v>
+                  <c:v>0.01429300662130117</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.01280027348548174</c:v>
+                  <c:v>0.01225114893168211</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.01280027348548174</c:v>
+                  <c:v>0.01225114893168211</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.01066689379513264</c:v>
+                  <c:v>0.01225114893168211</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.01066689379513264</c:v>
+                  <c:v>0.01020929031074047</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.01066689379513264</c:v>
+                  <c:v>0.01020929031074047</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.01066689379513264</c:v>
+                  <c:v>0.01020929031074047</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.00853351503610611</c:v>
+                  <c:v>0.01020929031074047</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.00853351503610611</c:v>
+                  <c:v>0.008167432621121407</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.00853351503610611</c:v>
+                  <c:v>0.008167432621121407</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.00853351503610611</c:v>
+                  <c:v>0.008167432621121407</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.00853351503610611</c:v>
+                  <c:v>0.008167432621121407</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.00640013674274087</c:v>
+                  <c:v>0.008167432621121407</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.00640013674274087</c:v>
+                  <c:v>0.006125574465841055</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.00640013674274087</c:v>
+                  <c:v>0.006125574465841055</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.00640013674274087</c:v>
+                  <c:v>0.006125574465841055</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.004266757518053055</c:v>
+                  <c:v>0.006125574465841055</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.004266757518053055</c:v>
+                  <c:v>0.004083716310560703</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.002133378759026527</c:v>
+                  <c:v>0.004083716310560703</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.002133378759026527</c:v>
+                  <c:v>0.002041858155280352</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.002133378759026527</c:v>
+                  <c:v>0.002041858155280352</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.002133378759026527</c:v>
+                  <c:v>0.002041858155280352</c:v>
                 </c:pt>
                 <c:pt idx="135">
+                  <c:v>0.002041858155280352</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1777,8 +1786,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H138" totalsRowCount="1">
-  <autoFilter ref="A2:H137"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H139" totalsRowCount="1">
+  <autoFilter ref="A2:H138"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1794,8 +1803,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H138" totalsRowCount="1">
-  <autoFilter ref="A2:H137"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H139" totalsRowCount="1">
+  <autoFilter ref="A2:H138"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2095,7 +2104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2111,28 +2120,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2140,22 +2149,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>16.19585609436035</v>
+        <v>14.58584880828857</v>
       </c>
       <c r="C3" s="1">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="D3" s="1">
-        <v>344</v>
+        <v>636</v>
       </c>
       <c r="E3" s="1">
-        <v>340</v>
+        <v>628</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
         <v>1200</v>
@@ -2166,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>13.77454948425293</v>
+        <v>12.36416339874268</v>
       </c>
       <c r="C4" s="1">
         <v>1024</v>
@@ -2192,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.138014793396</v>
+        <v>9.997585296630859</v>
       </c>
       <c r="C5" s="1">
         <v>828</v>
@@ -2218,25 +2227,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>6.026365280151367</v>
+        <v>8.838444709777832</v>
       </c>
       <c r="C6" s="1">
-        <v>448</v>
+        <v>732</v>
       </c>
       <c r="D6" s="1">
-        <v>366</v>
+        <v>2333</v>
       </c>
       <c r="E6" s="1">
-        <v>342</v>
+        <v>2182</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1">
-        <v>424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2244,25 +2253,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>5.380683422088623</v>
+        <v>8.500362396240234</v>
       </c>
       <c r="C7" s="1">
-        <v>400</v>
+        <v>704</v>
       </c>
       <c r="D7" s="1">
-        <v>4228</v>
+        <v>366</v>
       </c>
       <c r="E7" s="1">
-        <v>4228</v>
+        <v>342</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
-        <v>400</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2270,25 +2279,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>4.842615127563477</v>
+        <v>4.829751491546631</v>
       </c>
       <c r="C8" s="1">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="D8" s="1">
-        <v>4911</v>
+        <v>4228</v>
       </c>
       <c r="E8" s="1">
-        <v>4570</v>
+        <v>4228</v>
       </c>
       <c r="F8" s="1">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>348</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2296,25 +2305,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>4.519773960113525</v>
+        <v>4.346776008605957</v>
       </c>
       <c r="C9" s="1">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="D9" s="1">
-        <v>1884</v>
+        <v>4911</v>
       </c>
       <c r="E9" s="1">
-        <v>1550</v>
+        <v>4570</v>
       </c>
       <c r="F9" s="1">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="G9" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1">
-        <v>308</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2322,25 +2331,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>3.820285081863403</v>
+        <v>4.056991100311279</v>
       </c>
       <c r="C10" s="1">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="D10" s="1">
-        <v>1757</v>
+        <v>1884</v>
       </c>
       <c r="E10" s="1">
-        <v>1326</v>
+        <v>1550</v>
       </c>
       <c r="F10" s="1">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="G10" s="1">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2348,25 +2357,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>3.726123332977295</v>
+        <v>3.429123401641846</v>
       </c>
       <c r="C11" s="1">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D11" s="1">
-        <v>2567</v>
+        <v>1757</v>
       </c>
       <c r="E11" s="1">
-        <v>2408</v>
+        <v>1326</v>
       </c>
       <c r="F11" s="1">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G11" s="1">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="H11" s="1">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2374,25 +2383,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>3.658864736557007</v>
+        <v>3.344602823257446</v>
       </c>
       <c r="C12" s="1">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1">
-        <v>1166</v>
+        <v>2567</v>
       </c>
       <c r="E12" s="1">
-        <v>1078</v>
+        <v>2408</v>
       </c>
       <c r="F12" s="1">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="G12" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2400,25 +2409,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>3.55125093460083</v>
+        <v>3.284230947494507</v>
       </c>
       <c r="C13" s="1">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D13" s="1">
-        <v>12</v>
+        <v>1166</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2426,25 +2435,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>3.497444152832031</v>
+        <v>3.187635898590088</v>
       </c>
       <c r="C14" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D14" s="1">
-        <v>1946</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>1594</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2452,25 +2461,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>3.12079644203186</v>
+        <v>3.139338254928589</v>
       </c>
       <c r="C15" s="1">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="D15" s="1">
-        <v>802</v>
+        <v>1946</v>
       </c>
       <c r="E15" s="1">
-        <v>694</v>
+        <v>1594</v>
       </c>
       <c r="F15" s="1">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="H15" s="1">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2478,7 +2487,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>2.7576003074646</v>
+        <v>2.475247621536255</v>
       </c>
       <c r="C16" s="1">
         <v>205</v>
@@ -2504,7 +2513,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>2.421307563781738</v>
+        <v>2.173388004302979</v>
       </c>
       <c r="C17" s="1">
         <v>180</v>
@@ -2530,16 +2539,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>1.802528977394104</v>
+        <v>1.617966651916504</v>
       </c>
       <c r="C18" s="1">
         <v>134</v>
       </c>
       <c r="D18" s="1">
-        <v>1653</v>
+        <v>1691</v>
       </c>
       <c r="E18" s="1">
-        <v>1454</v>
+        <v>1492</v>
       </c>
       <c r="F18" s="1">
         <v>179</v>
@@ -2556,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>1.668011784553528</v>
+        <v>1.497222900390625</v>
       </c>
       <c r="C19" s="1">
         <v>124</v>
@@ -2582,7 +2591,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>1.614205002784729</v>
+        <v>1.448925375938416</v>
       </c>
       <c r="C20" s="1">
         <v>120</v>
@@ -2608,25 +2617,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1.412429332733154</v>
+        <v>1.400627851486206</v>
       </c>
       <c r="C21" s="1">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1">
-        <v>1484</v>
+        <v>1644</v>
       </c>
       <c r="E21" s="1">
-        <v>1312</v>
+        <v>1636</v>
       </c>
       <c r="F21" s="1">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2634,25 +2643,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>1.291363954544067</v>
+        <v>1.267809748649597</v>
       </c>
       <c r="C22" s="1">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1">
-        <v>8</v>
+        <v>2496</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>2324</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2660,25 +2669,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.9685230255126953</v>
+        <v>1.159140348434448</v>
       </c>
       <c r="C23" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1">
-        <v>2305</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
-        <v>1984</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2686,19 +2695,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9685230255126953</v>
+        <v>0.8693552017211914</v>
       </c>
       <c r="C24" s="1">
         <v>72</v>
       </c>
       <c r="D24" s="1">
-        <v>348</v>
+        <v>2305</v>
       </c>
       <c r="E24" s="1">
-        <v>344</v>
+        <v>1984</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -2712,25 +2721,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>0.3766478300094605</v>
+        <v>0.8693552017211914</v>
       </c>
       <c r="C25" s="1">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>2147</v>
+        <v>348</v>
       </c>
       <c r="E25" s="1">
-        <v>1996</v>
+        <v>344</v>
       </c>
       <c r="F25" s="1">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2738,7 +2747,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>0.215227335691452</v>
+        <v>0.1931900531053543</v>
       </c>
       <c r="C26" s="1">
         <v>16</v>
@@ -2764,7 +2773,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.1614204943180084</v>
+        <v>0.144892543554306</v>
       </c>
       <c r="C27" s="1">
         <v>12</v>
@@ -2790,7 +2799,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.1614204943180084</v>
+        <v>0.144892543554306</v>
       </c>
       <c r="C28" s="1">
         <v>12</v>
@@ -2816,7 +2825,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.1210653781890869</v>
+        <v>0.1086694002151489</v>
       </c>
       <c r="C29" s="1">
         <v>9</v>
@@ -2842,7 +2851,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.107613667845726</v>
+        <v>0.09659502655267716</v>
       </c>
       <c r="C30" s="1">
         <v>8</v>
@@ -2868,7 +2877,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>0.107613667845726</v>
+        <v>0.09659502655267716</v>
       </c>
       <c r="C31" s="1">
         <v>8</v>
@@ -2894,7 +2903,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>0.107613667845726</v>
+        <v>0.09659502655267716</v>
       </c>
       <c r="C32" s="1">
         <v>8</v>
@@ -2920,7 +2929,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>0.107613667845726</v>
+        <v>0.09659502655267716</v>
       </c>
       <c r="C33" s="1">
         <v>8</v>
@@ -2946,7 +2955,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.107613667845726</v>
+        <v>0.09659502655267716</v>
       </c>
       <c r="C34" s="1">
         <v>8</v>
@@ -2972,7 +2981,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>0.05380683392286301</v>
+        <v>0.04829751327633858</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -2998,7 +3007,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>0.05380683392286301</v>
+        <v>0.04829751327633858</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
@@ -3024,7 +3033,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>0.05380683392286301</v>
+        <v>0.04829751327633858</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -3050,7 +3059,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>0.05380683392286301</v>
+        <v>0.04829751327633858</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -3076,7 +3085,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>0.05380683392286301</v>
+        <v>0.04829751327633858</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -3097,35 +3106,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138">
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D138">
+      <c r="D139">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E138">
+      <c r="E139">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F138">
+      <c r="F139">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G138">
+      <c r="G139">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H138">
+      <c r="H139">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -3141,7 +3150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3157,28 +3166,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3186,16 +3195,16 @@
         <v>38</v>
       </c>
       <c r="B3" s="2">
-        <v>6.755343914031982</v>
+        <v>6.68606424331665</v>
       </c>
       <c r="C3" s="1">
-        <v>6333</v>
+        <v>6549</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>5504</v>
+        <v>5720</v>
       </c>
       <c r="F3" s="1">
         <v>829</v>
@@ -3212,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>6.189998626708984</v>
+        <v>5.924451351165772</v>
       </c>
       <c r="C4" s="1">
         <v>5803</v>
@@ -3238,7 +3247,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>5.524384498596191</v>
+        <v>5.287391662597656</v>
       </c>
       <c r="C5" s="1">
         <v>5179</v>
@@ -3261,10 +3270,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>5.238511562347412</v>
+        <v>5.013782501220703</v>
       </c>
       <c r="C6" s="1">
         <v>4911</v>
@@ -3290,7 +3299,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="2">
-        <v>4.5216965675354</v>
+        <v>4.327718257904053</v>
       </c>
       <c r="C7" s="1">
         <v>4239</v>
@@ -3313,10 +3322,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>4.509963035583496</v>
+        <v>4.316487789154053</v>
       </c>
       <c r="C8" s="1">
         <v>4228</v>
@@ -3342,7 +3351,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="2">
-        <v>3.282203435897827</v>
+        <v>3.141398668289185</v>
       </c>
       <c r="C9" s="1">
         <v>3077</v>
@@ -3368,7 +3377,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>2.880061388015747</v>
+        <v>2.756508350372315</v>
       </c>
       <c r="C10" s="1">
         <v>2700</v>
@@ -3391,10 +3400,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2.738191843032837</v>
+        <v>2.62072491645813</v>
       </c>
       <c r="C11" s="1">
         <v>2567</v>
@@ -3417,129 +3426,129 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>2.491786479949951</v>
+        <v>2.54823899269104</v>
       </c>
       <c r="C12" s="1">
-        <v>2336</v>
+        <v>2496</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1">
-        <v>2202</v>
+        <v>2324</v>
       </c>
       <c r="F12" s="1">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
-        <v>2.45871901512146</v>
+        <v>2.38489031791687</v>
       </c>
       <c r="C13" s="1">
-        <v>2305</v>
+        <v>2336</v>
       </c>
       <c r="D13" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1984</v>
+        <v>2202</v>
       </c>
       <c r="F13" s="1">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>2.379784107208252</v>
+        <v>2.381827354431152</v>
       </c>
       <c r="C14" s="1">
-        <v>2231</v>
+        <v>2333</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>732</v>
       </c>
       <c r="E14" s="1">
-        <v>1892</v>
+        <v>2182</v>
       </c>
       <c r="F14" s="1">
-        <v>331</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>2.290182113647461</v>
+        <v>2.353241443634033</v>
       </c>
       <c r="C15" s="1">
-        <v>2147</v>
+        <v>2305</v>
       </c>
       <c r="D15" s="1">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="F15" s="1">
-        <v>123</v>
+        <v>321</v>
       </c>
       <c r="G15" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>2.227247476577759</v>
+        <v>2.277692794799805</v>
       </c>
       <c r="C16" s="1">
-        <v>2088</v>
+        <v>2231</v>
       </c>
       <c r="D16" s="1">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>1810</v>
+        <v>1892</v>
       </c>
       <c r="F16" s="1">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="G16" s="1">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -3550,19 +3559,19 @@
         <v>41</v>
       </c>
       <c r="B17" s="2">
-        <v>2.123778581619263</v>
+        <v>2.248085737228394</v>
       </c>
       <c r="C17" s="1">
-        <v>1991</v>
+        <v>2202</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1498</v>
+        <v>2202</v>
       </c>
       <c r="F17" s="1">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -3573,25 +3582,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>2.075777530670166</v>
+        <v>2.131699800491333</v>
       </c>
       <c r="C18" s="1">
-        <v>1946</v>
+        <v>2088</v>
       </c>
       <c r="D18" s="1">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1">
-        <v>1594</v>
+        <v>1810</v>
       </c>
       <c r="F18" s="1">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="G18" s="1">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -3599,51 +3608,51 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
-        <v>2.009642839431763</v>
+        <v>2.03266978263855</v>
       </c>
       <c r="C19" s="1">
-        <v>1884</v>
+        <v>1991</v>
       </c>
       <c r="D19" s="1">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1550</v>
+        <v>1498</v>
       </c>
       <c r="F19" s="1">
-        <v>306</v>
+        <v>493</v>
       </c>
       <c r="G19" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>1.874173283576965</v>
+        <v>1.986727952957153</v>
       </c>
       <c r="C20" s="1">
-        <v>1757</v>
+        <v>1946</v>
       </c>
       <c r="D20" s="1">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E20" s="1">
-        <v>1326</v>
+        <v>1594</v>
       </c>
       <c r="F20" s="1">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="G20" s="1">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -3651,54 +3660,54 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>1.808038592338562</v>
+        <v>1.923430323600769</v>
       </c>
       <c r="C21" s="1">
-        <v>1695</v>
+        <v>1884</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="E21" s="1">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="F21" s="1">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>1.763237595558167</v>
+        <v>1.793772339820862</v>
       </c>
       <c r="C22" s="1">
-        <v>1653</v>
+        <v>1757</v>
       </c>
       <c r="D22" s="1">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="E22" s="1">
-        <v>1454</v>
+        <v>1326</v>
       </c>
       <c r="F22" s="1">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="G22" s="1">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="H22" s="1">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3706,19 +3715,19 @@
         <v>43</v>
       </c>
       <c r="B23" s="2">
-        <v>1.696036219596863</v>
+        <v>1.730474710464478</v>
       </c>
       <c r="C23" s="1">
-        <v>1590</v>
+        <v>1695</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1578</v>
+        <v>1536</v>
       </c>
       <c r="F23" s="1">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -3729,28 +3738,28 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>1.62990140914917</v>
+        <v>1.726390957832336</v>
       </c>
       <c r="C24" s="1">
-        <v>1528</v>
+        <v>1691</v>
       </c>
       <c r="D24" s="1">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E24" s="1">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="G24" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3758,25 +3767,25 @@
         <v>19</v>
       </c>
       <c r="B25" s="2">
-        <v>1.582967162132263</v>
+        <v>1.678407311439514</v>
       </c>
       <c r="C25" s="1">
-        <v>1484</v>
+        <v>1644</v>
       </c>
       <c r="D25" s="1">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1">
-        <v>1312</v>
+        <v>1636</v>
       </c>
       <c r="F25" s="1">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3784,19 +3793,19 @@
         <v>44</v>
       </c>
       <c r="B26" s="2">
-        <v>1.569100141525269</v>
+        <v>1.623277187347412</v>
       </c>
       <c r="C26" s="1">
-        <v>1471</v>
+        <v>1590</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>1238</v>
+        <v>1578</v>
       </c>
       <c r="F26" s="1">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -3807,25 +3816,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>1.565900087356567</v>
+        <v>1.559979557991028</v>
       </c>
       <c r="C27" s="1">
-        <v>1468</v>
+        <v>1528</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
-        <v>1282</v>
+        <v>1512</v>
       </c>
       <c r="F27" s="1">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -3833,22 +3842,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
-        <v>1.491231799125671</v>
+        <v>1.501786589622498</v>
       </c>
       <c r="C28" s="1">
-        <v>1398</v>
+        <v>1471</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>1398</v>
+        <v>1238</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -3859,77 +3868,77 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
-        <v>1.434697270393372</v>
+        <v>1.498723864555359</v>
       </c>
       <c r="C29" s="1">
-        <v>1345</v>
+        <v>1468</v>
       </c>
       <c r="D29" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>988</v>
+        <v>1282</v>
       </c>
       <c r="F29" s="1">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="G29" s="1">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2">
-        <v>1.376029372215271</v>
+        <v>1.373149514198303</v>
       </c>
       <c r="C30" s="1">
-        <v>1290</v>
+        <v>1345</v>
       </c>
       <c r="D30" s="1">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="E30" s="1">
-        <v>1274</v>
+        <v>988</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="G30" s="1">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
-        <v>1.318428158760071</v>
+        <v>1.316998481750488</v>
       </c>
       <c r="C31" s="1">
-        <v>1236</v>
+        <v>1290</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1">
-        <v>1236</v>
+        <v>1274</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -3937,77 +3946,77 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
-        <v>1.243759870529175</v>
+        <v>1.261868357658386</v>
       </c>
       <c r="C32" s="1">
-        <v>1166</v>
+        <v>1236</v>
       </c>
       <c r="D32" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1078</v>
+        <v>1236</v>
       </c>
       <c r="F32" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2">
-        <v>1.157358050346375</v>
+        <v>1.19040322303772</v>
       </c>
       <c r="C33" s="1">
-        <v>1085</v>
+        <v>1166</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="E33" s="1">
-        <v>988</v>
+        <v>1078</v>
       </c>
       <c r="F33" s="1">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G33" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.9002858996391296</v>
+        <v>1.107707977294922</v>
       </c>
       <c r="C34" s="1">
-        <v>844</v>
+        <v>1085</v>
       </c>
       <c r="D34" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>762</v>
+        <v>988</v>
       </c>
       <c r="F34" s="1">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G34" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -4015,25 +4024,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2">
-        <v>0.8949524164199829</v>
+        <v>0.8616641163825989</v>
       </c>
       <c r="C35" s="1">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="F35" s="1">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -4041,28 +4050,28 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2">
-        <v>0.8554849028587341</v>
+        <v>0.8565594553947449</v>
       </c>
       <c r="C36" s="1">
-        <v>802</v>
+        <v>839</v>
       </c>
       <c r="D36" s="1">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>694</v>
+        <v>738</v>
       </c>
       <c r="F36" s="1">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G36" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4070,19 +4079,19 @@
         <v>49</v>
       </c>
       <c r="B37" s="2">
-        <v>0.8117506504058838</v>
+        <v>0.8208269476890564</v>
       </c>
       <c r="C37" s="1">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>704</v>
+        <v>804</v>
       </c>
       <c r="F37" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -4096,19 +4105,19 @@
         <v>50</v>
       </c>
       <c r="B38" s="2">
-        <v>0.7829500436782837</v>
+        <v>0.7769269943237305</v>
       </c>
       <c r="C38" s="1">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -4122,16 +4131,16 @@
         <v>51</v>
       </c>
       <c r="B39" s="2">
-        <v>0.7338823080062866</v>
+        <v>0.7493619322776794</v>
       </c>
       <c r="C39" s="1">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -4148,19 +4157,19 @@
         <v>52</v>
       </c>
       <c r="B40" s="2">
-        <v>0.6453471183776856</v>
+        <v>0.7023991942405701</v>
       </c>
       <c r="C40" s="1">
-        <v>605</v>
+        <v>688</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>586</v>
+        <v>688</v>
       </c>
       <c r="F40" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -4171,54 +4180,54 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2">
-        <v>0.5994794368743897</v>
+        <v>0.6493108868598938</v>
       </c>
       <c r="C41" s="1">
-        <v>562</v>
+        <v>636</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="E41" s="1">
-        <v>468</v>
+        <v>628</v>
       </c>
       <c r="F41" s="1">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
-        <v>0.5098775625228882</v>
+        <v>0.6176620721817017</v>
       </c>
       <c r="C42" s="1">
-        <v>478</v>
+        <v>605</v>
       </c>
       <c r="D42" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>406</v>
+        <v>586</v>
       </c>
       <c r="F42" s="1">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4226,19 +4235,19 @@
         <v>54</v>
       </c>
       <c r="B43" s="2">
-        <v>0.5013440251350403</v>
+        <v>0.5737621188163757</v>
       </c>
       <c r="C43" s="1">
-        <v>470</v>
+        <v>562</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -4249,28 +4258,28 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B44" s="2">
-        <v>0.48641037940979</v>
+        <v>0.4880040884017944</v>
       </c>
       <c r="C44" s="1">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="D44" s="1">
-        <v>1024</v>
+        <v>180</v>
       </c>
       <c r="E44" s="1">
-        <v>60</v>
+        <v>406</v>
       </c>
       <c r="F44" s="1">
-        <v>396</v>
+        <v>72</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>1024</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4278,16 +4287,16 @@
         <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>0.4586764574050903</v>
+        <v>0.479836642742157</v>
       </c>
       <c r="C45" s="1">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -4301,28 +4310,28 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B46" s="2">
-        <v>0.453343003988266</v>
+        <v>0.465543657541275</v>
       </c>
       <c r="C46" s="1">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="E46" s="1">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="F46" s="1">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="G46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4330,16 +4339,16 @@
         <v>56</v>
       </c>
       <c r="B47" s="2">
-        <v>0.4032086133956909</v>
+        <v>0.4389995038509369</v>
       </c>
       <c r="C47" s="1">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -4353,51 +4362,51 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.4338948428630829</v>
+      </c>
+      <c r="C48" s="1">
+        <v>425</v>
+      </c>
+      <c r="D48" s="1">
         <v>4</v>
       </c>
-      <c r="B48" s="2">
-        <v>0.3904083371162415</v>
-      </c>
-      <c r="C48" s="1">
-        <v>366</v>
-      </c>
-      <c r="D48" s="1">
-        <v>448</v>
-      </c>
       <c r="E48" s="1">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G48" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H48" s="1">
-        <v>424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
-        <v>0.3882749378681183</v>
+        <v>0.3940786123275757</v>
       </c>
       <c r="C49" s="1">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="D49" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="F49" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -4405,106 +4414,106 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>0.3861415684223175</v>
+        <v>0.3736600279808044</v>
       </c>
       <c r="C50" s="1">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="E50" s="1">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B51" s="2">
-        <v>0.3712079226970673</v>
+        <v>0.3716181814670563</v>
       </c>
       <c r="C51" s="1">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="D51" s="1">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="F51" s="1">
+        <v>32</v>
+      </c>
+      <c r="G51" s="1">
         <v>4</v>
       </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
       <c r="H51" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2">
-        <v>0.3669411540031433</v>
+        <v>0.3695763051509857</v>
       </c>
       <c r="C52" s="1">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="D52" s="1">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2">
-        <v>0.3626744151115418</v>
+        <v>0.3552833199501038</v>
       </c>
       <c r="C53" s="1">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E53" s="1">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4512,19 +4521,19 @@
         <v>59</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3573409616947174</v>
+        <v>0.3471158742904663</v>
       </c>
       <c r="C54" s="1">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="F54" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -4538,19 +4547,19 @@
         <v>60</v>
       </c>
       <c r="B55" s="2">
-        <v>0.3498741388320923</v>
+        <v>0.3420112431049347</v>
       </c>
       <c r="C55" s="1">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -4561,25 +4570,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2">
-        <v>0.3413406014442444</v>
+        <v>0.3348647356033325</v>
       </c>
       <c r="C56" s="1">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D56" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="F56" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -4587,25 +4596,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2">
-        <v>0.3370738625526428</v>
+        <v>0.3266972899436951</v>
       </c>
       <c r="C57" s="1">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="F57" s="1">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -4616,19 +4625,19 @@
         <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>0.3328070938587189</v>
+        <v>0.3226135671138763</v>
       </c>
       <c r="C58" s="1">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -4642,16 +4651,16 @@
         <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>0.3157400786876679</v>
+        <v>0.31852987408638</v>
       </c>
       <c r="C59" s="1">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -4668,19 +4677,19 @@
         <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2709391117095947</v>
+        <v>0.3021949827671051</v>
       </c>
       <c r="C60" s="1">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="F60" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -4694,19 +4703,19 @@
         <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>0.26453897356987</v>
+        <v>0.2593159675598145</v>
       </c>
       <c r="C61" s="1">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -4720,16 +4729,16 @@
         <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2560054659843445</v>
+        <v>0.2531903982162476</v>
       </c>
       <c r="C62" s="1">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4746,16 +4755,16 @@
         <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>0.2517386972904205</v>
+        <v>0.2450229674577713</v>
       </c>
       <c r="C63" s="1">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4769,25 +4778,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>0.2293382287025452</v>
+        <v>0.2409392595291138</v>
       </c>
       <c r="C64" s="1">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D64" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="F64" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -4795,25 +4804,25 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1898707151412964</v>
+        <v>0.2194997519254684</v>
       </c>
       <c r="C65" s="1">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -4824,16 +4833,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1877373456954956</v>
+        <v>0.1817253679037094</v>
       </c>
       <c r="C66" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4850,16 +4859,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1749370694160461</v>
+        <v>0.1796835064888001</v>
       </c>
       <c r="C67" s="1">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4876,16 +4885,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1664035469293594</v>
+        <v>0.1674323678016663</v>
       </c>
       <c r="C68" s="1">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4902,16 +4911,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1600034087896347</v>
+        <v>0.15926493704319</v>
       </c>
       <c r="C69" s="1">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4928,16 +4937,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1472031474113464</v>
+        <v>0.1531393527984619</v>
       </c>
       <c r="C70" s="1">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4954,16 +4963,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1365362405776978</v>
+        <v>0.1408882141113281</v>
       </c>
       <c r="C71" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4980,7 +4989,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1365362405776978</v>
+        <v>0.1306789219379425</v>
       </c>
       <c r="C72" s="1">
         <v>128</v>
@@ -4989,10 +4998,10 @@
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F72" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -5003,25 +5012,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2">
-        <v>0.130136102437973</v>
+        <v>0.1306789219379425</v>
       </c>
       <c r="C73" s="1">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D73" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G73" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -5029,25 +5038,25 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1280027329921722</v>
+        <v>0.124553345143795</v>
       </c>
       <c r="C74" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -5055,25 +5064,25 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1237359717488289</v>
+        <v>0.1225114837288857</v>
       </c>
       <c r="C75" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D75" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
@@ -5081,25 +5090,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1194692179560661</v>
+        <v>0.1184277683496475</v>
       </c>
       <c r="C76" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E76" s="1">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H76" s="1">
         <v>0</v>
@@ -5110,16 +5119,16 @@
         <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1066689416766167</v>
+        <v>0.1143440529704094</v>
       </c>
       <c r="C77" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -5136,7 +5145,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1066689416766167</v>
+        <v>0.102092906832695</v>
       </c>
       <c r="C78" s="1">
         <v>100</v>
@@ -5162,16 +5171,16 @@
         <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1045355647802353</v>
+        <v>0.102092906832695</v>
       </c>
       <c r="C79" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -5188,16 +5197,16 @@
         <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09600204974412918</v>
+        <v>0.1000510454177856</v>
       </c>
       <c r="C80" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -5214,16 +5223,16 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>0.0938686728477478</v>
+        <v>0.09188361465930939</v>
       </c>
       <c r="C81" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -5240,16 +5249,16 @@
         <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>0.09173528850078583</v>
+        <v>0.08984175324440002</v>
       </c>
       <c r="C82" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -5266,16 +5275,16 @@
         <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08960191160440445</v>
+        <v>0.08779989928007126</v>
       </c>
       <c r="C83" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -5292,16 +5301,16 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08320177346467972</v>
+        <v>0.0857580378651619</v>
       </c>
       <c r="C84" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -5318,7 +5327,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08320177346467972</v>
+        <v>0.079632468521595</v>
       </c>
       <c r="C85" s="1">
         <v>78</v>
@@ -5344,16 +5353,16 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>0.08106839656829834</v>
+        <v>0.079632468521595</v>
       </c>
       <c r="C86" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -5370,16 +5379,16 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07893501967191696</v>
+        <v>0.07759060710668564</v>
       </c>
       <c r="C87" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -5396,16 +5405,16 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07680163532495499</v>
+        <v>0.07554874569177628</v>
       </c>
       <c r="C88" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -5422,16 +5431,16 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>0.07466825842857361</v>
+        <v>0.07350689172744751</v>
       </c>
       <c r="C89" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -5448,16 +5457,16 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>0.07253488153219223</v>
+        <v>0.07146503031253815</v>
       </c>
       <c r="C90" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -5474,16 +5483,16 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0.07040150463581085</v>
+        <v>0.06942317634820938</v>
       </c>
       <c r="C91" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -5500,16 +5509,16 @@
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06826812028884888</v>
+        <v>0.06738131493330002</v>
       </c>
       <c r="C92" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -5526,16 +5535,16 @@
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>0.0661347433924675</v>
+        <v>0.06533946096897125</v>
       </c>
       <c r="C93" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5552,7 +5561,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>0.0661347433924675</v>
+        <v>0.06329759955406189</v>
       </c>
       <c r="C94" s="1">
         <v>62</v>
@@ -5578,16 +5587,16 @@
         <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>0.06400136649608612</v>
+        <v>0.06329759955406189</v>
       </c>
       <c r="C95" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5604,16 +5613,16 @@
         <v>97</v>
       </c>
       <c r="B96" s="2">
-        <v>0.05546785145998001</v>
+        <v>0.06125574186444283</v>
       </c>
       <c r="C96" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5630,7 +5639,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>0.05546785145998001</v>
+        <v>0.05308831110596657</v>
       </c>
       <c r="C97" s="1">
         <v>52</v>
@@ -5656,16 +5665,16 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>0.05333447083830833</v>
+        <v>0.05308831110596657</v>
       </c>
       <c r="C98" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5682,16 +5691,16 @@
         <v>100</v>
       </c>
       <c r="B99" s="2">
-        <v>0.05120109394192696</v>
+        <v>0.0510464534163475</v>
       </c>
       <c r="C99" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5705,25 +5714,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2">
-        <v>0.04160088673233986</v>
+        <v>0.04900459572672844</v>
       </c>
       <c r="C100" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D100" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -5731,25 +5740,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B101" s="2">
-        <v>0.03840081766247749</v>
+        <v>0.0398162342607975</v>
       </c>
       <c r="C101" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E101" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -5760,16 +5769,16 @@
         <v>102</v>
       </c>
       <c r="B102" s="2">
-        <v>0.03626744076609612</v>
+        <v>0.03675344586372376</v>
       </c>
       <c r="C102" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -5786,16 +5795,16 @@
         <v>103</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02986730448901653</v>
+        <v>0.03471158817410469</v>
       </c>
       <c r="C103" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -5812,7 +5821,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2">
-        <v>0.02986730448901653</v>
+        <v>0.02858601324260235</v>
       </c>
       <c r="C104" s="1">
         <v>28</v>
@@ -5838,7 +5847,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>0.02986730448901653</v>
+        <v>0.02858601324260235</v>
       </c>
       <c r="C105" s="1">
         <v>28</v>
@@ -5864,16 +5873,16 @@
         <v>106</v>
       </c>
       <c r="B106" s="2">
-        <v>0.02773392572999001</v>
+        <v>0.02858601324260235</v>
       </c>
       <c r="C106" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5890,7 +5899,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02773392572999001</v>
+        <v>0.02654415555298328</v>
       </c>
       <c r="C107" s="1">
         <v>26</v>
@@ -5916,16 +5925,16 @@
         <v>108</v>
       </c>
       <c r="B108" s="2">
-        <v>0.02560054697096348</v>
+        <v>0.02654415555298328</v>
       </c>
       <c r="C108" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -5942,7 +5951,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="2">
-        <v>0.02560054697096348</v>
+        <v>0.02450229786336422</v>
       </c>
       <c r="C109" s="1">
         <v>24</v>
@@ -5968,7 +5977,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="2">
-        <v>0.02560054697096348</v>
+        <v>0.02450229786336422</v>
       </c>
       <c r="C110" s="1">
         <v>24</v>
@@ -5994,16 +6003,16 @@
         <v>111</v>
       </c>
       <c r="B111" s="2">
-        <v>0.02133378759026527</v>
+        <v>0.02450229786336422</v>
       </c>
       <c r="C111" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -6020,16 +6029,16 @@
         <v>112</v>
       </c>
       <c r="B112" s="2">
-        <v>0.01920040883123875</v>
+        <v>0.02041858062148094</v>
       </c>
       <c r="C112" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -6046,16 +6055,16 @@
         <v>113</v>
       </c>
       <c r="B113" s="2">
-        <v>0.01706703007221222</v>
+        <v>0.01837672293186188</v>
       </c>
       <c r="C113" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -6072,16 +6081,16 @@
         <v>114</v>
       </c>
       <c r="B114" s="2">
-        <v>0.01493365224450827</v>
+        <v>0.01633486524224281</v>
       </c>
       <c r="C114" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -6098,7 +6107,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="2">
-        <v>0.01493365224450827</v>
+        <v>0.01429300662130117</v>
       </c>
       <c r="C115" s="1">
         <v>14</v>
@@ -6124,16 +6133,16 @@
         <v>116</v>
       </c>
       <c r="B116" s="2">
-        <v>0.01280027348548174</v>
+        <v>0.01429300662130117</v>
       </c>
       <c r="C116" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -6147,54 +6156,54 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2">
-        <v>0.01280027348548174</v>
+        <v>0.01225114893168211</v>
       </c>
       <c r="C117" s="1">
         <v>12</v>
       </c>
       <c r="D117" s="1">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H117" s="1">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B118" s="2">
-        <v>0.01280027348548174</v>
+        <v>0.01225114893168211</v>
       </c>
       <c r="C118" s="1">
         <v>12</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
         <v>12</v>
       </c>
-      <c r="F118" s="1">
-        <v>0</v>
-      </c>
-      <c r="G118" s="1">
-        <v>0</v>
-      </c>
       <c r="H118" s="1">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -6202,16 +6211,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.01066689379513264</v>
+        <v>0.01225114893168211</v>
       </c>
       <c r="C119" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -6228,7 +6237,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.01066689379513264</v>
+        <v>0.01020929031074047</v>
       </c>
       <c r="C120" s="1">
         <v>10</v>
@@ -6254,7 +6263,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.01066689379513264</v>
+        <v>0.01020929031074047</v>
       </c>
       <c r="C121" s="1">
         <v>10</v>
@@ -6280,7 +6289,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.01066689379513264</v>
+        <v>0.01020929031074047</v>
       </c>
       <c r="C122" s="1">
         <v>10</v>
@@ -6306,16 +6315,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.00853351503610611</v>
+        <v>0.01020929031074047</v>
       </c>
       <c r="C123" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -6332,7 +6341,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.00853351503610611</v>
+        <v>0.008167432621121407</v>
       </c>
       <c r="C124" s="1">
         <v>8</v>
@@ -6355,16 +6364,16 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.00853351503610611</v>
+        <v>0.008167432621121407</v>
       </c>
       <c r="C125" s="1">
         <v>8</v>
       </c>
       <c r="D125" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E125" s="1">
         <v>8</v>
@@ -6376,21 +6385,21 @@
         <v>0</v>
       </c>
       <c r="H125" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B126" s="2">
-        <v>0.00853351503610611</v>
+        <v>0.008167432621121407</v>
       </c>
       <c r="C126" s="1">
         <v>8</v>
       </c>
       <c r="D126" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E126" s="1">
         <v>8</v>
@@ -6402,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6410,7 +6419,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.00853351503610611</v>
+        <v>0.008167432621121407</v>
       </c>
       <c r="C127" s="1">
         <v>8</v>
@@ -6436,16 +6445,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.00640013674274087</v>
+        <v>0.008167432621121407</v>
       </c>
       <c r="C128" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
       <c r="E128" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -6462,7 +6471,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.00640013674274087</v>
+        <v>0.006125574465841055</v>
       </c>
       <c r="C129" s="1">
         <v>6</v>
@@ -6488,7 +6497,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>0.00640013674274087</v>
+        <v>0.006125574465841055</v>
       </c>
       <c r="C130" s="1">
         <v>6</v>
@@ -6514,7 +6523,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>0.00640013674274087</v>
+        <v>0.006125574465841055</v>
       </c>
       <c r="C131" s="1">
         <v>6</v>
@@ -6540,16 +6549,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>0.004266757518053055</v>
+        <v>0.006125574465841055</v>
       </c>
       <c r="C132" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -6566,7 +6575,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>0.004266757518053055</v>
+        <v>0.004083716310560703</v>
       </c>
       <c r="C133" s="1">
         <v>4</v>
@@ -6592,16 +6601,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>0.002133378759026527</v>
+        <v>0.004083716310560703</v>
       </c>
       <c r="C134" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
       </c>
       <c r="E134" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -6618,7 +6627,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>0.002133378759026527</v>
+        <v>0.002041858155280352</v>
       </c>
       <c r="C135" s="1">
         <v>2</v>
@@ -6644,7 +6653,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>0.002133378759026527</v>
+        <v>0.002041858155280352</v>
       </c>
       <c r="C136" s="1">
         <v>2</v>
@@ -6670,7 +6679,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>0.002133378759026527</v>
+        <v>0.002041858155280352</v>
       </c>
       <c r="C137" s="1">
         <v>2</v>
@@ -6692,34 +6701,60 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.002041858155280352</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>2</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D138">
+      <c r="D139">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E138">
+      <c r="E139">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F138">
+      <c r="F139">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G138">
+      <c r="G139">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H138">
+      <c r="H139">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
